--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\io-model\BECbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\io-model\BECbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648A8BAF-7035-4068-AE9D-CFE11F2ACEE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657BF3DA-23C4-4FDF-A88A-1D652DDD5D84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="870" windowWidth="24090" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="195" windowWidth="26295" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="OECD VAL" sheetId="7" r:id="rId2"/>
     <sheet name="OECD Chem Pharma Split" sheetId="8" r:id="rId3"/>
-    <sheet name="BECbIC" sheetId="2" r:id="rId4"/>
+    <sheet name="BLS BEA Mining" sheetId="11" r:id="rId4"/>
+    <sheet name="BECbIC" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -644,7 +645,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="186">
   <si>
     <t>Source:</t>
   </si>
@@ -679,9 +680,6 @@
     <t>ISIC 01T03</t>
   </si>
   <si>
-    <t>ISIC 05T06</t>
-  </si>
-  <si>
     <t>ISIC 07T08</t>
   </si>
   <si>
@@ -1097,6 +1095,114 @@
   </si>
   <si>
     <t>and pharmaceuticals (ISIC 21) industries using data from a different OECD database.</t>
+  </si>
+  <si>
+    <t>Oil and gas extraction</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>ISIC 05</t>
+  </si>
+  <si>
+    <t>ISIC 06</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>Data for Year 2015</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Coal Mining</t>
+  </si>
+  <si>
+    <t>All Mining other than Oil and Gas</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>NAICS Code</t>
+  </si>
+  <si>
+    <t>2121</t>
+  </si>
+  <si>
+    <t>ISIC Code</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Employment (EEs)</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/ces/data/employment-and-earnings/2015/table1a_201512.pdf</t>
+  </si>
+  <si>
+    <t>BEA</t>
+  </si>
+  <si>
+    <t>Gross Output</t>
+  </si>
+  <si>
+    <t>https://apps.bea.gov/industry/Release/XLS/GDPxInd/GrossOutput.xlsx</t>
+  </si>
+  <si>
+    <t>Value Added</t>
+  </si>
+  <si>
+    <t>https://apps.bea.gov/industry/Release/XLS/CompByInd/ComponentsOfVa.xlsx</t>
+  </si>
+  <si>
+    <t>Compensation of employees</t>
+  </si>
+  <si>
+    <t>Taxes on production and imports less subsidies</t>
+  </si>
+  <si>
+    <t>Gross operating surplus</t>
+  </si>
+  <si>
+    <t>https://apps.bea.gov/industry/Release/XLS/UGdpxInd/GrossOutput.xlsx</t>
+  </si>
+  <si>
+    <t>Coal Mining vs. Oil &amp; Gas Extraction</t>
+  </si>
+  <si>
+    <t>U.S. Bureau of Labor Statistics</t>
+  </si>
+  <si>
+    <t>Current Employment Statistics (Dec 2015 release)</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/ces/data/employment-and-earnings/2015/home.htm</t>
+  </si>
+  <si>
+    <t>Table B-1a</t>
+  </si>
+  <si>
+    <t>Industry File Download</t>
+  </si>
+  <si>
+    <t>https://apps.bea.gov/iTable/iTable.cfm?isuri=1&amp;reqid=151&amp;step=1</t>
+  </si>
+  <si>
+    <t>Gross Output by Industry</t>
+  </si>
+  <si>
+    <t>Underlying Detail: Gross Output by Industry</t>
+  </si>
+  <si>
+    <t>Components of Value Added</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1213,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1207,8 +1313,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1254,6 +1367,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,12 +1438,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1364,66 +1484,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1460,11 +1523,86 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{3ADF3FF5-E4D2-4BC8-9960-7408DCCB591E}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{EC7586F6-9038-4498-85FD-BEB0422CDDC4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1742,7 +1880,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1753,15 +1891,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>143</v>
+      <c r="B3" s="31" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1776,22 +1914,22 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="50" t="s">
-        <v>145</v>
+      <c r="B10" s="31" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1806,64 +1944,130 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <v>0.9686815713640794</v>
+      </c>
+      <c r="B40" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
-        <v>0.9686815713640794</v>
-      </c>
-      <c r="B25" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{676EE023-F1C0-4717-8897-C81C92D54826}"/>
     <hyperlink ref="B14" r:id="rId2" xr:uid="{738871AA-8A85-449E-9916-DE46D7228F91}"/>
+    <hyperlink ref="B27" r:id="rId3" xr:uid="{7459F306-D96A-4A36-A09F-EBB23E90D3EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1900,302 +2104,302 @@
     </row>
     <row r="2" spans="1:38" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="41"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="36"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="36"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="26"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="21"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="21"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="36"/>
+    </row>
+    <row r="7" spans="1:38" ht="126" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="21"/>
-    </row>
-    <row r="7" spans="1:38" ht="126" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="P7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="Q7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="S7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="T7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="U7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="V7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="V7" s="8" t="s">
+      <c r="W7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="W7" s="8" t="s">
+      <c r="X7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="X7" s="8" t="s">
+      <c r="Y7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="Y7" s="8" t="s">
+      <c r="Z7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="Z7" s="8" t="s">
+      <c r="AA7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="AA7" s="8" t="s">
+      <c r="AB7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AB7" s="8" t="s">
+      <c r="AC7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AC7" s="8" t="s">
+      <c r="AD7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AD7" s="8" t="s">
+      <c r="AE7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AE7" s="8" t="s">
+      <c r="AF7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AF7" s="8" t="s">
+      <c r="AG7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AG7" s="8" t="s">
+      <c r="AH7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AH7" s="8" t="s">
+      <c r="AI7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AI7" s="8" t="s">
+      <c r="AJ7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AJ7" s="8" t="s">
+      <c r="AK7" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AK7" s="8" t="s">
+      <c r="AL7" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="AL7" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>9</v>
@@ -2311,7 +2515,7 @@
     </row>
     <row r="9" spans="1:38" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>9</v>
@@ -2427,7 +2631,7 @@
     </row>
     <row r="10" spans="1:38" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>9</v>
@@ -2543,7 +2747,7 @@
     </row>
     <row r="11" spans="1:38" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>9</v>
@@ -2659,7 +2863,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2700,1279 +2904,1279 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="e">
+      <c r="A1" s="17" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+    </row>
+    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="49" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="G4" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="50"/>
+      <c r="I4" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="50"/>
+      <c r="K4" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" s="50"/>
+    </row>
+    <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="23">
+        <v>17390</v>
+      </c>
+      <c r="D7" s="23">
+        <v>10427</v>
+      </c>
+      <c r="E7" s="23">
+        <v>6061</v>
+      </c>
+      <c r="F7" s="23">
+        <v>3451</v>
+      </c>
+      <c r="G7" s="23">
+        <v>2949</v>
+      </c>
+      <c r="H7" s="23">
+        <v>1466</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2957</v>
+      </c>
+      <c r="J7" s="23">
+        <v>1941</v>
+      </c>
+      <c r="K7" s="23">
+        <v>151</v>
+      </c>
+      <c r="L7" s="23">
+        <v>48</v>
+      </c>
+      <c r="M7" s="23">
+        <v>31.715</v>
+      </c>
+      <c r="N7" s="23">
+        <v>16.427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="24">
+        <v>13142.207</v>
+      </c>
+      <c r="D8" s="24">
+        <v>4268.8580000000002</v>
+      </c>
+      <c r="E8" s="24">
+        <v>2750.683</v>
+      </c>
+      <c r="F8" s="24">
+        <v>2190.2440000000001</v>
+      </c>
+      <c r="G8" s="24">
+        <v>1169.6790000000001</v>
+      </c>
+      <c r="H8" s="24">
+        <v>999.32500000000005</v>
+      </c>
+      <c r="I8" s="24">
+        <v>1540.5920000000001</v>
+      </c>
+      <c r="J8" s="24">
+        <v>1143.9290000000001</v>
+      </c>
+      <c r="K8" s="24">
+        <v>40.411999999999999</v>
+      </c>
+      <c r="L8" s="24">
+        <v>46.99</v>
+      </c>
+      <c r="M8" s="24">
+        <v>17.47</v>
+      </c>
+      <c r="N8" s="24">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="23">
+        <v>32184.7</v>
+      </c>
+      <c r="D9" s="23">
+        <v>15967.8</v>
+      </c>
+      <c r="E9" s="23">
+        <v>9208.1</v>
+      </c>
+      <c r="F9" s="23">
+        <v>5799.6</v>
+      </c>
+      <c r="G9" s="23">
+        <v>4169.7</v>
+      </c>
+      <c r="H9" s="23">
+        <v>2219.6999999999998</v>
+      </c>
+      <c r="I9" s="23">
+        <v>5127.8</v>
+      </c>
+      <c r="J9" s="23">
+        <v>3664</v>
+      </c>
+      <c r="K9" s="23">
+        <v>-89.4</v>
+      </c>
+      <c r="L9" s="23">
+        <v>-84.1</v>
+      </c>
+      <c r="M9" s="23">
+        <v>44</v>
+      </c>
+      <c r="N9" s="23">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="24">
+        <v>4296151.79</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1176806.6969999999</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1262313.6129999999</v>
+      </c>
+      <c r="F10" s="24">
+        <v>414529.82299999997</v>
+      </c>
+      <c r="G10" s="24">
+        <v>410617.86</v>
+      </c>
+      <c r="H10" s="24">
+        <v>197186.617</v>
+      </c>
+      <c r="I10" s="24">
+        <v>825702.42099999997</v>
+      </c>
+      <c r="J10" s="24">
+        <v>207059.06099999999</v>
+      </c>
+      <c r="K10" s="24">
+        <v>25993.348999999998</v>
+      </c>
+      <c r="L10" s="24">
+        <v>10284.14</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="23">
+        <v>155577</v>
+      </c>
+      <c r="D11" s="23">
+        <v>41847</v>
+      </c>
+      <c r="E11" s="23">
+        <v>40096</v>
+      </c>
+      <c r="F11" s="23">
+        <v>17707</v>
+      </c>
+      <c r="G11" s="23">
+        <v>14359</v>
+      </c>
+      <c r="H11" s="23">
+        <v>4980</v>
+      </c>
+      <c r="I11" s="23">
+        <v>25779</v>
+      </c>
+      <c r="J11" s="23">
+        <v>12717</v>
+      </c>
+      <c r="K11" s="23">
+        <v>-42</v>
+      </c>
+      <c r="L11" s="23">
+        <v>10</v>
+      </c>
+      <c r="M11" s="23">
+        <v>30.922000000000001</v>
+      </c>
+      <c r="N11" s="23">
+        <v>11.698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="24">
+        <v>41360</v>
+      </c>
+      <c r="D12" s="24">
+        <v>92114</v>
+      </c>
+      <c r="E12" s="24">
+        <v>18022</v>
+      </c>
+      <c r="F12" s="24">
+        <v>60233</v>
+      </c>
+      <c r="G12" s="24">
+        <v>6417</v>
+      </c>
+      <c r="H12" s="24">
+        <v>16429</v>
+      </c>
+      <c r="I12" s="24">
+        <v>11520</v>
+      </c>
+      <c r="J12" s="24">
+        <v>43707</v>
+      </c>
+      <c r="K12" s="24">
+        <v>85</v>
+      </c>
+      <c r="L12" s="24">
+        <v>98</v>
+      </c>
+      <c r="M12" s="24">
+        <v>11.451000000000001</v>
+      </c>
+      <c r="N12" s="24">
+        <v>22.722000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="23">
+        <v>429.8</v>
+      </c>
+      <c r="D13" s="23">
+        <v>45.4</v>
+      </c>
+      <c r="E13" s="23">
+        <v>106.1</v>
+      </c>
+      <c r="F13" s="23">
+        <v>11</v>
+      </c>
+      <c r="G13" s="23">
+        <v>50.2</v>
+      </c>
+      <c r="H13" s="23">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I13" s="23">
+        <v>56</v>
+      </c>
+      <c r="J13" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="K13" s="23">
+        <v>-0.1</v>
+      </c>
+      <c r="L13" s="23">
+        <v>0</v>
+      </c>
+      <c r="M13" s="23">
+        <v>3.1</v>
+      </c>
+      <c r="N13" s="23">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="24">
+        <v>7559</v>
+      </c>
+      <c r="D14" s="24">
+        <v>1835</v>
+      </c>
+      <c r="E14" s="24">
+        <v>2022</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1315</v>
+      </c>
+      <c r="G14" s="24">
+        <v>775</v>
+      </c>
+      <c r="H14" s="24">
+        <v>264</v>
+      </c>
+      <c r="I14" s="24">
+        <v>1266</v>
+      </c>
+      <c r="J14" s="24">
+        <v>1056</v>
+      </c>
+      <c r="K14" s="24">
+        <v>-19</v>
+      </c>
+      <c r="L14" s="24">
+        <v>-5</v>
+      </c>
+      <c r="M14" s="24">
+        <v>12.8</v>
+      </c>
+      <c r="N14" s="24">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="23">
+        <v>64869</v>
+      </c>
+      <c r="D15" s="23">
+        <v>26029</v>
+      </c>
+      <c r="E15" s="23">
+        <v>19595</v>
+      </c>
+      <c r="F15" s="23">
+        <v>12412</v>
+      </c>
+      <c r="G15" s="23">
+        <v>8882</v>
+      </c>
+      <c r="H15" s="23">
+        <v>4218</v>
+      </c>
+      <c r="I15" s="23">
+        <v>9941</v>
+      </c>
+      <c r="J15" s="23">
+        <v>7853</v>
+      </c>
+      <c r="K15" s="23">
+        <v>772</v>
+      </c>
+      <c r="L15" s="23">
+        <v>341</v>
+      </c>
+      <c r="M15" s="23">
+        <v>111</v>
+      </c>
+      <c r="N15" s="23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="24">
+        <v>137727</v>
+      </c>
+      <c r="D16" s="24">
+        <v>46535</v>
+      </c>
+      <c r="E16" s="24">
+        <v>45580</v>
+      </c>
+      <c r="F16" s="24">
+        <v>22858</v>
+      </c>
+      <c r="G16" s="24">
+        <v>24028</v>
+      </c>
+      <c r="H16" s="24">
+        <v>8909</v>
+      </c>
+      <c r="I16" s="24">
+        <v>21374</v>
+      </c>
+      <c r="J16" s="24">
+        <v>13883</v>
+      </c>
+      <c r="K16" s="24">
+        <v>178</v>
+      </c>
+      <c r="L16" s="24">
+        <v>66</v>
+      </c>
+      <c r="M16" s="24">
+        <v>348</v>
+      </c>
+      <c r="N16" s="24">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="23">
+        <v>1561214</v>
+      </c>
+      <c r="D17" s="23">
+        <v>950652</v>
+      </c>
+      <c r="E17" s="23">
+        <v>392029</v>
+      </c>
+      <c r="F17" s="23">
+        <v>450794</v>
+      </c>
+      <c r="G17" s="23">
+        <v>89594</v>
+      </c>
+      <c r="H17" s="23">
+        <v>149504</v>
+      </c>
+      <c r="I17" s="23">
+        <v>294084</v>
+      </c>
+      <c r="J17" s="23">
+        <v>298569</v>
+      </c>
+      <c r="K17" s="23">
+        <v>8351</v>
+      </c>
+      <c r="L17" s="23">
+        <v>2721</v>
+      </c>
+      <c r="M17" s="23">
+        <v>16.291</v>
+      </c>
+      <c r="N17" s="23">
+        <v>20.789000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="24">
+        <v>50506.5</v>
+      </c>
+      <c r="D18" s="24">
+        <v>25044.1</v>
+      </c>
+      <c r="E18" s="24">
+        <v>10896.2</v>
+      </c>
+      <c r="F18" s="24">
+        <v>8888.5</v>
+      </c>
+      <c r="G18" s="24">
+        <v>5723.3</v>
+      </c>
+      <c r="H18" s="24">
+        <v>4034.3</v>
+      </c>
+      <c r="I18" s="24">
+        <v>4864.1000000000004</v>
+      </c>
+      <c r="J18" s="24">
+        <v>4486.5</v>
+      </c>
+      <c r="K18" s="24">
+        <v>308.8</v>
+      </c>
+      <c r="L18" s="24">
+        <v>367.7</v>
+      </c>
+      <c r="M18" s="24">
+        <v>109.7</v>
+      </c>
+      <c r="N18" s="24">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="23">
+        <v>22424500</v>
+      </c>
+      <c r="D19" s="23">
+        <v>9255400</v>
+      </c>
+      <c r="E19" s="23">
+        <v>8516400</v>
+      </c>
+      <c r="F19" s="23">
+        <v>3015900</v>
+      </c>
+      <c r="G19" s="23">
+        <v>2266700</v>
+      </c>
+      <c r="H19" s="23">
+        <v>802700</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="M19" s="23">
+        <v>328</v>
+      </c>
+      <c r="N19" s="23">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="24">
+        <v>144820316</v>
+      </c>
+      <c r="D20" s="24">
+        <v>17629352</v>
+      </c>
+      <c r="E20" s="24">
+        <v>38090317</v>
+      </c>
+      <c r="F20" s="24">
+        <v>6699394</v>
+      </c>
+      <c r="G20" s="24">
+        <v>9391789</v>
+      </c>
+      <c r="H20" s="24">
+        <v>1980796</v>
+      </c>
+      <c r="I20" s="24">
+        <v>28334763</v>
+      </c>
+      <c r="J20" s="24">
+        <v>4673860</v>
+      </c>
+      <c r="K20" s="24">
+        <v>363765</v>
+      </c>
+      <c r="L20" s="24">
+        <v>44738</v>
+      </c>
+      <c r="M20" s="24">
+        <v>175.2</v>
+      </c>
+      <c r="N20" s="24">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="23">
+        <v>245.93</v>
+      </c>
+      <c r="D21" s="23">
+        <v>156.44999999999999</v>
+      </c>
+      <c r="E21" s="23">
+        <v>61.082999999999998</v>
+      </c>
+      <c r="F21" s="23">
+        <v>78.703999999999994</v>
+      </c>
+      <c r="G21" s="23">
+        <v>33.743000000000002</v>
+      </c>
+      <c r="H21" s="23">
+        <v>41.521000000000001</v>
+      </c>
+      <c r="I21" s="23">
+        <v>26.463999999999999</v>
+      </c>
+      <c r="J21" s="23">
+        <v>36.499000000000002</v>
+      </c>
+      <c r="K21" s="23">
+        <v>0.876</v>
+      </c>
+      <c r="L21" s="23">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="M21" s="23">
+        <v>2.8730000000000002</v>
+      </c>
+      <c r="N21" s="23">
+        <v>2.351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="24">
+        <v>2026.5</v>
+      </c>
+      <c r="D22" s="24">
+        <v>215.7</v>
+      </c>
+      <c r="E22" s="24">
+        <v>532.5</v>
+      </c>
+      <c r="F22" s="24">
+        <v>169.2</v>
+      </c>
+      <c r="G22" s="24">
+        <v>126.7</v>
+      </c>
+      <c r="H22" s="24">
+        <v>17.5</v>
+      </c>
+      <c r="I22" s="24">
+        <v>407.4</v>
+      </c>
+      <c r="J22" s="24">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="K22" s="24">
+        <v>-1.5</v>
+      </c>
+      <c r="L22" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="M22" s="24">
+        <v>6.6</v>
+      </c>
+      <c r="N22" s="24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="23">
+        <v>720647.26100000006</v>
+      </c>
+      <c r="D23" s="23">
+        <v>275739.48700000002</v>
+      </c>
+      <c r="E23" s="23">
+        <v>210925.78400000001</v>
+      </c>
+      <c r="F23" s="23">
+        <v>65884.478000000003</v>
+      </c>
+      <c r="G23" s="23">
+        <v>38561.97</v>
+      </c>
+      <c r="H23" s="23">
+        <v>25493.957999999999</v>
+      </c>
+      <c r="I23" s="23">
+        <v>170135.56</v>
+      </c>
+      <c r="J23" s="23">
+        <v>39511.928999999996</v>
+      </c>
+      <c r="K23" s="23">
+        <v>2228.2539999999999</v>
+      </c>
+      <c r="L23" s="23">
+        <v>878.59100000000001</v>
+      </c>
+      <c r="M23" s="23">
+        <v>155.35499999999999</v>
+      </c>
+      <c r="N23" s="23">
+        <v>118.422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="24">
+        <v>41782</v>
+      </c>
+      <c r="D24" s="24">
+        <v>5784</v>
+      </c>
+      <c r="E24" s="24">
+        <v>9497</v>
+      </c>
+      <c r="F24" s="24">
+        <v>2423</v>
+      </c>
+      <c r="G24" s="24">
+        <v>3475</v>
+      </c>
+      <c r="H24" s="24">
+        <v>902</v>
+      </c>
+      <c r="I24" s="24">
+        <v>6007</v>
+      </c>
+      <c r="J24" s="24">
+        <v>1552</v>
+      </c>
+      <c r="K24" s="24">
+        <v>15</v>
+      </c>
+      <c r="L24" s="24">
+        <v>-31</v>
+      </c>
+      <c r="M24" s="24">
+        <v>43</v>
+      </c>
+      <c r="N24" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="23">
+        <v>56741</v>
+      </c>
+      <c r="D25" s="23">
+        <v>12448</v>
+      </c>
+      <c r="E25" s="23">
+        <v>15300</v>
+      </c>
+      <c r="F25" s="23">
+        <v>6492</v>
+      </c>
+      <c r="G25" s="23">
+        <v>7609</v>
+      </c>
+      <c r="H25" s="23">
+        <v>2019</v>
+      </c>
+      <c r="I25" s="23">
+        <v>7709</v>
+      </c>
+      <c r="J25" s="23">
+        <v>4473</v>
+      </c>
+      <c r="K25" s="23">
+        <v>-18</v>
+      </c>
+      <c r="L25" s="23">
+        <v>0</v>
+      </c>
+      <c r="M25" s="23">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N25" s="23">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="24">
+        <v>4356.4840000000004</v>
+      </c>
+      <c r="D26" s="24">
+        <v>1175.9290000000001</v>
+      </c>
+      <c r="E26" s="24">
+        <v>878.67700000000002</v>
+      </c>
+      <c r="F26" s="24">
+        <v>505.16399999999999</v>
+      </c>
+      <c r="G26" s="24">
+        <v>356.76100000000002</v>
+      </c>
+      <c r="H26" s="24">
+        <v>204.215</v>
+      </c>
+      <c r="I26" s="24">
+        <v>503.59199999999998</v>
+      </c>
+      <c r="J26" s="24">
+        <v>225.114</v>
+      </c>
+      <c r="K26" s="24">
+        <v>18.324000000000002</v>
+      </c>
+      <c r="L26" s="24">
+        <v>75.834999999999994</v>
+      </c>
+      <c r="M26" s="24">
+        <v>12.057</v>
+      </c>
+      <c r="N26" s="24">
+        <v>6.2270000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="23">
+        <v>1907.855</v>
+      </c>
+      <c r="D27" s="23">
+        <v>209.029</v>
+      </c>
+      <c r="E27" s="23">
+        <v>646.14</v>
+      </c>
+      <c r="F27" s="23">
+        <v>55.09</v>
+      </c>
+      <c r="G27" s="23">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="H27" s="23">
+        <v>45.83</v>
+      </c>
+      <c r="I27" s="23">
+        <v>492.09699999999998</v>
+      </c>
+      <c r="J27" s="23">
+        <v>9.3350000000000009</v>
+      </c>
+      <c r="K27" s="23">
+        <v>-2.2650000000000001</v>
+      </c>
+      <c r="L27" s="23">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="M27" s="23">
+        <v>8.5920000000000005</v>
+      </c>
+      <c r="N27" s="23">
+        <v>2.2280000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="24">
+        <v>36741</v>
+      </c>
+      <c r="D28" s="24">
+        <v>15161</v>
+      </c>
+      <c r="E28" s="24">
+        <v>8061</v>
+      </c>
+      <c r="F28" s="24">
+        <v>6833</v>
+      </c>
+      <c r="G28" s="24">
+        <v>3954</v>
+      </c>
+      <c r="H28" s="24">
+        <v>2115</v>
+      </c>
+      <c r="I28" s="24">
+        <v>4057</v>
+      </c>
+      <c r="J28" s="24">
+        <v>4711</v>
+      </c>
+      <c r="K28" s="24">
+        <v>50</v>
+      </c>
+      <c r="L28" s="24">
         <v>7</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33"/>
-    </row>
-    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="N4" s="37"/>
-    </row>
-    <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="M5" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="N5" s="38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="42">
-        <v>17390</v>
-      </c>
-      <c r="D7" s="42">
-        <v>10427</v>
-      </c>
-      <c r="E7" s="42">
-        <v>6061</v>
-      </c>
-      <c r="F7" s="42">
-        <v>3451</v>
-      </c>
-      <c r="G7" s="42">
-        <v>2949</v>
-      </c>
-      <c r="H7" s="42">
-        <v>1466</v>
-      </c>
-      <c r="I7" s="42">
-        <v>2957</v>
-      </c>
-      <c r="J7" s="42">
-        <v>1941</v>
-      </c>
-      <c r="K7" s="42">
-        <v>151</v>
-      </c>
-      <c r="L7" s="42">
-        <v>48</v>
-      </c>
-      <c r="M7" s="42">
-        <v>31.715</v>
-      </c>
-      <c r="N7" s="42">
-        <v>16.427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="43">
-        <v>13142.207</v>
-      </c>
-      <c r="D8" s="43">
-        <v>4268.8580000000002</v>
-      </c>
-      <c r="E8" s="43">
-        <v>2750.683</v>
-      </c>
-      <c r="F8" s="43">
-        <v>2190.2440000000001</v>
-      </c>
-      <c r="G8" s="43">
-        <v>1169.6790000000001</v>
-      </c>
-      <c r="H8" s="43">
-        <v>999.32500000000005</v>
-      </c>
-      <c r="I8" s="43">
-        <v>1540.5920000000001</v>
-      </c>
-      <c r="J8" s="43">
-        <v>1143.9290000000001</v>
-      </c>
-      <c r="K8" s="43">
-        <v>40.411999999999999</v>
-      </c>
-      <c r="L8" s="43">
-        <v>46.99</v>
-      </c>
-      <c r="M8" s="43">
-        <v>17.47</v>
-      </c>
-      <c r="N8" s="43">
-        <v>15.18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="42">
-        <v>32184.7</v>
-      </c>
-      <c r="D9" s="42">
-        <v>15967.8</v>
-      </c>
-      <c r="E9" s="42">
-        <v>9208.1</v>
-      </c>
-      <c r="F9" s="42">
-        <v>5799.6</v>
-      </c>
-      <c r="G9" s="42">
-        <v>4169.7</v>
-      </c>
-      <c r="H9" s="42">
-        <v>2219.6999999999998</v>
-      </c>
-      <c r="I9" s="42">
-        <v>5127.8</v>
-      </c>
-      <c r="J9" s="42">
-        <v>3664</v>
-      </c>
-      <c r="K9" s="42">
-        <v>-89.4</v>
-      </c>
-      <c r="L9" s="42">
-        <v>-84.1</v>
-      </c>
-      <c r="M9" s="42">
-        <v>44</v>
-      </c>
-      <c r="N9" s="42">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="M28" s="24">
+        <v>83.8</v>
+      </c>
+      <c r="N28" s="24">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="23">
+        <v>23031.416700000002</v>
+      </c>
+      <c r="D29" s="23">
+        <v>80032.204400000002</v>
+      </c>
+      <c r="E29" s="23">
+        <v>7470.1342000000004</v>
+      </c>
+      <c r="F29" s="23">
+        <v>28686.775900000001</v>
+      </c>
+      <c r="G29" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="43">
-        <v>4296151.79</v>
-      </c>
-      <c r="D10" s="43">
-        <v>1176806.6969999999</v>
-      </c>
-      <c r="E10" s="43">
-        <v>1262313.6129999999</v>
-      </c>
-      <c r="F10" s="43">
-        <v>414529.82299999997</v>
-      </c>
-      <c r="G10" s="43">
-        <v>410617.86</v>
-      </c>
-      <c r="H10" s="43">
-        <v>197186.617</v>
-      </c>
-      <c r="I10" s="43">
-        <v>825702.42099999997</v>
-      </c>
-      <c r="J10" s="43">
-        <v>207059.06099999999</v>
-      </c>
-      <c r="K10" s="43">
-        <v>25993.348999999998</v>
-      </c>
-      <c r="L10" s="43">
-        <v>10284.14</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="N10" s="43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="42">
-        <v>155577</v>
-      </c>
-      <c r="D11" s="42">
-        <v>41847</v>
-      </c>
-      <c r="E11" s="42">
-        <v>40096</v>
-      </c>
-      <c r="F11" s="42">
-        <v>17707</v>
-      </c>
-      <c r="G11" s="42">
-        <v>14359</v>
-      </c>
-      <c r="H11" s="42">
-        <v>4980</v>
-      </c>
-      <c r="I11" s="42">
-        <v>25779</v>
-      </c>
-      <c r="J11" s="42">
-        <v>12717</v>
-      </c>
-      <c r="K11" s="42">
-        <v>-42</v>
-      </c>
-      <c r="L11" s="42">
-        <v>10</v>
-      </c>
-      <c r="M11" s="42">
-        <v>30.922000000000001</v>
-      </c>
-      <c r="N11" s="42">
-        <v>11.698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="43">
-        <v>41360</v>
-      </c>
-      <c r="D12" s="43">
-        <v>92114</v>
-      </c>
-      <c r="E12" s="43">
-        <v>18022</v>
-      </c>
-      <c r="F12" s="43">
-        <v>60233</v>
-      </c>
-      <c r="G12" s="43">
-        <v>6417</v>
-      </c>
-      <c r="H12" s="43">
-        <v>16429</v>
-      </c>
-      <c r="I12" s="43">
-        <v>11520</v>
-      </c>
-      <c r="J12" s="43">
-        <v>43707</v>
-      </c>
-      <c r="K12" s="43">
-        <v>85</v>
-      </c>
-      <c r="L12" s="43">
-        <v>98</v>
-      </c>
-      <c r="M12" s="43">
-        <v>11.451000000000001</v>
-      </c>
-      <c r="N12" s="43">
-        <v>22.722000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="42">
-        <v>429.8</v>
-      </c>
-      <c r="D13" s="42">
-        <v>45.4</v>
-      </c>
-      <c r="E13" s="42">
-        <v>106.1</v>
-      </c>
-      <c r="F13" s="42">
-        <v>11</v>
-      </c>
-      <c r="G13" s="42">
-        <v>50.2</v>
-      </c>
-      <c r="H13" s="42">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I13" s="42">
-        <v>56</v>
-      </c>
-      <c r="J13" s="42">
-        <v>1.8</v>
-      </c>
-      <c r="K13" s="42">
-        <v>-0.1</v>
-      </c>
-      <c r="L13" s="42">
-        <v>0</v>
-      </c>
-      <c r="M13" s="42">
-        <v>3.1</v>
-      </c>
-      <c r="N13" s="42">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="43">
-        <v>7559</v>
-      </c>
-      <c r="D14" s="43">
-        <v>1835</v>
-      </c>
-      <c r="E14" s="43">
-        <v>2022</v>
-      </c>
-      <c r="F14" s="43">
-        <v>1315</v>
-      </c>
-      <c r="G14" s="43">
-        <v>775</v>
-      </c>
-      <c r="H14" s="43">
-        <v>264</v>
-      </c>
-      <c r="I14" s="43">
-        <v>1266</v>
-      </c>
-      <c r="J14" s="43">
-        <v>1056</v>
-      </c>
-      <c r="K14" s="43">
-        <v>-19</v>
-      </c>
-      <c r="L14" s="43">
-        <v>-5</v>
-      </c>
-      <c r="M14" s="43">
-        <v>12.8</v>
-      </c>
-      <c r="N14" s="43">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="42">
-        <v>64869</v>
-      </c>
-      <c r="D15" s="42">
-        <v>26029</v>
-      </c>
-      <c r="E15" s="42">
-        <v>19595</v>
-      </c>
-      <c r="F15" s="42">
-        <v>12412</v>
-      </c>
-      <c r="G15" s="42">
-        <v>8882</v>
-      </c>
-      <c r="H15" s="42">
-        <v>4218</v>
-      </c>
-      <c r="I15" s="42">
-        <v>9941</v>
-      </c>
-      <c r="J15" s="42">
-        <v>7853</v>
-      </c>
-      <c r="K15" s="42">
-        <v>772</v>
-      </c>
-      <c r="L15" s="42">
-        <v>341</v>
-      </c>
-      <c r="M15" s="42">
-        <v>111</v>
-      </c>
-      <c r="N15" s="42">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="43">
-        <v>137727</v>
-      </c>
-      <c r="D16" s="43">
-        <v>46535</v>
-      </c>
-      <c r="E16" s="43">
-        <v>45580</v>
-      </c>
-      <c r="F16" s="43">
-        <v>22858</v>
-      </c>
-      <c r="G16" s="43">
-        <v>24028</v>
-      </c>
-      <c r="H16" s="43">
-        <v>8909</v>
-      </c>
-      <c r="I16" s="43">
-        <v>21374</v>
-      </c>
-      <c r="J16" s="43">
-        <v>13883</v>
-      </c>
-      <c r="K16" s="43">
-        <v>178</v>
-      </c>
-      <c r="L16" s="43">
-        <v>66</v>
-      </c>
-      <c r="M16" s="43">
-        <v>348</v>
-      </c>
-      <c r="N16" s="43">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="42">
-        <v>1561214</v>
-      </c>
-      <c r="D17" s="42">
-        <v>950652</v>
-      </c>
-      <c r="E17" s="42">
-        <v>392029</v>
-      </c>
-      <c r="F17" s="42">
-        <v>450794</v>
-      </c>
-      <c r="G17" s="42">
-        <v>89594</v>
-      </c>
-      <c r="H17" s="42">
-        <v>149504</v>
-      </c>
-      <c r="I17" s="42">
-        <v>294084</v>
-      </c>
-      <c r="J17" s="42">
-        <v>298569</v>
-      </c>
-      <c r="K17" s="42">
-        <v>8351</v>
-      </c>
-      <c r="L17" s="42">
-        <v>2721</v>
-      </c>
-      <c r="M17" s="42">
-        <v>16.291</v>
-      </c>
-      <c r="N17" s="42">
-        <v>20.789000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="43">
-        <v>50506.5</v>
-      </c>
-      <c r="D18" s="43">
-        <v>25044.1</v>
-      </c>
-      <c r="E18" s="43">
-        <v>10896.2</v>
-      </c>
-      <c r="F18" s="43">
-        <v>8888.5</v>
-      </c>
-      <c r="G18" s="43">
-        <v>5723.3</v>
-      </c>
-      <c r="H18" s="43">
-        <v>4034.3</v>
-      </c>
-      <c r="I18" s="43">
-        <v>4864.1000000000004</v>
-      </c>
-      <c r="J18" s="43">
-        <v>4486.5</v>
-      </c>
-      <c r="K18" s="43">
-        <v>308.8</v>
-      </c>
-      <c r="L18" s="43">
-        <v>367.7</v>
-      </c>
-      <c r="M18" s="43">
-        <v>109.7</v>
-      </c>
-      <c r="N18" s="43">
-        <v>59.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="42">
-        <v>22424500</v>
-      </c>
-      <c r="D19" s="42">
-        <v>9255400</v>
-      </c>
-      <c r="E19" s="42">
-        <v>8516400</v>
-      </c>
-      <c r="F19" s="42">
-        <v>3015900</v>
-      </c>
-      <c r="G19" s="42">
-        <v>2266700</v>
-      </c>
-      <c r="H19" s="42">
-        <v>802700</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="K19" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="L19" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="M19" s="42">
-        <v>328</v>
-      </c>
-      <c r="N19" s="42">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="43">
-        <v>144820316</v>
-      </c>
-      <c r="D20" s="43">
-        <v>17629352</v>
-      </c>
-      <c r="E20" s="43">
-        <v>38090317</v>
-      </c>
-      <c r="F20" s="43">
-        <v>6699394</v>
-      </c>
-      <c r="G20" s="43">
-        <v>9391789</v>
-      </c>
-      <c r="H20" s="43">
-        <v>1980796</v>
-      </c>
-      <c r="I20" s="43">
-        <v>28334763</v>
-      </c>
-      <c r="J20" s="43">
-        <v>4673860</v>
-      </c>
-      <c r="K20" s="43">
-        <v>363765</v>
-      </c>
-      <c r="L20" s="43">
-        <v>44738</v>
-      </c>
-      <c r="M20" s="43">
-        <v>175.2</v>
-      </c>
-      <c r="N20" s="43">
-        <v>44.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="42">
-        <v>245.93</v>
-      </c>
-      <c r="D21" s="42">
-        <v>156.44999999999999</v>
-      </c>
-      <c r="E21" s="42">
-        <v>61.082999999999998</v>
-      </c>
-      <c r="F21" s="42">
-        <v>78.703999999999994</v>
-      </c>
-      <c r="G21" s="42">
-        <v>33.743000000000002</v>
-      </c>
-      <c r="H21" s="42">
-        <v>41.521000000000001</v>
-      </c>
-      <c r="I21" s="42">
-        <v>26.463999999999999</v>
-      </c>
-      <c r="J21" s="42">
-        <v>36.499000000000002</v>
-      </c>
-      <c r="K21" s="42">
-        <v>0.876</v>
-      </c>
-      <c r="L21" s="42">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="M21" s="42">
-        <v>2.8730000000000002</v>
-      </c>
-      <c r="N21" s="42">
-        <v>2.351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="43">
-        <v>2026.5</v>
-      </c>
-      <c r="D22" s="43">
-        <v>215.7</v>
-      </c>
-      <c r="E22" s="43">
-        <v>532.5</v>
-      </c>
-      <c r="F22" s="43">
-        <v>169.2</v>
-      </c>
-      <c r="G22" s="43">
-        <v>126.7</v>
-      </c>
-      <c r="H22" s="43">
-        <v>17.5</v>
-      </c>
-      <c r="I22" s="43">
-        <v>407.4</v>
-      </c>
-      <c r="J22" s="43">
-        <v>151.69999999999999</v>
-      </c>
-      <c r="K22" s="43">
-        <v>-1.5</v>
-      </c>
-      <c r="L22" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="M22" s="43">
-        <v>6.6</v>
-      </c>
-      <c r="N22" s="43">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="42">
-        <v>720647.26100000006</v>
-      </c>
-      <c r="D23" s="42">
-        <v>275739.48700000002</v>
-      </c>
-      <c r="E23" s="42">
-        <v>210925.78400000001</v>
-      </c>
-      <c r="F23" s="42">
-        <v>65884.478000000003</v>
-      </c>
-      <c r="G23" s="42">
-        <v>38561.97</v>
-      </c>
-      <c r="H23" s="42">
-        <v>25493.957999999999</v>
-      </c>
-      <c r="I23" s="42">
-        <v>170135.56</v>
-      </c>
-      <c r="J23" s="42">
-        <v>39511.928999999996</v>
-      </c>
-      <c r="K23" s="42">
-        <v>2228.2539999999999</v>
-      </c>
-      <c r="L23" s="42">
-        <v>878.59100000000001</v>
-      </c>
-      <c r="M23" s="42">
-        <v>155.35499999999999</v>
-      </c>
-      <c r="N23" s="42">
-        <v>118.422</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="43">
-        <v>41782</v>
-      </c>
-      <c r="D24" s="43">
-        <v>5784</v>
-      </c>
-      <c r="E24" s="43">
-        <v>9497</v>
-      </c>
-      <c r="F24" s="43">
-        <v>2423</v>
-      </c>
-      <c r="G24" s="43">
-        <v>3475</v>
-      </c>
-      <c r="H24" s="43">
-        <v>902</v>
-      </c>
-      <c r="I24" s="43">
-        <v>6007</v>
-      </c>
-      <c r="J24" s="43">
-        <v>1552</v>
-      </c>
-      <c r="K24" s="43">
-        <v>15</v>
-      </c>
-      <c r="L24" s="43">
-        <v>-31</v>
-      </c>
-      <c r="M24" s="43">
-        <v>43</v>
-      </c>
-      <c r="N24" s="43">
+      <c r="H29" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="M29" s="23">
+        <v>29.100999999999999</v>
+      </c>
+      <c r="N29" s="23">
+        <v>46.713000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="24">
+        <v>32794</v>
+      </c>
+      <c r="D30" s="24">
+        <v>21282</v>
+      </c>
+      <c r="E30" s="24">
+        <v>12217</v>
+      </c>
+      <c r="F30" s="24">
+        <v>11848</v>
+      </c>
+      <c r="G30" s="24">
+        <v>6748</v>
+      </c>
+      <c r="H30" s="24">
+        <v>4114</v>
+      </c>
+      <c r="I30" s="24">
+        <v>5410</v>
+      </c>
+      <c r="J30" s="24">
+        <v>7721</v>
+      </c>
+      <c r="K30" s="24">
+        <v>59</v>
+      </c>
+      <c r="L30" s="24">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="42">
-        <v>56741</v>
-      </c>
-      <c r="D25" s="42">
-        <v>12448</v>
-      </c>
-      <c r="E25" s="42">
-        <v>15300</v>
-      </c>
-      <c r="F25" s="42">
-        <v>6492</v>
-      </c>
-      <c r="G25" s="42">
-        <v>7609</v>
-      </c>
-      <c r="H25" s="42">
-        <v>2019</v>
-      </c>
-      <c r="I25" s="42">
-        <v>7709</v>
-      </c>
-      <c r="J25" s="42">
-        <v>4473</v>
-      </c>
-      <c r="K25" s="42">
-        <v>-18</v>
-      </c>
-      <c r="L25" s="42">
-        <v>0</v>
-      </c>
-      <c r="M25" s="42">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="N25" s="42">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="43">
-        <v>4356.4840000000004</v>
-      </c>
-      <c r="D26" s="43">
-        <v>1175.9290000000001</v>
-      </c>
-      <c r="E26" s="43">
-        <v>878.67700000000002</v>
-      </c>
-      <c r="F26" s="43">
-        <v>505.16399999999999</v>
-      </c>
-      <c r="G26" s="43">
-        <v>356.76100000000002</v>
-      </c>
-      <c r="H26" s="43">
-        <v>204.215</v>
-      </c>
-      <c r="I26" s="43">
-        <v>503.59199999999998</v>
-      </c>
-      <c r="J26" s="43">
-        <v>225.114</v>
-      </c>
-      <c r="K26" s="43">
-        <v>18.324000000000002</v>
-      </c>
-      <c r="L26" s="43">
-        <v>75.834999999999994</v>
-      </c>
-      <c r="M26" s="43">
-        <v>12.057</v>
-      </c>
-      <c r="N26" s="43">
-        <v>6.2270000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="42">
-        <v>1907.855</v>
-      </c>
-      <c r="D27" s="42">
-        <v>209.029</v>
-      </c>
-      <c r="E27" s="42">
-        <v>646.14</v>
-      </c>
-      <c r="F27" s="42">
-        <v>55.09</v>
-      </c>
-      <c r="G27" s="42">
-        <v>156.30000000000001</v>
-      </c>
-      <c r="H27" s="42">
-        <v>45.83</v>
-      </c>
-      <c r="I27" s="42">
-        <v>492.09699999999998</v>
-      </c>
-      <c r="J27" s="42">
-        <v>9.3350000000000009</v>
-      </c>
-      <c r="K27" s="42">
-        <v>-2.2650000000000001</v>
-      </c>
-      <c r="L27" s="42">
-        <v>-7.2999999999999995E-2</v>
-      </c>
-      <c r="M27" s="42">
-        <v>8.5920000000000005</v>
-      </c>
-      <c r="N27" s="42">
-        <v>2.2280000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="43">
-        <v>36741</v>
-      </c>
-      <c r="D28" s="43">
-        <v>15161</v>
-      </c>
-      <c r="E28" s="43">
-        <v>8061</v>
-      </c>
-      <c r="F28" s="43">
-        <v>6833</v>
-      </c>
-      <c r="G28" s="43">
-        <v>3954</v>
-      </c>
-      <c r="H28" s="43">
-        <v>2115</v>
-      </c>
-      <c r="I28" s="43">
-        <v>4057</v>
-      </c>
-      <c r="J28" s="43">
-        <v>4711</v>
-      </c>
-      <c r="K28" s="43">
-        <v>50</v>
-      </c>
-      <c r="L28" s="43">
-        <v>7</v>
-      </c>
-      <c r="M28" s="43">
-        <v>83.8</v>
-      </c>
-      <c r="N28" s="43">
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="42">
-        <v>23031.416700000002</v>
-      </c>
-      <c r="D29" s="42">
-        <v>80032.204400000002</v>
-      </c>
-      <c r="E29" s="42">
-        <v>7470.1342000000004</v>
-      </c>
-      <c r="F29" s="42">
-        <v>28686.775900000001</v>
-      </c>
-      <c r="G29" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="I29" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="J29" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="K29" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="L29" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="M29" s="42">
-        <v>29.100999999999999</v>
-      </c>
-      <c r="N29" s="42">
-        <v>46.713000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="M30" s="24">
+        <v>96.19</v>
+      </c>
+      <c r="N30" s="24">
+        <v>40.64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="43">
-        <v>32794</v>
-      </c>
-      <c r="D30" s="43">
-        <v>21282</v>
-      </c>
-      <c r="E30" s="43">
-        <v>12217</v>
-      </c>
-      <c r="F30" s="43">
-        <v>11848</v>
-      </c>
-      <c r="G30" s="43">
-        <v>6748</v>
-      </c>
-      <c r="H30" s="43">
-        <v>4114</v>
-      </c>
-      <c r="I30" s="43">
-        <v>5410</v>
-      </c>
-      <c r="J30" s="43">
-        <v>7721</v>
-      </c>
-      <c r="K30" s="43">
-        <v>59</v>
-      </c>
-      <c r="L30" s="43">
-        <v>13</v>
-      </c>
-      <c r="M30" s="43">
-        <v>96.19</v>
-      </c>
-      <c r="N30" s="43">
-        <v>40.64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
+      <c r="B31" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="23">
+        <v>515221</v>
+      </c>
+      <c r="D31" s="23">
+        <v>266206</v>
+      </c>
+      <c r="E31" s="23">
+        <v>184192</v>
+      </c>
+      <c r="F31" s="23">
+        <v>143569</v>
+      </c>
+      <c r="G31" s="23">
+        <v>54606</v>
+      </c>
+      <c r="H31" s="23">
+        <v>45877</v>
+      </c>
+      <c r="I31" s="23">
+        <v>120465</v>
+      </c>
+      <c r="J31" s="23">
+        <v>94460</v>
+      </c>
+      <c r="K31" s="23">
+        <v>9121</v>
+      </c>
+      <c r="L31" s="23">
+        <v>3232</v>
+      </c>
+      <c r="M31" s="23">
+        <v>534</v>
+      </c>
+      <c r="N31" s="23">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B31" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="42">
-        <v>515221</v>
-      </c>
-      <c r="D31" s="42">
-        <v>266206</v>
-      </c>
-      <c r="E31" s="42">
-        <v>184192</v>
-      </c>
-      <c r="F31" s="42">
-        <v>143569</v>
-      </c>
-      <c r="G31" s="42">
-        <v>54606</v>
-      </c>
-      <c r="H31" s="42">
-        <v>45877</v>
-      </c>
-      <c r="I31" s="42">
-        <v>120465</v>
-      </c>
-      <c r="J31" s="42">
-        <v>94460</v>
-      </c>
-      <c r="K31" s="42">
-        <v>9121</v>
-      </c>
-      <c r="L31" s="42">
-        <v>3232</v>
-      </c>
-      <c r="M31" s="42">
-        <v>534</v>
-      </c>
-      <c r="N31" s="42">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="47" t="s">
+      <c r="B34" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="B34" s="46" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="B35" s="27" t="s">
         <v>139</v>
-      </c>
-      <c r="B35" s="46" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4028,286 +4232,502 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BD2579-F3C9-4F4F-8A9E-605749BC8307}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="81" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="55"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="55"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6">
+        <v>64800</v>
+      </c>
+      <c r="C6">
+        <v>185400</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="51">
+        <v>40135000000</v>
+      </c>
+      <c r="C11" s="51">
+        <v>268953000000</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="56">
+        <v>268953000000</v>
+      </c>
+      <c r="D12" s="56">
+        <v>106189000000</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="58">
+        <f>$D13*($B$11/$D$12)</f>
+        <v>18895640697.24736</v>
+      </c>
+      <c r="C13" s="56">
+        <v>158231000000</v>
+      </c>
+      <c r="D13" s="56">
+        <v>49994000000</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="58">
+        <f t="shared" ref="B14:B16" si="0">$D14*($B$11/$D$12)</f>
+        <v>6824034739.9448147</v>
+      </c>
+      <c r="C14" s="56">
+        <v>38814000000</v>
+      </c>
+      <c r="D14" s="56">
+        <v>18055000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="58">
+        <f t="shared" si="0"/>
+        <v>1877696183.220484</v>
+      </c>
+      <c r="C15" s="56">
+        <v>32690000000</v>
+      </c>
+      <c r="D15" s="56">
+        <v>4968000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="58">
+        <f t="shared" si="0"/>
+        <v>10193909774.08206</v>
+      </c>
+      <c r="C16" s="56">
+        <v>86727000000</v>
+      </c>
+      <c r="D16" s="56">
+        <v>26971000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{BDB26FEB-44ED-4F2B-9C1F-3CB972317422}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{57423834-F0F5-445D-A56E-860A949A97FB}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{C68C8269-8EAA-4412-8B7A-B7FF3BD5F59D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="38" width="10.140625" customWidth="1"/>
+    <col min="2" max="39" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="L1" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AL1" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2">
-        <f>'OECD VAL'!C9*10^6*About!$A$25</f>
+        <f>'OECD VAL'!C9*10^6*About!$A$40</f>
         <v>54016507157.360023</v>
       </c>
-      <c r="C2">
-        <f>'OECD VAL'!D9*10^6*About!$A$25</f>
-        <v>42087940459.502907</v>
-      </c>
-      <c r="D2">
-        <f>'OECD VAL'!E9*10^6*About!$A$25</f>
+      <c r="C2" s="59">
+        <f>'OECD VAL'!D9*10^6*About!$A$40*('BLS BEA Mining'!B14/SUM('BLS BEA Mining'!B14:C14))</f>
+        <v>6293206301.826046</v>
+      </c>
+      <c r="D2" s="59">
+        <f>'OECD VAL'!D9*10^6*About!$A$40*('BLS BEA Mining'!C14/SUM('BLS BEA Mining'!B14:C14))</f>
+        <v>35794734157.676857</v>
+      </c>
+      <c r="E2">
+        <f>'OECD VAL'!E9*10^6*About!$A$40</f>
         <v>13192667088.040098</v>
       </c>
-      <c r="E2">
-        <f>'OECD VAL'!F9*10^6*About!$A$25</f>
+      <c r="F2">
+        <f>'OECD VAL'!F9*10^6*About!$A$40</f>
         <v>31699803162.920803</v>
       </c>
-      <c r="F2">
-        <f>'OECD VAL'!G9*10^6*About!$A$25</f>
+      <c r="G2">
+        <f>'OECD VAL'!G9*10^6*About!$A$40</f>
         <v>104565156568.91278</v>
       </c>
-      <c r="G2">
-        <f>'OECD VAL'!H9*10^6*About!$A$25</f>
+      <c r="H2">
+        <f>'OECD VAL'!H9*10^6*About!$A$40</f>
         <v>19249581096.571133</v>
       </c>
-      <c r="H2">
-        <f>'OECD VAL'!I9*10^6*About!$A$25</f>
+      <c r="I2">
+        <f>'OECD VAL'!I9*10^6*About!$A$40</f>
         <v>19084921697.025951</v>
       </c>
-      <c r="I2">
-        <f>'OECD VAL'!J9*10^6*About!$A$25</f>
+      <c r="J2">
+        <f>'OECD VAL'!J9*10^6*About!$A$40</f>
         <v>53950867356.721252</v>
       </c>
-      <c r="J2">
-        <f>'OECD VAL'!K9*10^6*About!$A$25</f>
+      <c r="K2">
+        <f>'OECD VAL'!K9*10^6*About!$A$40</f>
         <v>17895825352.232121</v>
       </c>
-      <c r="K2" s="49">
-        <f>'OECD VAL'!L9*10^6*About!$A$25*('OECD Chem Pharma Split'!G$31/SUM('OECD Chem Pharma Split'!$G$31:$H$31))</f>
+      <c r="L2" s="30">
+        <f>'OECD VAL'!L9*10^6*About!$A$40*('OECD Chem Pharma Split'!G$31/SUM('OECD Chem Pharma Split'!$G$31:$H$31))</f>
         <v>53198480153.393837</v>
       </c>
-      <c r="L2" s="49">
-        <f>'OECD VAL'!L9*10^6*About!$A$25*('OECD Chem Pharma Split'!H$31/SUM('OECD Chem Pharma Split'!$G$31:$H$31))</f>
+      <c r="M2" s="30">
+        <f>'OECD VAL'!L9*10^6*About!$A$40*('OECD Chem Pharma Split'!H$31/SUM('OECD Chem Pharma Split'!$G$31:$H$31))</f>
         <v>44694478152.533585</v>
       </c>
-      <c r="M2">
-        <f>'OECD VAL'!M9*10^6*About!$A$25</f>
+      <c r="N2">
+        <f>'OECD VAL'!M9*10^6*About!$A$40</f>
         <v>48035143530.62439</v>
       </c>
-      <c r="N2">
-        <f>'OECD VAL'!N9*10^6*About!$A$25</f>
+      <c r="O2">
+        <f>'OECD VAL'!N9*10^6*About!$A$40</f>
         <v>27963696179.008259</v>
       </c>
-      <c r="O2">
-        <f>'OECD VAL'!O9*10^6*About!$A$25</f>
+      <c r="P2">
+        <f>'OECD VAL'!O9*10^6*About!$A$40</f>
         <v>30535090470.641346</v>
       </c>
-      <c r="P2">
-        <f>'OECD VAL'!P9*10^6*About!$A$25</f>
+      <c r="Q2">
+        <f>'OECD VAL'!P9*10^6*About!$A$40</f>
         <v>93149679188.412643</v>
       </c>
-      <c r="Q2">
-        <f>'OECD VAL'!Q9*10^6*About!$A$25</f>
+      <c r="R2">
+        <f>'OECD VAL'!Q9*10^6*About!$A$40</f>
         <v>133807960921.68916</v>
       </c>
-      <c r="R2">
-        <f>'OECD VAL'!R9*10^6*About!$A$25</f>
+      <c r="S2">
+        <f>'OECD VAL'!R9*10^6*About!$A$40</f>
         <v>33053576343.528103</v>
       </c>
-      <c r="S2">
-        <f>'OECD VAL'!S9*10^6*About!$A$25</f>
+      <c r="T2">
+        <f>'OECD VAL'!S9*10^6*About!$A$40</f>
         <v>87657629558.546432</v>
       </c>
-      <c r="T2">
-        <f>'OECD VAL'!T9*10^6*About!$A$25</f>
+      <c r="U2">
+        <f>'OECD VAL'!T9*10^6*About!$A$40</f>
         <v>66099176562.997589</v>
       </c>
-      <c r="U2">
-        <f>'OECD VAL'!U9*10^6*About!$A$25</f>
+      <c r="V2">
+        <f>'OECD VAL'!U9*10^6*About!$A$40</f>
         <v>76755469135.572556</v>
       </c>
-      <c r="V2">
-        <f>'OECD VAL'!V9*10^6*About!$A$25</f>
+      <c r="W2">
+        <f>'OECD VAL'!V9*10^6*About!$A$40</f>
         <v>70758876865.8535</v>
       </c>
-      <c r="W2">
-        <f>'OECD VAL'!W9*10^6*About!$A$25</f>
+      <c r="X2">
+        <f>'OECD VAL'!W9*10^6*About!$A$40</f>
         <v>99649765984.524323</v>
       </c>
-      <c r="X2">
-        <f>'OECD VAL'!X9*10^6*About!$A$25</f>
+      <c r="Y2">
+        <f>'OECD VAL'!X9*10^6*About!$A$40</f>
         <v>443551633131.10876</v>
       </c>
-      <c r="Y2">
-        <f>'OECD VAL'!Y9*10^6*About!$A$25</f>
+      <c r="Z2">
+        <f>'OECD VAL'!Y9*10^6*About!$A$40</f>
         <v>1092867487465.397</v>
       </c>
-      <c r="Z2">
-        <f>'OECD VAL'!Z9*10^6*About!$A$25</f>
+      <c r="AA2">
+        <f>'OECD VAL'!Z9*10^6*About!$A$40</f>
         <v>358730084291.4812</v>
       </c>
-      <c r="AA2">
-        <f>'OECD VAL'!AA9*10^6*About!$A$25</f>
+      <c r="AB2">
+        <f>'OECD VAL'!AA9*10^6*About!$A$40</f>
         <v>330227698478.54797</v>
       </c>
-      <c r="AB2">
-        <f>'OECD VAL'!AB9*10^6*About!$A$25</f>
+      <c r="AC2">
+        <f>'OECD VAL'!AB9*10^6*About!$A$40</f>
         <v>197642858841.8468</v>
       </c>
-      <c r="AC2">
-        <f>'OECD VAL'!AC9*10^6*About!$A$25</f>
+      <c r="AD2">
+        <f>'OECD VAL'!AC9*10^6*About!$A$40</f>
         <v>83292175969.808075</v>
       </c>
-      <c r="AD2">
-        <f>'OECD VAL'!AD9*10^6*About!$A$25</f>
+      <c r="AE2">
+        <f>'OECD VAL'!AD9*10^6*About!$A$40</f>
         <v>286458782608.58081</v>
       </c>
-      <c r="AE2">
-        <f>'OECD VAL'!AE9*10^6*About!$A$25</f>
+      <c r="AF2">
+        <f>'OECD VAL'!AE9*10^6*About!$A$40</f>
         <v>726862913582.39282</v>
       </c>
-      <c r="AF2">
-        <f>'OECD VAL'!AF9*10^6*About!$A$25</f>
+      <c r="AG2">
+        <f>'OECD VAL'!AF9*10^6*About!$A$40</f>
         <v>99124994367.416687</v>
       </c>
-      <c r="AG2">
-        <f>'OECD VAL'!AG9*10^6*About!$A$25</f>
+      <c r="AH2">
+        <f>'OECD VAL'!AG9*10^6*About!$A$40</f>
         <v>1320219395505.2676</v>
       </c>
-      <c r="AH2">
-        <f>'OECD VAL'!AH9*10^6*About!$A$25</f>
+      <c r="AI2">
+        <f>'OECD VAL'!AH9*10^6*About!$A$40</f>
         <v>1182871631888.7844</v>
       </c>
-      <c r="AI2">
-        <f>'OECD VAL'!AI9*10^6*About!$A$25</f>
+      <c r="AJ2">
+        <f>'OECD VAL'!AI9*10^6*About!$A$40</f>
         <v>838587376723.22241</v>
       </c>
-      <c r="AJ2">
-        <f>'OECD VAL'!AJ9*10^6*About!$A$25</f>
+      <c r="AK2">
+        <f>'OECD VAL'!AJ9*10^6*About!$A$40</f>
         <v>1041787952118.6583</v>
       </c>
-      <c r="AK2">
-        <f>'OECD VAL'!AK9*10^6*About!$A$25</f>
+      <c r="AL2">
+        <f>'OECD VAL'!AK9*10^6*About!$A$40</f>
         <v>309954904850.23438</v>
       </c>
-      <c r="AL2">
-        <f>'OECD VAL'!AL9*10^6*About!$A$25</f>
+      <c r="AM2">
+        <f>'OECD VAL'!AL9*10^6*About!$A$40</f>
         <v>20682998307.294415</v>
       </c>
     </row>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-us\InputData\io-model\BECbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5590272F-386E-4FEA-ABD5-AFA53E950A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56BC002-89E8-4A48-B461-E0816D6418D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="-2835" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="28695" yWindow="-2835" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="2" xr2:uid="{2D04116C-D85F-4EB5-AC9B-E829AD772F99}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="720" windowWidth="16330" windowHeight="11280" firstSheet="1" activeTab="2" xr2:uid="{2D04116C-D85F-4EB5-AC9B-E829AD772F99}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="809">
   <si>
     <t>Source:</t>
   </si>
@@ -2427,9 +2427,6 @@
     <t xml:space="preserve">  Other services, except government</t>
   </si>
   <si>
-    <t>ISIC 45T47; ISIC 31T33; ISIC 86T88</t>
-  </si>
-  <si>
     <t>Government</t>
   </si>
   <si>
@@ -2458,6 +2455,15 @@
   </si>
   <si>
     <t>2012 USD per 2021 USD</t>
+  </si>
+  <si>
+    <t>ISIC 351; ISIC 352T353; ISIC 36T39</t>
+  </si>
+  <si>
+    <t>ISIC 241; ISIC 25</t>
+  </si>
+  <si>
+    <t>ISIC 45T47; ISIC 31T33; ISIC 86T88; ISIC 97T98</t>
   </si>
 </sst>
 </file>
@@ -2469,7 +2475,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2566,6 +2572,13 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2812,7 +2825,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2924,6 +2937,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -2954,24 +2978,20 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3257,8 +3277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:B36"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -3322,7 +3342,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -3412,15 +3432,15 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="16">
-        <v>0.87</v>
+        <v>0.84730412960844359</v>
       </c>
       <c r="B36" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
   </sheetData>
@@ -3471,186 +3491,186 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="62"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="67"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="57"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="61"/>
+      <c r="AK4" s="61"/>
+      <c r="AL4" s="62"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="57"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="61"/>
+      <c r="AH5" s="61"/>
+      <c r="AI5" s="61"/>
+      <c r="AJ5" s="61"/>
+      <c r="AK5" s="61"/>
+      <c r="AL5" s="62"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55" t="s">
+      <c r="B6" s="59"/>
+      <c r="C6" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="56"/>
-      <c r="AF6" s="56"/>
-      <c r="AG6" s="56"/>
-      <c r="AH6" s="56"/>
-      <c r="AI6" s="56"/>
-      <c r="AJ6" s="56"/>
-      <c r="AK6" s="56"/>
-      <c r="AL6" s="57"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="61"/>
+      <c r="AK6" s="61"/>
+      <c r="AL6" s="62"/>
     </row>
     <row r="7" spans="1:38" ht="100" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="8" t="s">
         <v>46</v>
       </c>
@@ -3876,7 +3896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>83</v>
       </c>
@@ -4255,11 +4275,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8C587C-7426-4416-B5D2-4CE6749008D1}">
   <dimension ref="A1:S455"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="J98" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L115" sqref="L115"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
     <sheetView tabSelected="1" topLeftCell="I102" workbookViewId="1">
       <selection activeCell="L115" sqref="L115"/>
@@ -4268,14 +4288,15 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="48.26953125" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="2" max="2" width="36.26953125" customWidth="1"/>
     <col min="3" max="3" width="40.1796875" customWidth="1"/>
     <col min="4" max="4" width="20.26953125" customWidth="1"/>
     <col min="5" max="5" width="24.1796875" customWidth="1"/>
     <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="9" width="20.81640625" customWidth="1"/>
+    <col min="7" max="8" width="20.81640625" customWidth="1"/>
+    <col min="9" max="9" width="48.1796875" customWidth="1"/>
     <col min="10" max="10" width="19.81640625" customWidth="1"/>
-    <col min="11" max="11" width="23.453125" customWidth="1"/>
+    <col min="11" max="11" width="23.453125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="22.453125" customWidth="1"/>
     <col min="13" max="13" width="20.26953125" customWidth="1"/>
     <col min="14" max="15" width="18.453125" customWidth="1"/>
@@ -4524,7 +4545,10 @@
         <f>SUM(D285:D288)*10^6</f>
         <v>240932000000</v>
       </c>
-      <c r="I7" s="29"/>
+      <c r="I7" s="29">
+        <f>SUM(G7:H7)</f>
+        <v>706533000000</v>
+      </c>
       <c r="J7" s="33">
         <f>D77*10^6</f>
         <v>23111000000</v>
@@ -4533,7 +4557,10 @@
         <f>SUM(D76,D78:D87)*10^6</f>
         <v>88102000000</v>
       </c>
-      <c r="L7" s="29"/>
+      <c r="L7" s="68">
+        <f>SUM(J7:K7)</f>
+        <v>111213000000</v>
+      </c>
       <c r="M7" s="33">
         <f>SUM(D88:D89,D96)*10^6</f>
         <v>116253000000</v>
@@ -4542,7 +4569,10 @@
         <f>SUM(D90:D95,D97)*10^6</f>
         <v>99282000000</v>
       </c>
-      <c r="O7" s="29"/>
+      <c r="O7" s="68">
+        <f>SUM(M7:N7)</f>
+        <v>215535000000</v>
+      </c>
       <c r="P7" s="33">
         <f>SUM(D48:D57)*10^6</f>
         <v>394231000000</v>
@@ -4552,10 +4582,13 @@
         <v>92955000000</v>
       </c>
       <c r="R7" s="33">
-        <f>SUM(D59,D392)*10^6</f>
-        <v>112027000000</v>
-      </c>
-      <c r="S7" s="29"/>
+        <f>SUM(D59)*10^6</f>
+        <v>12745000000</v>
+      </c>
+      <c r="S7" s="68">
+        <f>SUM(P7:R7)</f>
+        <v>499931000000</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
@@ -4568,10 +4601,10 @@
         <v>118</v>
       </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="21">
+      <c r="E8" s="69">
         <v>455730000000</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="70">
         <v>108964000000</v>
       </c>
       <c r="G8" s="21"/>
@@ -4601,8 +4634,8 @@
         <v>Value Added</v>
       </c>
       <c r="D9" s="22">
-        <f>$F9*($D$7/$F$8)</f>
-        <v>15479673690.393156</v>
+        <f>$F9*($D$7/$F$7)</f>
+        <v>17057807348.078033</v>
       </c>
       <c r="E9" s="21">
         <f>K33*10^6</f>
@@ -4613,52 +4646,52 @@
         <v>61242000000</v>
       </c>
       <c r="G9" s="36">
-        <f>$I9*(G$7/$I$8)</f>
-        <v>241565921689.77579</v>
+        <f>$I9*(G$7/$I$7)</f>
+        <v>289689144587.72626</v>
       </c>
       <c r="H9" s="36">
-        <f>$I9*(H$7/$I$8)</f>
-        <v>125001794765.39154</v>
+        <f>$I9*(H$7/$I$7)</f>
+        <v>149903855412.27374</v>
       </c>
       <c r="I9" s="34">
         <f>K58*10^6</f>
         <v>439593000000</v>
       </c>
       <c r="J9" s="36">
-        <f>$L9*(J$7/$L$8)</f>
-        <v>11092073258.245739</v>
+        <f>$L9*(J$7/$L$7)</f>
+        <v>14593347675.181858</v>
       </c>
       <c r="K9" s="36">
-        <f>$L9*(K$7/$L$8)</f>
-        <v>42284359750.680023</v>
+        <f>$L9*(K$7/$L$7)</f>
+        <v>55631652324.818138</v>
       </c>
       <c r="L9" s="35">
         <f>K41*10^6</f>
         <v>70225000000</v>
       </c>
       <c r="M9" s="36">
-        <f>$O9*(M$7/$O$8)</f>
-        <v>34134025390.610119</v>
+        <f>$O9*(M$7/$O$7)</f>
+        <v>41577835423.481102</v>
       </c>
       <c r="N9" s="36">
-        <f>$O9*(N$7/$O$8)</f>
-        <v>29151026716.132523</v>
+        <f>$O9*(N$7/$O$7)</f>
+        <v>35508164576.51889</v>
       </c>
       <c r="O9" s="35">
         <f>K42*10^6</f>
         <v>77086000000</v>
       </c>
       <c r="P9" s="36">
-        <f t="shared" ref="P9:R12" si="0">$S9*(P$7/$S$8)</f>
-        <v>231678467719.94449</v>
+        <f>$S9*(P$7/$S$7)</f>
+        <v>298423587887.12842</v>
       </c>
       <c r="Q9" s="36">
+        <f t="shared" ref="Q9:R9" si="0">$S9*(Q$7/$S$7)</f>
+        <v>70364747095.099121</v>
+      </c>
+      <c r="R9" s="36">
         <f t="shared" si="0"/>
-        <v>54627038378.279327</v>
-      </c>
-      <c r="R9" s="36">
-        <f>$S9*(R$7/$S$8)</f>
-        <v>65835116221.865402</v>
+        <v>9647665017.7724514</v>
       </c>
       <c r="S9" s="35">
         <f>K36*10^6</f>
@@ -4674,68 +4707,68 @@
         <v>Compensation of employees</v>
       </c>
       <c r="D10" s="22">
-        <f t="shared" ref="D10:D12" si="2">$F10*($D$7/$F$8)</f>
-        <v>4563624775.155097</v>
+        <f>$F10*($D$7/$F$7)</f>
+        <v>5162297139.0431118</v>
       </c>
       <c r="E10" s="21">
         <f>L33*10^6</f>
-        <v>38814000000</v>
+        <v>24826000000</v>
       </c>
       <c r="F10" s="34">
         <f>L34*10^6</f>
-        <v>18055000000</v>
+        <v>18534000000</v>
       </c>
       <c r="G10" s="36">
-        <f t="shared" ref="G10:H12" si="3">$I10*(G$7/$I$8)</f>
-        <v>55217046093.163567</v>
+        <f>$I10*(G$7/$I$7)</f>
+        <v>78457188349.305695</v>
       </c>
       <c r="H10" s="36">
-        <f t="shared" si="3"/>
-        <v>28572862492.38744</v>
+        <f>$I10*(H$7/$I$7)</f>
+        <v>40598811650.694305</v>
       </c>
       <c r="I10" s="34">
         <f>L58*10^6</f>
-        <v>100482000000</v>
+        <v>119056000000</v>
       </c>
       <c r="J10" s="36">
-        <f t="shared" ref="J10:K12" si="4">$L10*(J$7/$L$8)</f>
-        <v>4277299306.9888878</v>
+        <f>$L10*(J$7/$L$7)</f>
+        <v>6897162112.3429813</v>
       </c>
       <c r="K10" s="36">
-        <f t="shared" si="4"/>
-        <v>16305595757.186401</v>
+        <f t="shared" ref="K10:L12" si="2">$L10*(K$7/$L$8)</f>
+        <v>19984590959.41716</v>
       </c>
       <c r="L10" s="35">
         <f>L41*10^6</f>
-        <v>27080000000</v>
+        <v>33190000000</v>
       </c>
       <c r="M10" s="36">
-        <f t="shared" ref="M10:N12" si="5">$O10*(M$7/$O$8)</f>
-        <v>14008562219.564405</v>
+        <f>$O10*(M$7/$O$7)</f>
+        <v>18278692170.645138</v>
       </c>
       <c r="N10" s="36">
-        <f t="shared" si="5"/>
-        <v>11963545665.770288</v>
+        <f>$O10*(N$7/$O$7)</f>
+        <v>15610307829.35486</v>
       </c>
       <c r="O10" s="35">
         <f>L42*10^6</f>
-        <v>31636000000</v>
+        <v>33889000000</v>
       </c>
       <c r="P10" s="36">
-        <f t="shared" si="0"/>
-        <v>47523851039.974663</v>
+        <f>$S10*(P$7/$S$7)</f>
+        <v>73568926339.8349</v>
       </c>
       <c r="Q10" s="36">
-        <f t="shared" si="0"/>
-        <v>11205561139.080498</v>
+        <f>$S10*(Q$7/$S$7)</f>
+        <v>17346681382.03072</v>
       </c>
       <c r="R10" s="36">
-        <f t="shared" si="0"/>
-        <v>13504657067.696962</v>
+        <f>$S10*(R$7/$S$7)</f>
+        <v>2378392278.1343822</v>
       </c>
       <c r="S10" s="35">
         <f>L36*10^6</f>
-        <v>77628000000</v>
+        <v>93294000000</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -4747,68 +4780,68 @@
         <v>Taxes on production and imports, less subsidies</v>
       </c>
       <c r="D11" s="22">
-        <f t="shared" si="2"/>
-        <v>1255723505.0108292</v>
+        <f>$F11*($D$7/$F$7)</f>
+        <v>1580943053.9121995</v>
       </c>
       <c r="E11" s="21">
         <f>M33*10^6</f>
-        <v>32690000000</v>
+        <v>37895000000</v>
       </c>
       <c r="F11" s="34">
         <f>M34*10^6</f>
-        <v>4968000000</v>
+        <v>5676000000</v>
       </c>
       <c r="G11" s="36">
-        <f t="shared" si="3"/>
-        <v>8952808611.9884243</v>
+        <f>$I11*(G$7/$I$7)</f>
+        <v>12514295850.299988</v>
       </c>
       <c r="H11" s="36">
-        <f t="shared" si="3"/>
-        <v>4632760849.9629402</v>
+        <f>$I11*(H$7/$I$7)</f>
+        <v>6475704149.7000141</v>
       </c>
       <c r="I11" s="34">
         <f>M58*10^6</f>
-        <v>16292000000</v>
+        <v>18990000000</v>
       </c>
       <c r="J11" s="36">
-        <f t="shared" si="4"/>
-        <v>228396410.55782613</v>
+        <f>$L11*(J$7/$L$7)</f>
+        <v>232537643.98046991</v>
       </c>
       <c r="K11" s="36">
-        <f t="shared" si="4"/>
-        <v>870675460.29880118</v>
+        <f t="shared" si="2"/>
+        <v>673779972.38890624</v>
       </c>
       <c r="L11" s="35">
         <f>M41*10^6</f>
-        <v>1446000000</v>
+        <v>1119000000</v>
       </c>
       <c r="M11" s="36">
-        <f t="shared" si="5"/>
-        <v>1099483499.5314963</v>
+        <f>$O11*(M$7/$O$7)</f>
+        <v>1186612847.1013987</v>
       </c>
       <c r="N11" s="36">
-        <f t="shared" si="5"/>
-        <v>938977237.58084536</v>
+        <f>$O11*(N$7/$O$7)</f>
+        <v>1013387152.8986012</v>
       </c>
       <c r="O11" s="35">
         <f>M42*10^6</f>
-        <v>2483000000</v>
+        <v>2200000000</v>
       </c>
       <c r="P11" s="36">
-        <f t="shared" si="0"/>
-        <v>36126526172.514359</v>
+        <f>$S11*(P$7/$S$7)</f>
+        <v>55477534523.764282</v>
       </c>
       <c r="Q11" s="36">
-        <f t="shared" si="0"/>
-        <v>8518206940.5147533</v>
+        <f>$S11*(Q$7/$S$7)</f>
+        <v>13080945490.477686</v>
       </c>
       <c r="R11" s="36">
-        <f t="shared" si="0"/>
-        <v>10265926189.285637</v>
+        <f>$S11*(R$7/$S$7)</f>
+        <v>1793519985.7580345</v>
       </c>
       <c r="S11" s="35">
         <f>M36*10^6</f>
-        <v>59011000000</v>
+        <v>70352000000</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -4820,74 +4853,75 @@
         <v>Gross operating surplus</v>
       </c>
       <c r="D12" s="22">
-        <f t="shared" si="2"/>
-        <v>6817254157.3363676</v>
+        <f>$F12*($D$7/$F$7)</f>
+        <v>10314567155.122723</v>
       </c>
       <c r="E12" s="21">
         <f>N33*10^6</f>
-        <v>86727000000</v>
+        <v>176495000000</v>
       </c>
       <c r="F12" s="34">
         <f>N34*10^6</f>
-        <v>26971000000</v>
+        <v>37032000000</v>
       </c>
       <c r="G12" s="36">
-        <f t="shared" si="3"/>
-        <v>118809902943.99516</v>
+        <f>$I12*(G$7/$I$7)</f>
+        <v>198717001394.13165</v>
       </c>
       <c r="H12" s="36">
-        <f t="shared" si="3"/>
-        <v>61479909914.503288</v>
+        <f>$I12*(H$7/$I$7)</f>
+        <v>102828998605.86838</v>
       </c>
       <c r="I12" s="34">
         <f>N58*10^6</f>
-        <v>216206000000</v>
+        <v>301546000000</v>
       </c>
       <c r="J12" s="36">
-        <f t="shared" si="4"/>
-        <v>4128036092.6201839</v>
+        <f>$L12*(J$7/$L$7)</f>
+        <v>7463647918.858407</v>
       </c>
       <c r="K12" s="36">
-        <f t="shared" si="4"/>
-        <v>15736585860.933035</v>
+        <f t="shared" si="2"/>
+        <v>21625988818.873959</v>
       </c>
       <c r="L12" s="35">
         <f>N41*10^6</f>
-        <v>26135000000</v>
+        <v>35916000000</v>
       </c>
       <c r="M12" s="36">
-        <f t="shared" si="5"/>
-        <v>11489447588.539564</v>
+        <f>$O12*(M$7/$O$7)</f>
+        <v>22113069775.210522</v>
       </c>
       <c r="N12" s="36">
-        <f t="shared" si="5"/>
-        <v>9812179775.8800621</v>
+        <f>$O12*(N$7/$O$7)</f>
+        <v>18884930224.789478</v>
       </c>
       <c r="O12" s="35">
         <f>N42*10^6</f>
-        <v>25947000000</v>
+        <v>40998000000</v>
       </c>
       <c r="P12" s="36">
-        <f t="shared" si="0"/>
-        <v>99539412481.869949</v>
+        <f>$S12*(P$7/$S$7)</f>
+        <v>169377127023.52924</v>
       </c>
       <c r="Q12" s="36">
-        <f t="shared" si="0"/>
-        <v>23470214385.099648</v>
+        <f>$S12*(Q$7/$S$7)</f>
+        <v>39937120222.590714</v>
       </c>
       <c r="R12" s="36">
-        <f t="shared" si="0"/>
-        <v>28285704985.418304</v>
+        <f>$S12*(R$7/$S$7)</f>
+        <v>5475752753.8800354</v>
       </c>
       <c r="S12" s="35">
         <f>N36*10^6</f>
-        <v>162593000000</v>
+        <v>214790000000</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>695</v>
       </c>
+      <c r="K19" s="71"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
@@ -4898,6 +4932,7 @@
       <c r="B21" t="s">
         <v>697</v>
       </c>
+      <c r="D21" s="71"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
@@ -4979,13 +5014,13 @@
         <v>23315081</v>
       </c>
       <c r="L27" s="42">
-        <v>9709535</v>
+        <v>12549140</v>
       </c>
       <c r="M27" s="42">
-        <v>1217959</v>
+        <v>1181454</v>
       </c>
       <c r="N27" s="42">
-        <v>7310806</v>
+        <v>9584486</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.35">
@@ -5011,13 +5046,13 @@
         <v>20502200</v>
       </c>
       <c r="L28" s="42">
-        <v>7863213</v>
+        <v>10338235</v>
       </c>
       <c r="M28" s="42">
-        <v>1242490</v>
+        <v>1228623</v>
       </c>
       <c r="N28" s="42">
-        <v>6793156</v>
+        <v>8935342</v>
       </c>
       <c r="P28" s="19"/>
     </row>
@@ -5043,17 +5078,17 @@
       <c r="J29" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="42">
+      <c r="K29" s="72">
         <v>206568</v>
       </c>
       <c r="L29" s="42">
-        <v>50616</v>
+        <v>61364</v>
       </c>
       <c r="M29" s="42">
-        <v>2314</v>
+        <v>-13408</v>
       </c>
       <c r="N29" s="42">
-        <v>129354</v>
+        <v>158612</v>
       </c>
       <c r="P29" s="19"/>
     </row>
@@ -5076,17 +5111,17 @@
       <c r="I30" t="s">
         <v>704</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="72">
         <v>164706</v>
       </c>
       <c r="L30" s="42">
-        <v>27205</v>
+        <v>31511</v>
       </c>
       <c r="M30" s="42">
-        <v>789</v>
+        <v>-14489</v>
       </c>
       <c r="N30" s="42">
-        <v>119390</v>
+        <v>147685</v>
       </c>
       <c r="P30" s="19"/>
     </row>
@@ -5109,17 +5144,17 @@
       <c r="I31" t="s">
         <v>705</v>
       </c>
-      <c r="K31" s="42">
+      <c r="K31" s="72">
         <v>41862</v>
       </c>
       <c r="L31" s="42">
-        <v>23410</v>
+        <v>29853</v>
       </c>
       <c r="M31" s="42">
-        <v>1525</v>
+        <v>1081</v>
       </c>
       <c r="N31" s="42">
-        <v>9964</v>
+        <v>10928</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.35">
@@ -5141,17 +5176,17 @@
       <c r="I32" t="s">
         <v>706</v>
       </c>
-      <c r="K32" s="42">
+      <c r="K32" s="72">
         <v>333935</v>
       </c>
       <c r="L32" s="42">
-        <v>91867</v>
+        <v>67307</v>
       </c>
       <c r="M32" s="42">
-        <v>40072</v>
+        <v>43668</v>
       </c>
       <c r="N32" s="42">
-        <v>129835</v>
+        <v>222959</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
@@ -5176,17 +5211,17 @@
       <c r="J33" t="s">
         <v>102</v>
       </c>
-      <c r="K33" s="42">
+      <c r="K33" s="72">
         <v>239216</v>
       </c>
       <c r="L33" s="42">
-        <v>38814</v>
+        <v>24826</v>
       </c>
       <c r="M33" s="42">
-        <v>32690</v>
+        <v>37895</v>
       </c>
       <c r="N33" s="42">
-        <v>86727</v>
+        <v>176495</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
@@ -5211,17 +5246,17 @@
       <c r="J34" t="s">
         <v>709</v>
       </c>
-      <c r="K34" s="42">
+      <c r="K34" s="72">
         <v>61242</v>
       </c>
       <c r="L34" s="42">
-        <v>18055</v>
+        <v>18534</v>
       </c>
       <c r="M34" s="42">
-        <v>4968</v>
+        <v>5676</v>
       </c>
       <c r="N34" s="42">
-        <v>26971</v>
+        <v>37032</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
@@ -5243,17 +5278,20 @@
       <c r="I35" t="s">
         <v>710</v>
       </c>
-      <c r="K35" s="42">
+      <c r="J35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="72">
         <v>33477</v>
       </c>
       <c r="L35" s="42">
-        <v>34998</v>
+        <v>23948</v>
       </c>
       <c r="M35" s="42">
-        <v>2415</v>
+        <v>98</v>
       </c>
       <c r="N35" s="42">
-        <v>16137</v>
+        <v>9432</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
@@ -5276,19 +5314,19 @@
         <v>711</v>
       </c>
       <c r="J36" t="s">
-        <v>682</v>
-      </c>
-      <c r="K36" s="42">
+        <v>806</v>
+      </c>
+      <c r="K36" s="72">
         <v>378436</v>
       </c>
       <c r="L36" s="42">
-        <v>77628</v>
+        <v>93294</v>
       </c>
       <c r="M36" s="42">
-        <v>59011</v>
+        <v>70352</v>
       </c>
       <c r="N36" s="42">
-        <v>162593</v>
+        <v>214790</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
@@ -5313,17 +5351,17 @@
       <c r="J37" t="s">
         <v>26</v>
       </c>
-      <c r="K37" s="42">
+      <c r="K37" s="72">
         <v>945303</v>
       </c>
       <c r="L37" s="42">
-        <v>458477</v>
+        <v>635566</v>
       </c>
       <c r="M37" s="42">
-        <v>8976</v>
+        <v>-21700</v>
       </c>
       <c r="N37" s="42">
-        <v>227490</v>
+        <v>331437</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
@@ -5349,13 +5387,13 @@
         <v>2496804</v>
       </c>
       <c r="L38" s="42">
-        <v>1006425</v>
+        <v>1183656</v>
       </c>
       <c r="M38" s="42">
-        <v>85526</v>
+        <v>66392</v>
       </c>
       <c r="N38" s="42">
-        <v>1037641</v>
+        <v>1246756</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
@@ -5381,13 +5419,13 @@
         <v>1394985</v>
       </c>
       <c r="L39" s="42">
-        <v>662696</v>
+        <v>778644</v>
       </c>
       <c r="M39" s="42">
-        <v>30260</v>
+        <v>14922</v>
       </c>
       <c r="N39" s="42">
-        <v>490800</v>
+        <v>601419</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
@@ -5415,17 +5453,17 @@
       <c r="J40" t="s">
         <v>15</v>
       </c>
-      <c r="K40" s="42">
+      <c r="K40" s="72">
         <v>61811</v>
       </c>
       <c r="L40" s="42">
-        <v>20428</v>
+        <v>28148</v>
       </c>
       <c r="M40" s="42">
-        <v>704</v>
+        <v>68</v>
       </c>
       <c r="N40" s="42">
-        <v>11353</v>
+        <v>33594</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.35">
@@ -5453,17 +5491,17 @@
       <c r="J41" t="s">
         <v>717</v>
       </c>
-      <c r="K41" s="42">
+      <c r="K41" s="72">
         <v>70225</v>
       </c>
       <c r="L41" s="42">
-        <v>27080</v>
+        <v>33190</v>
       </c>
       <c r="M41" s="42">
-        <v>1446</v>
+        <v>1119</v>
       </c>
       <c r="N41" s="42">
-        <v>26135</v>
+        <v>35916</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.35">
@@ -5486,19 +5524,19 @@
         <v>718</v>
       </c>
       <c r="J42" t="s">
-        <v>680</v>
-      </c>
-      <c r="K42" s="42">
+        <v>807</v>
+      </c>
+      <c r="K42" s="72">
         <v>77086</v>
       </c>
       <c r="L42" s="42">
-        <v>31636</v>
+        <v>33889</v>
       </c>
       <c r="M42" s="42">
-        <v>2483</v>
+        <v>2200</v>
       </c>
       <c r="N42" s="42">
-        <v>25947</v>
+        <v>40998</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.35">
@@ -5523,17 +5561,17 @@
       <c r="J43" t="s">
         <v>720</v>
       </c>
-      <c r="K43" s="42">
+      <c r="K43" s="73">
         <v>162141</v>
       </c>
       <c r="L43" s="42">
-        <v>97092</v>
+        <v>107966</v>
       </c>
       <c r="M43" s="42">
-        <v>3374</v>
+        <v>-2241</v>
       </c>
       <c r="N43" s="42">
-        <v>46896</v>
+        <v>56416</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.35">
@@ -5558,17 +5596,17 @@
       <c r="J44" t="s">
         <v>722</v>
       </c>
-      <c r="K44" s="42">
+      <c r="K44" s="73">
         <v>174610</v>
       </c>
       <c r="L44" s="42">
-        <v>94664</v>
+        <v>101965</v>
       </c>
       <c r="M44" s="42">
-        <v>3548</v>
+        <v>953</v>
       </c>
       <c r="N44" s="42">
-        <v>54260</v>
+        <v>71692</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.35">
@@ -5597,13 +5635,13 @@
         <v>334033</v>
       </c>
       <c r="L45" s="42">
-        <v>137529</v>
+        <v>183744</v>
       </c>
       <c r="M45" s="42">
-        <v>8570</v>
+        <v>8444</v>
       </c>
       <c r="N45" s="42">
-        <v>121224</v>
+        <v>141845</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.35">
@@ -5632,13 +5670,13 @@
         <v>67654</v>
       </c>
       <c r="L46" s="42">
-        <v>34671</v>
+        <v>40560</v>
       </c>
       <c r="M46" s="42">
-        <v>879</v>
+        <v>378</v>
       </c>
       <c r="N46" s="42">
-        <v>28080</v>
+        <v>26716</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.35">
@@ -5667,13 +5705,13 @@
         <v>158687</v>
       </c>
       <c r="L47" s="42">
-        <v>69905</v>
+        <v>80207</v>
       </c>
       <c r="M47" s="42">
-        <v>3414</v>
+        <v>3063</v>
       </c>
       <c r="N47" s="42">
-        <v>72921</v>
+        <v>75417</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.35">
@@ -5705,13 +5743,13 @@
         <v>156822</v>
       </c>
       <c r="L48" s="42">
-        <v>77790</v>
+        <v>84679</v>
       </c>
       <c r="M48" s="42">
-        <v>2485</v>
+        <v>2333</v>
       </c>
       <c r="N48" s="42">
-        <v>68800</v>
+        <v>69809</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.35">
@@ -5743,13 +5781,13 @@
         <v>31513</v>
       </c>
       <c r="L49" s="42">
-        <v>20277</v>
+        <v>23500</v>
       </c>
       <c r="M49" s="42">
-        <v>387</v>
+        <v>-824</v>
       </c>
       <c r="N49" s="42">
-        <v>8477</v>
+        <v>8837</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.35">
@@ -5781,13 +5819,13 @@
         <v>100403</v>
       </c>
       <c r="L50" s="42">
-        <v>51622</v>
+        <v>60795</v>
       </c>
       <c r="M50" s="42">
-        <v>2969</v>
+        <v>-571</v>
       </c>
       <c r="N50" s="42">
-        <v>26708</v>
+        <v>40179</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.35">
@@ -5816,13 +5854,13 @@
         <v>1101819</v>
       </c>
       <c r="L51" s="42">
-        <v>343730</v>
+        <v>405012</v>
       </c>
       <c r="M51" s="42">
-        <v>55266</v>
+        <v>51469</v>
       </c>
       <c r="N51" s="42">
-        <v>546841</v>
+        <v>645337</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.35">
@@ -5854,13 +5892,13 @@
         <v>322576</v>
       </c>
       <c r="L52" s="42">
-        <v>103480</v>
+        <v>134314</v>
       </c>
       <c r="M52" s="42">
-        <v>30122</v>
+        <v>26683</v>
       </c>
       <c r="N52" s="42">
-        <v>128122</v>
+        <v>161579</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.35">
@@ -5892,13 +5930,13 @@
         <v>17689</v>
       </c>
       <c r="L53" s="42">
-        <v>12017</v>
+        <v>12358</v>
       </c>
       <c r="M53" s="42">
-        <v>571</v>
+        <v>234</v>
       </c>
       <c r="N53" s="42">
-        <v>5348</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.35">
@@ -5930,13 +5968,13 @@
         <v>8310</v>
       </c>
       <c r="L54" s="42">
-        <v>8174</v>
+        <v>7262</v>
       </c>
       <c r="M54" s="42">
-        <v>290</v>
+        <v>-577</v>
       </c>
       <c r="N54" s="42">
-        <v>1230</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.35">
@@ -5968,13 +6006,13 @@
         <v>62260</v>
       </c>
       <c r="L55" s="42">
-        <v>30172</v>
+        <v>32368</v>
       </c>
       <c r="M55" s="42">
-        <v>1736</v>
+        <v>1830</v>
       </c>
       <c r="N55" s="42">
-        <v>27760</v>
+        <v>28062</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.35">
@@ -6006,13 +6044,13 @@
         <v>36946</v>
       </c>
       <c r="L56" s="42">
-        <v>26028</v>
+        <v>24722</v>
       </c>
       <c r="M56" s="42">
-        <v>762</v>
+        <v>-1115</v>
       </c>
       <c r="N56" s="42">
-        <v>13421</v>
+        <v>13338</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.35">
@@ -6044,13 +6082,13 @@
         <v>129339</v>
       </c>
       <c r="L57" s="42">
-        <v>19815</v>
+        <v>20164</v>
       </c>
       <c r="M57" s="42">
-        <v>3677</v>
+        <v>4344</v>
       </c>
       <c r="N57" s="42">
-        <v>121879</v>
+        <v>104831</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.35">
@@ -6082,13 +6120,13 @@
         <v>439593</v>
       </c>
       <c r="L58" s="42">
-        <v>100482</v>
+        <v>119056</v>
       </c>
       <c r="M58" s="42">
-        <v>16292</v>
+        <v>18990</v>
       </c>
       <c r="N58" s="42">
-        <v>216206</v>
+        <v>301546</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.35">
@@ -6120,13 +6158,13 @@
         <v>85107</v>
       </c>
       <c r="L59" s="42">
-        <v>43560</v>
+        <v>54768</v>
       </c>
       <c r="M59" s="42">
-        <v>1817</v>
+        <v>1081</v>
       </c>
       <c r="N59" s="42">
-        <v>32875</v>
+        <v>29258</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.35">
@@ -6155,13 +6193,13 @@
         <v>1444497</v>
       </c>
       <c r="L60" s="42">
-        <v>509809</v>
+        <v>605994</v>
       </c>
       <c r="M60" s="42">
-        <v>210383</v>
+        <v>291032</v>
       </c>
       <c r="N60" s="42">
-        <v>422674</v>
+        <v>547472</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.35">
@@ -6187,13 +6225,13 @@
         <v>1391128</v>
       </c>
       <c r="L61" s="42">
-        <v>573627</v>
+        <v>745483</v>
       </c>
       <c r="M61" s="42">
-        <v>216863</v>
+        <v>271713</v>
       </c>
       <c r="N61" s="42">
-        <v>229589</v>
+        <v>373931</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.35">
@@ -6221,15 +6259,9 @@
       <c r="K62" s="42">
         <v>280758</v>
       </c>
-      <c r="L62" s="42">
-        <v>320031</v>
-      </c>
-      <c r="M62" s="42">
-        <v>34977</v>
-      </c>
-      <c r="N62" s="42">
-        <v>210828</v>
-      </c>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B63">
@@ -6256,15 +6288,9 @@
       <c r="K63" s="42">
         <v>184632</v>
       </c>
-      <c r="L63" s="42">
-        <v>48445</v>
-      </c>
-      <c r="M63" s="42">
-        <v>22055</v>
-      </c>
-      <c r="N63" s="42">
-        <v>47193</v>
-      </c>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B64">
@@ -6291,15 +6317,9 @@
       <c r="K64" s="42">
         <v>174777</v>
       </c>
-      <c r="L64" s="42">
-        <v>24226</v>
-      </c>
-      <c r="M64" s="42">
-        <v>208</v>
-      </c>
-      <c r="N64" s="42">
-        <v>19867</v>
-      </c>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B65">
@@ -6326,15 +6346,9 @@
       <c r="K65" s="42">
         <v>750960</v>
       </c>
-      <c r="L65" s="42">
-        <v>7322</v>
-      </c>
-      <c r="M65" s="42">
-        <v>867</v>
-      </c>
-      <c r="N65" s="42">
-        <v>7603</v>
-      </c>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B66">
@@ -6359,13 +6373,13 @@
         <v>688237</v>
       </c>
       <c r="L66" s="42">
-        <v>92014</v>
+        <v>457113</v>
       </c>
       <c r="M66" s="42">
-        <v>4144</v>
+        <v>3238</v>
       </c>
       <c r="N66" s="42">
-        <v>52871</v>
+        <v>227885</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.35">
@@ -6394,13 +6408,13 @@
         <v>84025</v>
       </c>
       <c r="L67" s="42">
-        <v>19815</v>
+        <v>58505</v>
       </c>
       <c r="M67" s="42">
-        <v>1708</v>
+        <v>-788</v>
       </c>
       <c r="N67" s="42">
-        <v>20673</v>
+        <v>26309</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.35">
@@ -6429,13 +6443,13 @@
         <v>42153</v>
       </c>
       <c r="L68" s="42">
-        <v>7146</v>
+        <v>20227</v>
       </c>
       <c r="M68" s="42">
-        <v>2951</v>
+        <v>-2702</v>
       </c>
       <c r="N68" s="42">
-        <v>26712</v>
+        <v>24628</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.35">
@@ -6464,13 +6478,13 @@
         <v>12846</v>
       </c>
       <c r="L69" s="42">
-        <v>77801</v>
+        <v>7297</v>
       </c>
       <c r="M69" s="42">
-        <v>2263</v>
+        <v>606</v>
       </c>
       <c r="N69" s="42">
-        <v>28010</v>
+        <v>4944</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.35">
@@ -6499,13 +6513,13 @@
         <v>192517</v>
       </c>
       <c r="L70" s="42">
-        <v>43261</v>
+        <v>118572</v>
       </c>
       <c r="M70" s="42">
-        <v>781</v>
+        <v>1252</v>
       </c>
       <c r="N70" s="42">
-        <v>7898</v>
+        <v>72694</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.35">
@@ -6534,13 +6548,13 @@
         <v>42858</v>
       </c>
       <c r="L71" s="42">
-        <v>318675</v>
+        <v>24464</v>
       </c>
       <c r="M71" s="42">
-        <v>55293</v>
+        <v>-1234</v>
       </c>
       <c r="N71" s="42">
-        <v>532970</v>
+        <v>19629</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.35">
@@ -6569,13 +6583,13 @@
         <v>45129</v>
       </c>
       <c r="L72" s="42">
-        <v>114787</v>
+        <v>8254</v>
       </c>
       <c r="M72" s="42">
-        <v>5467</v>
+        <v>4183</v>
       </c>
       <c r="N72" s="42">
-        <v>103343</v>
+        <v>32692</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.35">
@@ -6604,13 +6618,13 @@
         <v>170002</v>
       </c>
       <c r="L73" s="42">
-        <v>34244</v>
+        <v>126402</v>
       </c>
       <c r="M73" s="42">
-        <v>6467</v>
+        <v>1135</v>
       </c>
       <c r="N73" s="42">
-        <v>46882</v>
+        <v>42465</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.35">
@@ -6639,13 +6653,13 @@
         <v>98706</v>
       </c>
       <c r="L74" s="42">
-        <v>112649</v>
+        <v>93393</v>
       </c>
       <c r="M74" s="42">
-        <v>39472</v>
+        <v>788</v>
       </c>
       <c r="N74" s="42">
-        <v>273993</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.35">
@@ -6671,13 +6685,13 @@
         <v>1313256</v>
       </c>
       <c r="L75" s="42">
-        <v>56995</v>
+        <v>507857</v>
       </c>
       <c r="M75" s="42">
-        <v>3888</v>
+        <v>56799</v>
       </c>
       <c r="N75" s="42">
-        <v>108752</v>
+        <v>748600</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.35">
@@ -6709,13 +6723,13 @@
         <v>395124</v>
       </c>
       <c r="L76" s="42">
-        <v>852412</v>
+        <v>221340</v>
       </c>
       <c r="M76" s="42">
-        <v>319509</v>
+        <v>5630</v>
       </c>
       <c r="N76" s="42">
-        <v>2577118</v>
+        <v>168154</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.35">
@@ -6747,13 +6761,13 @@
         <v>88008</v>
       </c>
       <c r="L77" s="42">
-        <v>715705</v>
+        <v>42938</v>
       </c>
       <c r="M77" s="42">
-        <v>63497</v>
+        <v>2213</v>
       </c>
       <c r="N77" s="42">
-        <v>583890</v>
+        <v>42857</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.35">
@@ -6785,13 +6799,13 @@
         <v>483601</v>
       </c>
       <c r="L78" s="42">
-        <v>236473</v>
+        <v>117427</v>
       </c>
       <c r="M78" s="42">
-        <v>17390</v>
+        <v>42469</v>
       </c>
       <c r="N78" s="42">
-        <v>306900</v>
+        <v>323705</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.35">
@@ -6823,13 +6837,13 @@
         <v>346524</v>
       </c>
       <c r="L79" s="42">
-        <v>227418</v>
+        <v>126152</v>
       </c>
       <c r="M79" s="42">
-        <v>5065</v>
+        <v>6487</v>
       </c>
       <c r="N79" s="42">
-        <v>-1604</v>
+        <v>213884</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.35">
@@ -6854,20 +6868,17 @@
       <c r="I80" t="s">
         <v>761</v>
       </c>
-      <c r="J80" t="s">
-        <v>33</v>
-      </c>
       <c r="K80" s="42">
         <v>4885647</v>
       </c>
       <c r="L80" s="42">
-        <v>250693</v>
+        <v>1179563</v>
       </c>
       <c r="M80" s="42">
-        <v>40312</v>
+        <v>392028</v>
       </c>
       <c r="N80" s="42">
-        <v>263076</v>
+        <v>3314056</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.35">
@@ -6892,17 +6903,20 @@
       <c r="I81" t="s">
         <v>762</v>
       </c>
+      <c r="J81" t="s">
+        <v>33</v>
+      </c>
       <c r="K81" s="42">
         <v>1958988</v>
       </c>
       <c r="L81" s="42">
-        <v>1121</v>
+        <v>991937</v>
       </c>
       <c r="M81" s="42">
-        <v>731</v>
+        <v>65266</v>
       </c>
       <c r="N81" s="42">
-        <v>15519</v>
+        <v>901786</v>
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.35">
@@ -6931,13 +6945,13 @@
         <v>890417</v>
       </c>
       <c r="L82" s="42">
-        <v>136707</v>
+        <v>347745</v>
       </c>
       <c r="M82" s="42">
-        <v>256012</v>
+        <v>21451</v>
       </c>
       <c r="N82" s="42">
-        <v>1993228</v>
+        <v>521221</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.35">
@@ -6966,13 +6980,13 @@
         <v>399849</v>
       </c>
       <c r="L83" s="42">
-        <v>102208</v>
+        <v>316460</v>
       </c>
       <c r="M83" s="42">
-        <v>237200</v>
+        <v>6255</v>
       </c>
       <c r="N83" s="42">
-        <v>1840595</v>
+        <v>77135</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.35">
@@ -7001,13 +7015,13 @@
         <v>637302</v>
       </c>
       <c r="L84" s="42">
-        <v>34499</v>
+        <v>323673</v>
       </c>
       <c r="M84" s="42">
-        <v>18812</v>
+        <v>36960</v>
       </c>
       <c r="N84" s="42">
-        <v>152633</v>
+        <v>276669</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.35">
@@ -7036,13 +7050,13 @@
         <v>31420</v>
       </c>
       <c r="L85" s="42">
-        <v>1609923</v>
+        <v>4060</v>
       </c>
       <c r="M85" s="42">
-        <v>55918</v>
+        <v>600</v>
       </c>
       <c r="N85" s="42">
-        <v>571091</v>
+        <v>26760</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.35">
@@ -7074,13 +7088,13 @@
         <v>2926658</v>
       </c>
       <c r="L86" s="42">
-        <v>909431</v>
+        <v>187626</v>
       </c>
       <c r="M86" s="42">
-        <v>35128</v>
+        <v>326762</v>
       </c>
       <c r="N86" s="42">
-        <v>404035</v>
+        <v>2412270</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.35">
@@ -7109,13 +7123,13 @@
         <v>2670879</v>
       </c>
       <c r="L87" s="42">
-        <v>122863</v>
+        <v>147851</v>
       </c>
       <c r="M87" s="42">
-        <v>15945</v>
+        <v>303383</v>
       </c>
       <c r="N87" s="42">
-        <v>99788</v>
+        <v>2219644</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.35">
@@ -7143,15 +7157,9 @@
       <c r="K88" s="42">
         <v>2114490</v>
       </c>
-      <c r="L88" s="42">
-        <v>234630</v>
-      </c>
-      <c r="M88" s="42">
-        <v>5942</v>
-      </c>
-      <c r="N88" s="42">
-        <v>44213</v>
-      </c>
+      <c r="L88" s="42"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="42"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B89">
@@ -7178,15 +7186,9 @@
       <c r="K89" s="42">
         <v>556388</v>
       </c>
-      <c r="L89" s="42">
-        <v>551939</v>
-      </c>
-      <c r="M89" s="42">
-        <v>13242</v>
-      </c>
-      <c r="N89" s="42">
-        <v>260034</v>
-      </c>
+      <c r="L89" s="42"/>
+      <c r="M89" s="42"/>
+      <c r="N89" s="42"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B90">
@@ -7214,13 +7216,13 @@
         <v>255780</v>
       </c>
       <c r="L90" s="42">
-        <v>302345</v>
+        <v>39775</v>
       </c>
       <c r="M90" s="42">
-        <v>8494</v>
+        <v>23379</v>
       </c>
       <c r="N90" s="42">
-        <v>37122</v>
+        <v>192626</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.35">
@@ -7249,13 +7251,13 @@
         <v>3037512</v>
       </c>
       <c r="L91" s="42">
-        <v>398148</v>
+        <v>2242330</v>
       </c>
       <c r="M91" s="42">
-        <v>12295</v>
+        <v>39040</v>
       </c>
       <c r="N91" s="42">
-        <v>129933</v>
+        <v>756142</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.35">
@@ -7284,13 +7286,13 @@
         <v>1843498</v>
       </c>
       <c r="L92" s="42">
-        <v>371539</v>
+        <v>1307639</v>
       </c>
       <c r="M92" s="42">
-        <v>8972</v>
+        <v>22551</v>
       </c>
       <c r="N92" s="42">
-        <v>111954</v>
+        <v>513308</v>
       </c>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.35">
@@ -7322,13 +7324,13 @@
         <v>303191</v>
       </c>
       <c r="L93" s="42">
-        <v>26608</v>
+        <v>157836</v>
       </c>
       <c r="M93" s="42">
-        <v>3323</v>
+        <v>18115</v>
       </c>
       <c r="N93" s="42">
-        <v>17979</v>
+        <v>127240</v>
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.35">
@@ -7360,13 +7362,13 @@
         <v>424583</v>
       </c>
       <c r="L94" s="42">
-        <v>1265582</v>
+        <v>374959</v>
       </c>
       <c r="M94" s="42">
-        <v>35545</v>
+        <v>4582</v>
       </c>
       <c r="N94" s="42">
-        <v>269876</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.35">
@@ -7398,13 +7400,13 @@
         <v>1115723</v>
       </c>
       <c r="L95" s="42">
-        <v>180447</v>
+        <v>774844</v>
       </c>
       <c r="M95" s="42">
-        <v>8387</v>
+        <v>-146</v>
       </c>
       <c r="N95" s="42">
-        <v>44604</v>
+        <v>341025</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.35">
@@ -7436,13 +7438,13 @@
         <v>448324</v>
       </c>
       <c r="L96" s="42">
-        <v>1085134</v>
+        <v>392407</v>
       </c>
       <c r="M96" s="42">
-        <v>27158</v>
+        <v>10322</v>
       </c>
       <c r="N96" s="42">
-        <v>225272</v>
+        <v>45595</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.35">
@@ -7467,20 +7469,17 @@
       <c r="I97" t="s">
         <v>778</v>
       </c>
-      <c r="J97" t="s">
-        <v>35</v>
-      </c>
       <c r="K97" s="42">
         <v>745689</v>
       </c>
       <c r="L97" s="42">
-        <v>494895</v>
+        <v>542284</v>
       </c>
       <c r="M97" s="42">
-        <v>8566</v>
+        <v>6167</v>
       </c>
       <c r="N97" s="42">
-        <v>140714</v>
+        <v>197239</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.35">
@@ -7509,13 +7508,13 @@
         <v>680145</v>
       </c>
       <c r="L98" s="42">
-        <v>489855</v>
+        <v>504904</v>
       </c>
       <c r="M98" s="42">
-        <v>16768</v>
+        <v>2445</v>
       </c>
       <c r="N98" s="42">
-        <v>74709</v>
+        <v>172795</v>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.35">
@@ -7544,13 +7543,13 @@
         <v>65545</v>
       </c>
       <c r="L99" s="42">
-        <v>100385</v>
+        <v>37380</v>
       </c>
       <c r="M99" s="42">
-        <v>1824</v>
+        <v>3721</v>
       </c>
       <c r="N99" s="42">
-        <v>9849</v>
+        <v>24443</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.35">
@@ -7576,13 +7575,13 @@
         <v>2005555</v>
       </c>
       <c r="L100" s="42">
-        <v>441746</v>
+        <v>1670227</v>
       </c>
       <c r="M100" s="42">
-        <v>96713</v>
+        <v>-7893</v>
       </c>
       <c r="N100" s="42">
-        <v>208314</v>
+        <v>343221</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.35">
@@ -7611,13 +7610,13 @@
         <v>269726</v>
       </c>
       <c r="L101" s="42">
-        <v>100888</v>
+        <v>225927</v>
       </c>
       <c r="M101" s="42">
-        <v>19506</v>
+        <v>6071</v>
       </c>
       <c r="N101" s="42">
-        <v>73075</v>
+        <v>37728</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.35">
@@ -7646,13 +7645,13 @@
         <v>1735828</v>
       </c>
       <c r="L102" s="42">
-        <v>52218</v>
+        <v>1444300</v>
       </c>
       <c r="M102" s="42">
-        <v>8029</v>
+        <v>-13964</v>
       </c>
       <c r="N102" s="42">
-        <v>52602</v>
+        <v>305492</v>
       </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.35">
@@ -7678,13 +7677,13 @@
         <v>849505</v>
       </c>
       <c r="L103" s="42">
-        <v>48669</v>
+        <v>674729</v>
       </c>
       <c r="M103" s="42">
-        <v>11476</v>
+        <v>-22310</v>
       </c>
       <c r="N103" s="42">
-        <v>20473</v>
+        <v>197086</v>
       </c>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.35">
@@ -7710,13 +7709,13 @@
         <v>560762</v>
       </c>
       <c r="L104" s="42">
-        <v>340858</v>
+        <v>620943</v>
       </c>
       <c r="M104" s="42">
-        <v>77207</v>
+        <v>15824</v>
       </c>
       <c r="N104" s="42">
-        <v>135239</v>
+        <v>92095</v>
       </c>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.35">
@@ -7741,15 +7740,9 @@
       <c r="K105" s="42">
         <v>168100</v>
       </c>
-      <c r="L105" s="42">
-        <v>77673</v>
-      </c>
-      <c r="M105" s="42">
-        <v>26513</v>
-      </c>
-      <c r="N105" s="42">
-        <v>53331</v>
-      </c>
+      <c r="L105" s="42"/>
+      <c r="M105" s="42"/>
+      <c r="N105" s="42"/>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B106">
@@ -7774,13 +7767,13 @@
         <v>157461</v>
       </c>
       <c r="L106" s="42">
-        <v>263185</v>
+        <v>148628</v>
       </c>
       <c r="M106" s="42">
-        <v>50694</v>
+        <v>-7478</v>
       </c>
       <c r="N106" s="42">
-        <v>81908</v>
+        <v>16311</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.35">
@@ -7806,13 +7799,13 @@
         <v>905472</v>
       </c>
       <c r="L107" s="42">
-        <v>286397</v>
+        <v>538307</v>
       </c>
       <c r="M107" s="42">
-        <v>21390</v>
+        <v>28273</v>
       </c>
       <c r="N107" s="42">
-        <v>83782</v>
+        <v>338892</v>
       </c>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.35">
@@ -7841,13 +7834,13 @@
         <v>219014</v>
       </c>
       <c r="L108" s="42">
-        <v>1846322</v>
+        <v>119061</v>
       </c>
       <c r="M108" s="42">
-        <v>-24531</v>
+        <v>9928</v>
       </c>
       <c r="N108" s="42">
-        <v>517651</v>
+        <v>90024</v>
       </c>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.35">
@@ -7873,13 +7866,13 @@
         <v>130571</v>
       </c>
       <c r="L109" s="42">
-        <v>469030</v>
+        <v>61598</v>
       </c>
       <c r="M109" s="42">
-        <v>-6001</v>
+        <v>-5597</v>
       </c>
       <c r="N109" s="42">
-        <v>268250</v>
+        <v>74571</v>
       </c>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.35">
@@ -7905,13 +7898,13 @@
         <v>88443</v>
       </c>
       <c r="L110" s="42">
-        <v>409923</v>
-      </c>
-      <c r="M110" s="42" t="s">
-        <v>331</v>
+        <v>57464</v>
+      </c>
+      <c r="M110" s="42">
+        <v>15526</v>
       </c>
       <c r="N110" s="42">
-        <v>263735</v>
+        <v>15453</v>
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.35">
@@ -7940,13 +7933,13 @@
         <v>686458</v>
       </c>
       <c r="L111" s="42">
-        <v>59107</v>
+        <v>419246</v>
       </c>
       <c r="M111" s="42">
-        <v>-6001</v>
+        <v>18345</v>
       </c>
       <c r="N111" s="42">
-        <v>4515</v>
+        <v>248867</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.35">
@@ -7972,13 +7965,13 @@
         <v>162428</v>
       </c>
       <c r="L112" s="42">
-        <v>1377292</v>
+        <v>78099</v>
       </c>
       <c r="M112" s="42">
-        <v>-18530</v>
+        <v>22408</v>
       </c>
       <c r="N112" s="42">
-        <v>249400</v>
+        <v>61921</v>
       </c>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.35">
@@ -8004,13 +7997,13 @@
         <v>524030</v>
       </c>
       <c r="L113" s="42">
-        <v>1275273</v>
-      </c>
-      <c r="M113" s="42" t="s">
-        <v>331</v>
+        <v>341147</v>
+      </c>
+      <c r="M113" s="42">
+        <v>-4063</v>
       </c>
       <c r="N113" s="42">
-        <v>192044</v>
+        <v>186947</v>
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.35">
@@ -8033,19 +8026,19 @@
         <v>795</v>
       </c>
       <c r="J114" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="K114" s="42">
         <v>469851</v>
       </c>
       <c r="L114" s="42">
-        <v>102019</v>
+        <v>350173</v>
       </c>
       <c r="M114" s="42">
-        <v>-18530</v>
+        <v>9089</v>
       </c>
       <c r="N114" s="42">
-        <v>57356</v>
+        <v>110589</v>
       </c>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.35">
@@ -8065,7 +8058,7 @@
         <v>340</v>
       </c>
       <c r="I115" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J115" t="s">
         <v>36</v>
@@ -8073,8 +8066,14 @@
       <c r="K115" s="42">
         <v>2812880</v>
       </c>
-      <c r="L115" s="69">
+      <c r="L115">
         <v>2210905</v>
+      </c>
+      <c r="M115">
+        <v>-47169</v>
+      </c>
+      <c r="N115">
+        <v>649144</v>
       </c>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.35">
@@ -8094,10 +8093,19 @@
         <v>342</v>
       </c>
       <c r="I116" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K116" s="42">
         <v>887513</v>
+      </c>
+      <c r="L116">
+        <v>572417</v>
+      </c>
+      <c r="M116">
+        <v>-9083</v>
+      </c>
+      <c r="N116">
+        <v>324179</v>
       </c>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.35">
@@ -8117,10 +8125,19 @@
         <v>344</v>
       </c>
       <c r="I117" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K117" s="42">
         <v>819341</v>
+      </c>
+      <c r="L117">
+        <v>506804</v>
+      </c>
+      <c r="M117" t="s">
+        <v>331</v>
+      </c>
+      <c r="N117">
+        <v>312537</v>
       </c>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.35">
@@ -8140,7 +8157,7 @@
         <v>346</v>
       </c>
       <c r="I118" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="K118" s="42">
         <v>469774</v>
@@ -8163,7 +8180,7 @@
         <v>348</v>
       </c>
       <c r="I119" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="K119" s="42">
         <v>349566</v>
@@ -8186,10 +8203,19 @@
         <v>350</v>
       </c>
       <c r="I120" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K120" s="42">
         <v>68172</v>
+      </c>
+      <c r="L120">
+        <v>65613</v>
+      </c>
+      <c r="M120">
+        <v>-9083</v>
+      </c>
+      <c r="N120">
+        <v>11642</v>
       </c>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.35">
@@ -8209,10 +8235,19 @@
         <v>352</v>
       </c>
       <c r="I121" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K121" s="42">
         <v>1925367</v>
+      </c>
+      <c r="L121">
+        <v>1638488</v>
+      </c>
+      <c r="M121">
+        <v>-38086</v>
+      </c>
+      <c r="N121">
+        <v>324965</v>
       </c>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.35">
@@ -8232,10 +8267,19 @@
         <v>354</v>
       </c>
       <c r="I122" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K122" s="42">
         <v>1766596</v>
+      </c>
+      <c r="L122">
+        <v>1519644</v>
+      </c>
+      <c r="M122" t="s">
+        <v>331</v>
+      </c>
+      <c r="N122">
+        <v>246952</v>
       </c>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.35">
@@ -8255,10 +8299,19 @@
         <v>356</v>
       </c>
       <c r="I123" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K123" s="42">
         <v>158772</v>
+      </c>
+      <c r="L123">
+        <v>118844</v>
+      </c>
+      <c r="M123">
+        <v>-38086</v>
+      </c>
+      <c r="N123">
+        <v>78014</v>
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.35">
@@ -12838,8 +12891,11 @@
       <c r="E455" s="42"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{BD28B7F2-9FF5-4121-9544-24D11A801EF7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12851,7 +12907,7 @@
   <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -12860,9 +12916,7 @@
     <col min="1" max="1" width="24.81640625" customWidth="1"/>
     <col min="2" max="26" width="10.1796875" customWidth="1"/>
     <col min="27" max="27" width="13.54296875" customWidth="1"/>
-    <col min="28" max="38" width="10.1796875" customWidth="1"/>
-    <col min="39" max="39" width="10.1796875" style="70" customWidth="1"/>
-    <col min="40" max="43" width="10.1796875" customWidth="1"/>
+    <col min="28" max="43" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -12872,10 +12926,10 @@
       <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="54" t="s">
         <v>102</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -12899,25 +12953,25 @@
       <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="54" t="s">
         <v>95</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="63" t="s">
+      <c r="O1" s="53" t="s">
         <v>678</v>
       </c>
-      <c r="P1" s="64" t="s">
+      <c r="P1" s="54" t="s">
         <v>679</v>
       </c>
-      <c r="Q1" s="63" t="s">
+      <c r="Q1" s="53" t="s">
         <v>680</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="54" t="s">
         <v>681</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -12941,13 +12995,13 @@
       <c r="Y1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="63" t="s">
+      <c r="Z1" s="53" t="s">
         <v>682</v>
       </c>
-      <c r="AA1" s="65" t="s">
+      <c r="AA1" s="55" t="s">
         <v>683</v>
       </c>
-      <c r="AB1" s="64" t="s">
+      <c r="AB1" s="54" t="s">
         <v>684</v>
       </c>
       <c r="AC1" s="4" t="s">
@@ -12980,7 +13034,7 @@
       <c r="AL1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="68" t="s">
+      <c r="AM1" s="4" t="s">
         <v>36</v>
       </c>
       <c r="AN1" s="4" t="s">
@@ -13002,171 +13056,171 @@
       </c>
       <c r="B2">
         <f>'U.S. Data for ISIC Splits'!L29*10^6*About!$A$36</f>
-        <v>44035920000</v>
+        <v>51993970609.292534</v>
       </c>
       <c r="C2" s="50">
         <f>'U.S. Data for ISIC Splits'!D10*About!$A$36</f>
-        <v>3970353554.3849344</v>
-      </c>
-      <c r="D2" s="66">
+        <v>4374035684.1770821</v>
+      </c>
+      <c r="D2" s="56">
         <f>'U.S. Data for ISIC Splits'!L33*10^6*About!$A$36</f>
-        <v>33768180000</v>
-      </c>
-      <c r="E2" s="67">
+        <v>21035172321.659222</v>
+      </c>
+      <c r="E2" s="57">
         <f>('U.S. Data for ISIC Splits'!F10-'U.S. Data for ISIC Splits'!D10)*About!$A$36</f>
-        <v>11737496445.615065</v>
+        <v>11329899053.985811</v>
       </c>
       <c r="F2">
         <f>'U.S. Data for ISIC Splits'!L35*10^6*About!$A$36</f>
-        <v>30448260000</v>
+        <v>20291239295.863007</v>
       </c>
       <c r="G2">
         <f>'U.S. Data for ISIC Splits'!L52*10^6*About!$A$36</f>
-        <v>90027600000</v>
+        <v>113804806864.22849</v>
       </c>
       <c r="H2">
         <f>SUM('U.S. Data for ISIC Splits'!L53:L54)*10^6*About!$A$36</f>
-        <v>17566170000</v>
+        <v>16624107022.917664</v>
       </c>
       <c r="I2">
         <f>'U.S. Data for ISIC Splits'!L40*10^6*About!$A$36</f>
-        <v>17772360000</v>
+        <v>23849916640.218472</v>
       </c>
       <c r="J2">
         <f>SUM('U.S. Data for ISIC Splits'!L55:L56)*10^6*About!$A$36</f>
-        <v>48894000000</v>
+        <v>48372592759.346046</v>
       </c>
       <c r="K2">
         <f>'U.S. Data for ISIC Splits'!L57*10^6*About!$A$36</f>
-        <v>17239050000</v>
+        <v>17085040469.424656</v>
       </c>
       <c r="L2" s="50">
         <f>'U.S. Data for ISIC Splits'!G10*About!$A$36</f>
-        <v>48038830101.052299</v>
+        <v>66477099685.834183</v>
       </c>
       <c r="M2" s="50">
         <f>'U.S. Data for ISIC Splits'!H10*About!$A$36</f>
-        <v>24858390368.377071</v>
+        <v>34399540768.828674</v>
       </c>
       <c r="N2">
         <f>'U.S. Data for ISIC Splits'!L59*10^6*About!$A$36</f>
-        <v>37897200000</v>
+        <v>46405152570.395241</v>
       </c>
       <c r="O2" s="50">
         <f>'U.S. Data for ISIC Splits'!J10*About!$A$36</f>
-        <v>3721250397.0803323</v>
+        <v>5843993940.3671036</v>
       </c>
       <c r="P2" s="51">
-        <f>'U.S. Data for ISIC Splits'!K10*About!$A$36</f>
-        <v>14185868308.752169</v>
+        <f>('U.S. Data for ISIC Splits'!L10-'U.S. Data for ISIC Splits'!$J$10)*About!$A$36</f>
+        <v>22278030121.337139</v>
       </c>
       <c r="Q2" s="50">
-        <f>'U.S. Data for ISIC Splits'!M10*About!$A$36</f>
-        <v>12187449131.021032</v>
+        <f>(('U.S. Data for ISIC Splits'!L42*(('U.S. Data for ISIC Splits'!D88)/SUM('U.S. Data for ISIC Splits'!D88:D89)))+('U.S. Data for ISIC Splits'!L43*(('U.S. Data for ISIC Splits'!D96)/SUM('U.S. Data for ISIC Splits'!D90:D97))))*10^6*About!$A$36</f>
+        <v>33319394306.251545</v>
       </c>
       <c r="R2" s="51">
-        <f>'U.S. Data for ISIC Splits'!N10*About!$A$36</f>
-        <v>10408284729.22015</v>
+        <f>'U.S. Data for ISIC Splits'!L43*((SUM('U.S. Data for ISIC Splits'!D90:D95,'U.S. Data for ISIC Splits'!D97)/SUM('U.S. Data for ISIC Splits'!D90:D97)))*10^6*About!$A$36</f>
+        <v>80849603855.332031</v>
       </c>
       <c r="S2" s="17">
-        <f>'U.S. Data for ISIC Splits'!L44*(SUM('U.S. Data for ISIC Splits'!D98:D117)/SUM('U.S. Data for ISIC Splits'!D98:D145)*10^6*About!$A$36)</f>
-        <v>39562010472.162125</v>
+        <f>(('U.S. Data for ISIC Splits'!L42*('U.S. Data for ISIC Splits'!D89)/SUM('U.S. Data for ISIC Splits'!D88:D89))+('U.S. Data for ISIC Splits'!L44*(SUM('U.S. Data for ISIC Splits'!D98:D117)/SUM('U.S. Data for ISIC Splits'!D98:D145))))*10^6*About!$A$36</f>
+        <v>47526915367.009476</v>
       </c>
       <c r="T2" s="17">
         <f>('U.S. Data for ISIC Splits'!L45+('U.S. Data for ISIC Splits'!L46*(SUM('U.S. Data for ISIC Splits'!D155:D165)/SUM('U.S. Data for ISIC Splits'!D155:D182))))*10^6*About!$A$36</f>
-        <v>137340845554.7173</v>
+        <v>175842597201.79544</v>
       </c>
       <c r="U2" s="17">
-        <f>'U.S. Data for ISIC Splits'!L46*(SUM('U.S. Data for ISIC Splits'!D165:D182)/SUM('U.S. Data for ISIC Splits'!D155:D182))*10^6*About!$A$36</f>
-        <v>12647454056.47324</v>
+        <f>'U.S. Data for ISIC Splits'!L46*(SUM('U.S. Data for ISIC Splits'!D166:D182)/SUM('U.S. Data for ISIC Splits'!D155:D182))*10^6*About!$A$36</f>
+        <v>14211108285.896877</v>
       </c>
       <c r="V2" s="17">
-        <f>'U.S. Data for ISIC Splits'!L44*(SUM('U.S. Data for ISIC Splits'!D117:D145)/SUM('U.S. Data for ISIC Splits'!D98:D145))*10^6*About!$A$36</f>
-        <v>44461921792.334541</v>
+        <f>'U.S. Data for ISIC Splits'!L44*(SUM('U.S. Data for ISIC Splits'!D118:D145)/SUM('U.S. Data for ISIC Splits'!D98:D145))*10^6*About!$A$36</f>
+        <v>44893779352.537689</v>
       </c>
       <c r="W2">
         <f>'U.S. Data for ISIC Splits'!L47*10^6*About!$A$36</f>
-        <v>60817350000</v>
+        <v>67959722323.504433</v>
       </c>
       <c r="X2">
         <f>'U.S. Data for ISIC Splits'!L48*10^6*About!$A$36</f>
-        <v>67677300000</v>
+        <v>71748866391.113388</v>
       </c>
       <c r="Y2" s="17">
-        <f>SUM('U.S. Data for ISIC Splits'!L49:L50)+('U.S. Data for ISIC Splits'!L114*(SUM('U.S. Data for ISIC Splits'!D422:D424)/SUM('U.S. Data for ISIC Splits'!D421:D432)))*10^6*About!$A$36</f>
-        <v>11175846145.456347</v>
+        <f>(SUM('U.S. Data for ISIC Splits'!L49:L50)+('U.S. Data for ISIC Splits'!L114*(SUM('U.S. Data for ISIC Splits'!D422:D424)/SUM('U.S. Data for ISIC Splits'!D421:D432))))*10^6*About!$A$36</f>
+        <v>108782849363.6548</v>
       </c>
       <c r="Z2" s="50">
         <f>'U.S. Data for ISIC Splits'!P10*About!$A$36</f>
-        <v>41345750404.777954</v>
+        <v>62335255098.601509</v>
       </c>
       <c r="AA2" s="50">
         <f>'U.S. Data for ISIC Splits'!Q10*About!$A$36</f>
-        <v>9748838191.0000324</v>
+        <v>14697914769.996532</v>
       </c>
       <c r="AB2" s="50">
-        <f>'U.S. Data for ISIC Splits'!R10*About!$A$36</f>
-        <v>11749051648.896357</v>
+        <f>('U.S. Data for ISIC Splits'!R10+('U.S. Data for ISIC Splits'!L99*10^6))*About!$A$36</f>
+        <v>33687449963.855721</v>
       </c>
       <c r="AC2">
         <f>'U.S. Data for ISIC Splits'!L37*10^6*About!$A$36</f>
-        <v>398874990000</v>
+        <v>538517696438.72003</v>
       </c>
       <c r="AD2" s="17">
-        <f>(SUM('U.S. Data for ISIC Splits'!L60,'U.S. Data for ISIC Splits'!L62:L65)+('U.S. Data for ISIC Splits'!L114*(SUM('U.S. Data for ISIC Splits'!D421)/SUM('U.S. Data for ISIC Splits'!D421:D432))))*10^6*About!$A$36</f>
-        <v>811374840137.87415</v>
+        <f>(SUM('U.S. Data for ISIC Splits'!L60,'U.S. Data for ISIC Splits'!L61)+('U.S. Data for ISIC Splits'!L114*(SUM('U.S. Data for ISIC Splits'!D421)/SUM('U.S. Data for ISIC Splits'!D421:D432))))*10^6*About!$A$36</f>
+        <v>1211368493785.0339</v>
       </c>
       <c r="AE2">
         <f>SUM('U.S. Data for ISIC Splits'!L67:L74)*10^6*About!$A$36</f>
-        <v>633688860000</v>
+        <v>387314579901.83411</v>
       </c>
       <c r="AF2">
         <f>'U.S. Data for ISIC Splits'!L111*10^6*About!$A$36</f>
-        <v>51423090000</v>
+        <v>355228867121.82153</v>
       </c>
       <c r="AG2" s="17">
         <f>(SUM('U.S. Data for ISIC Splits'!L76:L77)+('U.S. Data for ISIC Splits'!L78*(SUM('U.S. Data for ISIC Splits'!D346:D347)/SUM('U.S. Data for ISIC Splits'!D346:D350))))*10^6*About!$A$36</f>
-        <v>1411688398797.1555</v>
+        <v>246860414686.42868</v>
       </c>
       <c r="AH2" s="17">
         <f>('U.S. Data for ISIC Splits'!L78*(SUM('U.S. Data for ISIC Splits'!D348:D350)/SUM('U.S. Data for ISIC Splits'!D346:D350)))*10^6*About!$A$36</f>
-        <v>158304901202.84445</v>
+        <v>76559808105.762299</v>
       </c>
       <c r="AI2">
-        <f>'U.S. Data for ISIC Splits'!L94*10^6*About!$A$36</f>
-        <v>1101056340000</v>
+        <f>('U.S. Data for ISIC Splits'!L94+'U.S. Data for ISIC Splits'!L79)*10^6*About!$A$36</f>
+        <v>424593419692.2168</v>
       </c>
       <c r="AJ2">
-        <f>'U.S. Data for ISIC Splits'!L80*10^6*About!$A$36</f>
-        <v>218102910000</v>
+        <f>'U.S. Data for ISIC Splits'!L81*10^6*About!$A$36</f>
+        <v>840472316411.41077</v>
       </c>
       <c r="AK2">
         <f>'U.S. Data for ISIC Splits'!L86*10^6*About!$A$36</f>
-        <v>791204970000</v>
+        <v>158976284621.91385</v>
       </c>
       <c r="AL2">
-        <f>SUM('U.S. Data for ISIC Splits'!L93,'U.S. Data for ISIC Splits'!L95:L98)*10^6*About!$A$36</f>
-        <v>1980936930000</v>
-      </c>
-      <c r="AM2" s="70">
+        <f>SUM('U.S. Data for ISIC Splits'!L93,'U.S. Data for ISIC Splits'!L95:L96,'U.S. Data for ISIC Splits'!L98)*10^6*About!$A$36</f>
+        <v>1550558931446.2854</v>
+      </c>
+      <c r="AM2">
         <f>'U.S. Data for ISIC Splits'!L115*10^6*About!$A$36</f>
-        <v>1923487350000</v>
+        <v>1873308936671.9561</v>
       </c>
       <c r="AN2">
         <f>'U.S. Data for ISIC Splits'!L101*10^6*About!$A$36</f>
-        <v>87772560000</v>
+        <v>191428880090.04684</v>
       </c>
       <c r="AO2">
-        <f>('U.S. Data for ISIC Splits'!L102+('U.S. Data for ISIC Splits'!L114*(SUM('U.S. Data for ISIC Splits'!D425:D431)/SUM('U.S. Data for ISIC Splits'!D421:D432)))*10^6*About!$A$36)</f>
-        <v>54942678177.42897</v>
+        <f>('U.S. Data for ISIC Splits'!L102+('U.S. Data for ISIC Splits'!L114*(SUM('U.S. Data for ISIC Splits'!D425:D431)/SUM('U.S. Data for ISIC Splits'!D421:D432))))*10^6*About!$A$36</f>
+        <v>1407428331258.5425</v>
       </c>
       <c r="AP2">
         <f>'U.S. Data for ISIC Splits'!L108*10^6*About!$A$36</f>
-        <v>1606300140000</v>
+        <v>100880876975.3109</v>
       </c>
       <c r="AQ2">
         <f>('U.S. Data for ISIC Splits'!L114*('U.S. Data for ISIC Splits'!D432/SUM('U.S. Data for ISIC Splits'!D421:D432)))*10^6*About!$A$36</f>
-        <v>2817999656.2405305</v>
+        <v>9420253739.7955284</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\io-model\BECbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDF431F-334A-40E7-8570-56E7E028EBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9191AFAF-EF1E-4F19-A44D-C62CF07F070C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44445" yWindow="1005" windowWidth="18930" windowHeight="13845" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="2055" windowWidth="19305" windowHeight="14430" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="1220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="1218">
   <si>
     <t>Source:</t>
   </si>
@@ -3484,12 +3484,6 @@
     <t>^this will be in the oecd data that is already here</t>
   </si>
   <si>
-    <t>^Potencia</t>
-  </si>
-  <si>
-    <t>^ Potencia ? Do the ratio breakout here too?</t>
-  </si>
-  <si>
     <t>351 in unido data</t>
   </si>
   <si>
@@ -3499,9 +3493,6 @@
     <t>36, 37, 38, 39 in unido data</t>
   </si>
   <si>
-    <t>split employment and everything by the same ratio of value added</t>
-  </si>
-  <si>
     <t>Unido MINSTAT</t>
   </si>
   <si>
@@ -3701,6 +3692,9 @@
   </si>
   <si>
     <t>from BLS and BEA publications for the EU  Data for various other countries that can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^ industries are similar - here we assume that the Value Added ratio is similar for Employment share </t>
   </si>
 </sst>
 </file>
@@ -4411,69 +4405,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4539,6 +4470,69 @@
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4917,7 +4911,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4997,7 +4991,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -5076,186 +5070,186 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="102"/>
+      <c r="C3" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="83"/>
-      <c r="AE3" s="83"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="83"/>
-      <c r="AH3" s="83"/>
-      <c r="AI3" s="83"/>
-      <c r="AJ3" s="83"/>
-      <c r="AK3" s="83"/>
-      <c r="AL3" s="84"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="110"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="77" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="78"/>
-      <c r="AL4" s="79"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="104"/>
+      <c r="X4" s="104"/>
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="104"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="104"/>
+      <c r="AL4" s="105"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77" t="s">
+      <c r="B5" s="102"/>
+      <c r="C5" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="78"/>
-      <c r="AD5" s="78"/>
-      <c r="AE5" s="78"/>
-      <c r="AF5" s="78"/>
-      <c r="AG5" s="78"/>
-      <c r="AH5" s="78"/>
-      <c r="AI5" s="78"/>
-      <c r="AJ5" s="78"/>
-      <c r="AK5" s="78"/>
-      <c r="AL5" s="79"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="104"/>
+      <c r="AG5" s="104"/>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="104"/>
+      <c r="AJ5" s="104"/>
+      <c r="AK5" s="104"/>
+      <c r="AL5" s="105"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="77" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="78"/>
-      <c r="AG6" s="78"/>
-      <c r="AH6" s="78"/>
-      <c r="AI6" s="78"/>
-      <c r="AJ6" s="78"/>
-      <c r="AK6" s="78"/>
-      <c r="AL6" s="79"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="104"/>
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="104"/>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="104"/>
+      <c r="AK6" s="104"/>
+      <c r="AL6" s="105"/>
     </row>
     <row r="7" spans="1:38" ht="126" x14ac:dyDescent="0.2">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="81"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="8" t="s">
         <v>46</v>
       </c>
@@ -5887,130 +5881,130 @@
       <c r="B3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="91"/>
-      <c r="AG3" s="91"/>
-      <c r="AH3" s="91"/>
-      <c r="AI3" s="91"/>
-      <c r="AJ3" s="91"/>
-      <c r="AK3" s="91"/>
-      <c r="AL3" s="92"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="117"/>
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="117"/>
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="117"/>
+      <c r="AJ3" s="117"/>
+      <c r="AK3" s="117"/>
+      <c r="AL3" s="118"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="94"/>
-      <c r="AL4" s="95"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="120"/>
+      <c r="X4" s="120"/>
+      <c r="Y4" s="120"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="120"/>
+      <c r="AB4" s="120"/>
+      <c r="AC4" s="120"/>
+      <c r="AD4" s="120"/>
+      <c r="AE4" s="120"/>
+      <c r="AF4" s="120"/>
+      <c r="AG4" s="120"/>
+      <c r="AH4" s="120"/>
+      <c r="AI4" s="120"/>
+      <c r="AJ4" s="120"/>
+      <c r="AK4" s="120"/>
+      <c r="AL4" s="121"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="94"/>
-      <c r="AA5" s="94"/>
-      <c r="AB5" s="94"/>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="94"/>
-      <c r="AE5" s="94"/>
-      <c r="AF5" s="94"/>
-      <c r="AG5" s="94"/>
-      <c r="AH5" s="94"/>
-      <c r="AI5" s="94"/>
-      <c r="AJ5" s="94"/>
-      <c r="AK5" s="94"/>
-      <c r="AL5" s="95"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="120"/>
+      <c r="Z5" s="120"/>
+      <c r="AA5" s="120"/>
+      <c r="AB5" s="120"/>
+      <c r="AC5" s="120"/>
+      <c r="AD5" s="120"/>
+      <c r="AE5" s="120"/>
+      <c r="AF5" s="120"/>
+      <c r="AG5" s="120"/>
+      <c r="AH5" s="120"/>
+      <c r="AI5" s="120"/>
+      <c r="AJ5" s="120"/>
+      <c r="AK5" s="120"/>
+      <c r="AL5" s="121"/>
     </row>
     <row r="6" spans="1:38" ht="126" x14ac:dyDescent="0.25">
       <c r="A6" s="72" t="s">
@@ -6243,7 +6237,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="111" t="s">
         <v>83</v>
       </c>
       <c r="B8" s="62" t="s">
@@ -6359,7 +6353,7 @@
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
+      <c r="A9" s="112"/>
       <c r="B9" s="62" t="s">
         <v>1113</v>
       </c>
@@ -6473,7 +6467,7 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
+      <c r="A10" s="112"/>
       <c r="B10" s="62" t="s">
         <v>1114</v>
       </c>
@@ -6587,7 +6581,7 @@
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
+      <c r="A11" s="112"/>
       <c r="B11" s="62" t="s">
         <v>1115</v>
       </c>
@@ -6701,7 +6695,7 @@
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
+      <c r="A12" s="112"/>
       <c r="B12" s="62" t="s">
         <v>1116</v>
       </c>
@@ -6815,7 +6809,7 @@
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
+      <c r="A13" s="112"/>
       <c r="B13" s="62" t="s">
         <v>1117</v>
       </c>
@@ -6929,7 +6923,7 @@
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
+      <c r="A14" s="112"/>
       <c r="B14" s="62" t="s">
         <v>1118</v>
       </c>
@@ -7043,7 +7037,7 @@
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
+      <c r="A15" s="112"/>
       <c r="B15" s="62" t="s">
         <v>1119</v>
       </c>
@@ -7157,7 +7151,7 @@
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
+      <c r="A16" s="112"/>
       <c r="B16" s="62" t="s">
         <v>1120</v>
       </c>
@@ -7271,7 +7265,7 @@
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
+      <c r="A17" s="112"/>
       <c r="B17" s="62" t="s">
         <v>1121</v>
       </c>
@@ -7385,7 +7379,7 @@
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
+      <c r="A18" s="112"/>
       <c r="B18" s="62" t="s">
         <v>1122</v>
       </c>
@@ -7499,7 +7493,7 @@
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
+      <c r="A19" s="112"/>
       <c r="B19" s="62" t="s">
         <v>1123</v>
       </c>
@@ -7613,7 +7607,7 @@
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
+      <c r="A20" s="112"/>
       <c r="B20" s="62" t="s">
         <v>1124</v>
       </c>
@@ -7727,7 +7721,7 @@
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
+      <c r="A21" s="112"/>
       <c r="B21" s="62" t="s">
         <v>1125</v>
       </c>
@@ -7841,7 +7835,7 @@
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
+      <c r="A22" s="112"/>
       <c r="B22" s="62" t="s">
         <v>1126</v>
       </c>
@@ -7955,7 +7949,7 @@
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
+      <c r="A23" s="112"/>
       <c r="B23" s="62" t="s">
         <v>1127</v>
       </c>
@@ -8069,7 +8063,7 @@
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
+      <c r="A24" s="112"/>
       <c r="B24" s="62" t="s">
         <v>1128</v>
       </c>
@@ -8183,7 +8177,7 @@
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
+      <c r="A25" s="112"/>
       <c r="B25" s="62" t="s">
         <v>1129</v>
       </c>
@@ -8297,7 +8291,7 @@
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
+      <c r="A26" s="112"/>
       <c r="B26" s="62" t="s">
         <v>1130</v>
       </c>
@@ -8411,7 +8405,7 @@
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
+      <c r="A27" s="112"/>
       <c r="B27" s="62" t="s">
         <v>1131</v>
       </c>
@@ -8525,7 +8519,7 @@
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
+      <c r="A28" s="112"/>
       <c r="B28" s="62" t="s">
         <v>1132</v>
       </c>
@@ -8639,7 +8633,7 @@
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
+      <c r="A29" s="112"/>
       <c r="B29" s="62" t="s">
         <v>1133</v>
       </c>
@@ -8753,7 +8747,7 @@
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
+      <c r="A30" s="112"/>
       <c r="B30" s="62" t="s">
         <v>1134</v>
       </c>
@@ -8867,7 +8861,7 @@
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
+      <c r="A31" s="112"/>
       <c r="B31" s="65" t="s">
         <v>1135</v>
       </c>
@@ -8981,7 +8975,7 @@
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
+      <c r="A32" s="112"/>
       <c r="B32" s="62" t="s">
         <v>1136</v>
       </c>
@@ -9095,7 +9089,7 @@
       </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
+      <c r="A33" s="112"/>
       <c r="B33" s="62" t="s">
         <v>1137</v>
       </c>
@@ -9209,7 +9203,7 @@
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A34" s="87"/>
+      <c r="A34" s="113"/>
       <c r="B34" s="62" t="s">
         <v>1138</v>
       </c>
@@ -9473,7 +9467,7 @@
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A36" s="85" t="s">
+      <c r="A36" s="111" t="s">
         <v>84</v>
       </c>
       <c r="B36" s="62" t="s">
@@ -9589,7 +9583,7 @@
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
+      <c r="A37" s="112"/>
       <c r="B37" s="62" t="s">
         <v>1113</v>
       </c>
@@ -9703,7 +9697,7 @@
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A38" s="86"/>
+      <c r="A38" s="112"/>
       <c r="B38" s="62" t="s">
         <v>1114</v>
       </c>
@@ -9817,7 +9811,7 @@
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A39" s="86"/>
+      <c r="A39" s="112"/>
       <c r="B39" s="62" t="s">
         <v>1115</v>
       </c>
@@ -9931,7 +9925,7 @@
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A40" s="86"/>
+      <c r="A40" s="112"/>
       <c r="B40" s="62" t="s">
         <v>1116</v>
       </c>
@@ -10045,7 +10039,7 @@
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A41" s="86"/>
+      <c r="A41" s="112"/>
       <c r="B41" s="62" t="s">
         <v>1117</v>
       </c>
@@ -10159,7 +10153,7 @@
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A42" s="86"/>
+      <c r="A42" s="112"/>
       <c r="B42" s="62" t="s">
         <v>1118</v>
       </c>
@@ -10273,7 +10267,7 @@
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A43" s="86"/>
+      <c r="A43" s="112"/>
       <c r="B43" s="62" t="s">
         <v>1119</v>
       </c>
@@ -10387,7 +10381,7 @@
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A44" s="86"/>
+      <c r="A44" s="112"/>
       <c r="B44" s="62" t="s">
         <v>1120</v>
       </c>
@@ -10501,7 +10495,7 @@
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A45" s="86"/>
+      <c r="A45" s="112"/>
       <c r="B45" s="62" t="s">
         <v>1121</v>
       </c>
@@ -10615,7 +10609,7 @@
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A46" s="86"/>
+      <c r="A46" s="112"/>
       <c r="B46" s="62" t="s">
         <v>1122</v>
       </c>
@@ -10729,7 +10723,7 @@
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A47" s="86"/>
+      <c r="A47" s="112"/>
       <c r="B47" s="62" t="s">
         <v>1123</v>
       </c>
@@ -10843,7 +10837,7 @@
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A48" s="86"/>
+      <c r="A48" s="112"/>
       <c r="B48" s="62" t="s">
         <v>1124</v>
       </c>
@@ -10957,7 +10951,7 @@
       </c>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A49" s="86"/>
+      <c r="A49" s="112"/>
       <c r="B49" s="62" t="s">
         <v>1125</v>
       </c>
@@ -11071,7 +11065,7 @@
       </c>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A50" s="86"/>
+      <c r="A50" s="112"/>
       <c r="B50" s="62" t="s">
         <v>1126</v>
       </c>
@@ -11185,7 +11179,7 @@
       </c>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A51" s="86"/>
+      <c r="A51" s="112"/>
       <c r="B51" s="62" t="s">
         <v>1127</v>
       </c>
@@ -11299,7 +11293,7 @@
       </c>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A52" s="86"/>
+      <c r="A52" s="112"/>
       <c r="B52" s="62" t="s">
         <v>1128</v>
       </c>
@@ -11413,7 +11407,7 @@
       </c>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A53" s="86"/>
+      <c r="A53" s="112"/>
       <c r="B53" s="62" t="s">
         <v>1129</v>
       </c>
@@ -11527,7 +11521,7 @@
       </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A54" s="86"/>
+      <c r="A54" s="112"/>
       <c r="B54" s="62" t="s">
         <v>1130</v>
       </c>
@@ -11641,7 +11635,7 @@
       </c>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A55" s="86"/>
+      <c r="A55" s="112"/>
       <c r="B55" s="62" t="s">
         <v>1131</v>
       </c>
@@ -11755,7 +11749,7 @@
       </c>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A56" s="86"/>
+      <c r="A56" s="112"/>
       <c r="B56" s="62" t="s">
         <v>1132</v>
       </c>
@@ -11869,7 +11863,7 @@
       </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A57" s="86"/>
+      <c r="A57" s="112"/>
       <c r="B57" s="62" t="s">
         <v>1133</v>
       </c>
@@ -11983,7 +11977,7 @@
       </c>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A58" s="86"/>
+      <c r="A58" s="112"/>
       <c r="B58" s="62" t="s">
         <v>1134</v>
       </c>
@@ -12097,7 +12091,7 @@
       </c>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A59" s="86"/>
+      <c r="A59" s="112"/>
       <c r="B59" s="65" t="s">
         <v>1135</v>
       </c>
@@ -12211,7 +12205,7 @@
       </c>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A60" s="86"/>
+      <c r="A60" s="112"/>
       <c r="B60" s="62" t="s">
         <v>1136</v>
       </c>
@@ -12325,7 +12319,7 @@
       </c>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A61" s="86"/>
+      <c r="A61" s="112"/>
       <c r="B61" s="62" t="s">
         <v>1137</v>
       </c>
@@ -12439,7 +12433,7 @@
       </c>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A62" s="87"/>
+      <c r="A62" s="113"/>
       <c r="B62" s="62" t="s">
         <v>1138</v>
       </c>
@@ -12703,7 +12697,7 @@
       </c>
     </row>
     <row r="64" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="88" t="s">
+      <c r="A64" s="114" t="s">
         <v>85</v>
       </c>
       <c r="B64" s="62" t="s">
@@ -12819,7 +12813,7 @@
       </c>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A65" s="89"/>
+      <c r="A65" s="115"/>
       <c r="B65" s="62" t="s">
         <v>1113</v>
       </c>
@@ -12933,7 +12927,7 @@
       </c>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A66" s="89"/>
+      <c r="A66" s="115"/>
       <c r="B66" s="62" t="s">
         <v>1114</v>
       </c>
@@ -13047,7 +13041,7 @@
       </c>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A67" s="89"/>
+      <c r="A67" s="115"/>
       <c r="B67" s="62" t="s">
         <v>1115</v>
       </c>
@@ -13161,7 +13155,7 @@
       </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A68" s="89"/>
+      <c r="A68" s="115"/>
       <c r="B68" s="62" t="s">
         <v>1116</v>
       </c>
@@ -13275,7 +13269,7 @@
       </c>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A69" s="89"/>
+      <c r="A69" s="115"/>
       <c r="B69" s="62" t="s">
         <v>1117</v>
       </c>
@@ -13389,7 +13383,7 @@
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A70" s="89"/>
+      <c r="A70" s="115"/>
       <c r="B70" s="62" t="s">
         <v>1118</v>
       </c>
@@ -13503,7 +13497,7 @@
       </c>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A71" s="89"/>
+      <c r="A71" s="115"/>
       <c r="B71" s="62" t="s">
         <v>1119</v>
       </c>
@@ -13617,7 +13611,7 @@
       </c>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A72" s="89"/>
+      <c r="A72" s="115"/>
       <c r="B72" s="62" t="s">
         <v>1120</v>
       </c>
@@ -13731,7 +13725,7 @@
       </c>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A73" s="89"/>
+      <c r="A73" s="115"/>
       <c r="B73" s="62" t="s">
         <v>1121</v>
       </c>
@@ -13845,7 +13839,7 @@
       </c>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A74" s="89"/>
+      <c r="A74" s="115"/>
       <c r="B74" s="62" t="s">
         <v>1122</v>
       </c>
@@ -13959,7 +13953,7 @@
       </c>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A75" s="89"/>
+      <c r="A75" s="115"/>
       <c r="B75" s="62" t="s">
         <v>1123</v>
       </c>
@@ -14073,7 +14067,7 @@
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A76" s="89"/>
+      <c r="A76" s="115"/>
       <c r="B76" s="62" t="s">
         <v>1124</v>
       </c>
@@ -14187,7 +14181,7 @@
       </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A77" s="89"/>
+      <c r="A77" s="115"/>
       <c r="B77" s="62" t="s">
         <v>1125</v>
       </c>
@@ -14301,7 +14295,7 @@
       </c>
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A78" s="89"/>
+      <c r="A78" s="115"/>
       <c r="B78" s="62" t="s">
         <v>1126</v>
       </c>
@@ -14415,7 +14409,7 @@
       </c>
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A79" s="89"/>
+      <c r="A79" s="115"/>
       <c r="B79" s="62" t="s">
         <v>1127</v>
       </c>
@@ -14529,7 +14523,7 @@
       </c>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A80" s="89"/>
+      <c r="A80" s="115"/>
       <c r="B80" s="62" t="s">
         <v>1128</v>
       </c>
@@ -14643,7 +14637,7 @@
       </c>
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A81" s="89"/>
+      <c r="A81" s="115"/>
       <c r="B81" s="62" t="s">
         <v>1129</v>
       </c>
@@ -14757,7 +14751,7 @@
       </c>
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A82" s="89"/>
+      <c r="A82" s="115"/>
       <c r="B82" s="62" t="s">
         <v>1130</v>
       </c>
@@ -14871,7 +14865,7 @@
       </c>
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A83" s="89"/>
+      <c r="A83" s="115"/>
       <c r="B83" s="62" t="s">
         <v>1131</v>
       </c>
@@ -14985,7 +14979,7 @@
       </c>
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A84" s="89"/>
+      <c r="A84" s="115"/>
       <c r="B84" s="62" t="s">
         <v>1132</v>
       </c>
@@ -15099,7 +15093,7 @@
       </c>
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A85" s="89"/>
+      <c r="A85" s="115"/>
       <c r="B85" s="62" t="s">
         <v>1133</v>
       </c>
@@ -15213,7 +15207,7 @@
       </c>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A86" s="89"/>
+      <c r="A86" s="115"/>
       <c r="B86" s="62" t="s">
         <v>1134</v>
       </c>
@@ -15327,7 +15321,7 @@
       </c>
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A87" s="89"/>
+      <c r="A87" s="115"/>
       <c r="B87" s="65" t="s">
         <v>1135</v>
       </c>
@@ -15441,7 +15435,7 @@
       </c>
     </row>
     <row r="88" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A88" s="89"/>
+      <c r="A88" s="115"/>
       <c r="B88" s="62" t="s">
         <v>1136</v>
       </c>
@@ -15555,7 +15549,7 @@
       </c>
     </row>
     <row r="89" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A89" s="89"/>
+      <c r="A89" s="115"/>
       <c r="B89" s="62" t="s">
         <v>1137</v>
       </c>
@@ -15669,7 +15663,7 @@
       </c>
     </row>
     <row r="90" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A90" s="89"/>
+      <c r="A90" s="115"/>
       <c r="B90" s="62" t="s">
         <v>1138</v>
       </c>
@@ -22971,8 +22965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CDC51E-E505-4236-84C2-F185FBAFFCE4}">
   <dimension ref="A1:Z123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22993,6 +22987,7 @@
     <col min="17" max="17" width="20.85546875" customWidth="1"/>
     <col min="18" max="18" width="19.140625" customWidth="1"/>
     <col min="19" max="19" width="16.5703125" customWidth="1"/>
+    <col min="25" max="25" width="30.140625" customWidth="1"/>
     <col min="26" max="26" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23231,29 +23226,29 @@
         <v>60687659392.693939</v>
       </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="96">
+      <c r="G7" s="75">
         <f>SUM(C51:C57,C62:C69)*10^6</f>
         <v>515925000000</v>
       </c>
-      <c r="H7" s="96">
+      <c r="H7" s="75">
         <f>SUM(C58:C61)*10^6</f>
         <v>269601000000</v>
       </c>
       <c r="I7" s="29"/>
-      <c r="J7" s="97">
+      <c r="J7" s="76">
         <f>C42*10^6</f>
         <v>25886000000</v>
       </c>
-      <c r="K7" s="97">
+      <c r="K7" s="76">
         <f>SUM(C41,C43:C44)*10^6</f>
         <v>20781000000</v>
       </c>
       <c r="L7" s="29"/>
-      <c r="M7" s="97">
+      <c r="M7" s="76">
         <f>SUM(C45:C46,C49)*10^6</f>
         <v>127020000000</v>
       </c>
-      <c r="N7" s="96">
+      <c r="N7" s="75">
         <f>SUM(C47:C48,C50)*10^6</f>
         <v>38515000000</v>
       </c>
@@ -23283,10 +23278,10 @@
         <v>126</v>
       </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="117">
+      <c r="E8" s="96">
         <v>268953000000</v>
       </c>
-      <c r="F8" s="118">
+      <c r="F8" s="97">
         <v>106189000000</v>
       </c>
       <c r="G8" s="21"/>
@@ -23388,11 +23383,11 @@
         <f t="shared" ref="C10:C12" si="1">A10</f>
         <v>Compensation of employees</v>
       </c>
-      <c r="D10" s="119">
+      <c r="D10" s="98">
         <f>D6/SUM(D6:E6)</f>
         <v>0.73424281194521313</v>
       </c>
-      <c r="E10" s="120">
+      <c r="E10" s="99">
         <f>E6/SUM(D6:E6)</f>
         <v>0.26575718805478693</v>
       </c>
@@ -23400,11 +23395,11 @@
         <f>I34*10^6</f>
         <v>18055000000</v>
       </c>
-      <c r="G10" s="121">
+      <c r="G10" s="100">
         <f>G6/SUM(G6:H6)</f>
         <v>0.39173879389205551</v>
       </c>
-      <c r="H10" s="121">
+      <c r="H10" s="100">
         <f>H6/SUM(G6:H6)</f>
         <v>0.60826120610794454</v>
       </c>
@@ -23412,11 +23407,11 @@
         <f>I58*10^6</f>
         <v>100482000000</v>
       </c>
-      <c r="J10" s="121">
+      <c r="J10" s="100">
         <f>J6</f>
         <v>0.23197874321633313</v>
       </c>
-      <c r="K10" s="121">
+      <c r="K10" s="100">
         <f>K6</f>
         <v>0.76802125678366684</v>
       </c>
@@ -23424,11 +23419,11 @@
         <f>I41*10^6</f>
         <v>27080000000</v>
       </c>
-      <c r="M10" s="121">
+      <c r="M10" s="100">
         <f>M6</f>
         <v>0.63432911997975383</v>
       </c>
-      <c r="N10" s="121">
+      <c r="N10" s="100">
         <f>N6</f>
         <v>0.36567088002024611</v>
       </c>
@@ -23436,15 +23431,15 @@
         <f>I42*10^6</f>
         <v>31636000000</v>
       </c>
-      <c r="P10" s="121">
+      <c r="P10" s="100">
         <f>P6/SUM(P6:R6)</f>
         <v>0.35664188250090217</v>
       </c>
-      <c r="Q10" s="121">
+      <c r="Q10" s="100">
         <f>Q6/SUM(P6:R6)</f>
         <v>9.5432287777392696E-2</v>
       </c>
-      <c r="R10" s="121">
+      <c r="R10" s="100">
         <f>R6/SUM(P6:R6)</f>
         <v>0.54792582972170512</v>
       </c>
@@ -23462,7 +23457,7 @@
         <v>Taxes on production and imports, less subsidies</v>
       </c>
       <c r="D11" s="22">
-        <f t="shared" ref="D10:D12" si="2">$F11*($D$7/$F$8)</f>
+        <f t="shared" ref="D11:D12" si="2">$F11*($D$7/$F$8)</f>
         <v>538929932.78306246</v>
       </c>
       <c r="E11" s="21">
@@ -23474,7 +23469,7 @@
         <v>4968000000</v>
       </c>
       <c r="G11" s="36">
-        <f t="shared" ref="G10:H12" si="3">$I11*(G$7/$I$8)</f>
+        <f t="shared" ref="G11:H12" si="3">$I11*(G$7/$I$8)</f>
         <v>10700409789.109463</v>
       </c>
       <c r="H11" s="36">
@@ -23486,7 +23481,7 @@
         <v>16292000000</v>
       </c>
       <c r="J11" s="36">
-        <f t="shared" ref="J10:K12" si="4">$L11*(J$7/$L$8)</f>
+        <f t="shared" ref="J11:K12" si="4">$L11*(J$7/$L$8)</f>
         <v>314235934.11575079</v>
       </c>
       <c r="K11" s="36">
@@ -23498,7 +23493,7 @@
         <v>1446000000</v>
       </c>
       <c r="M11" s="36">
-        <f t="shared" ref="M10:N12" si="5">$O11*(M$7/$O$8)</f>
+        <f t="shared" ref="M11:N12" si="5">$O11*(M$7/$O$8)</f>
         <v>1388688764.2329404</v>
       </c>
       <c r="N11" s="36">
@@ -23607,24 +23602,19 @@
         <v>1146</v>
       </c>
       <c r="J14" t="s">
+        <v>1217</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1217</v>
+      </c>
+      <c r="P14" t="s">
         <v>1147</v>
       </c>
-      <c r="M14" t="s">
+      <c r="Q14" t="s">
         <v>1148</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>1149</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>1150</v>
-      </c>
-      <c r="R14" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J15" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -23652,7 +23642,7 @@
         <v>161</v>
       </c>
       <c r="M23" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -23660,7 +23650,7 @@
         <v>162</v>
       </c>
       <c r="M24" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -23698,40 +23688,40 @@
       <c r="K26" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="M26" s="98" t="s">
+      <c r="M26" s="77" t="s">
+        <v>1152</v>
+      </c>
+      <c r="N26" s="77" t="s">
+        <v>1153</v>
+      </c>
+      <c r="O26" s="77" t="s">
+        <v>1154</v>
+      </c>
+      <c r="P26" s="77" t="s">
         <v>1155</v>
       </c>
-      <c r="N26" s="98" t="s">
+      <c r="Q26" s="77" t="s">
         <v>1156</v>
       </c>
-      <c r="O26" s="98" t="s">
+      <c r="R26" s="77" t="s">
         <v>1157</v>
       </c>
-      <c r="P26" s="98" t="s">
+      <c r="S26" s="77" t="s">
         <v>1158</v>
       </c>
-      <c r="Q26" s="98" t="s">
+      <c r="T26" s="77" t="s">
         <v>1159</v>
       </c>
-      <c r="R26" s="98" t="s">
+      <c r="U26" s="77" t="s">
         <v>1160</v>
       </c>
-      <c r="S26" s="98" t="s">
+      <c r="V26" s="77" t="s">
         <v>1161</v>
       </c>
-      <c r="T26" s="98" t="s">
+      <c r="Y26" s="78" t="s">
         <v>1162</v>
       </c>
-      <c r="U26" s="98" t="s">
-        <v>1163</v>
-      </c>
-      <c r="V26" s="98" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Y26" s="99" t="s">
-        <v>1165</v>
-      </c>
-      <c r="Z26" s="100">
+      <c r="Z26" s="79">
         <v>2015</v>
       </c>
     </row>
@@ -23766,38 +23756,38 @@
       <c r="K27" s="42">
         <v>7310806</v>
       </c>
-      <c r="M27" s="101" t="s">
+      <c r="M27" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="N27" s="102">
+      <c r="N27" s="81">
         <v>1306702060.5499315</v>
       </c>
-      <c r="O27" s="102">
+      <c r="O27" s="81">
         <v>148063</v>
       </c>
-      <c r="P27" s="102">
+      <c r="P27" s="81">
         <v>11519410352.717516</v>
       </c>
-      <c r="Q27" s="102">
+      <c r="Q27" s="81">
         <v>22717814.536255758</v>
       </c>
-      <c r="R27" s="102">
+      <c r="R27" s="81">
         <v>431308093.40285647</v>
       </c>
-      <c r="S27" s="102">
+      <c r="S27" s="81">
         <v>7601712988.706522</v>
       </c>
-      <c r="T27" s="102">
+      <c r="T27" s="81">
         <v>0</v>
       </c>
-      <c r="U27" s="102">
+      <c r="U27" s="81">
         <v>3491148228.5713687</v>
       </c>
-      <c r="V27" s="102">
+      <c r="V27" s="81">
         <v>24373147601.484451</v>
       </c>
-      <c r="Y27" s="103"/>
-      <c r="Z27" s="104"/>
+      <c r="Y27" s="82"/>
+      <c r="Z27" s="83"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -23831,7 +23821,7 @@
         <v>6793156</v>
       </c>
       <c r="M28" s="56" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="N28">
         <v>1306702060.5499315</v>
@@ -23860,10 +23850,10 @@
       <c r="V28">
         <v>24373147601.484451</v>
       </c>
-      <c r="Y28" s="105" t="s">
-        <v>1167</v>
-      </c>
-      <c r="Z28" s="106">
+      <c r="Y28" s="84" t="s">
+        <v>1164</v>
+      </c>
+      <c r="Z28" s="85">
         <v>64615.98526307274</v>
       </c>
     </row>
@@ -23898,40 +23888,40 @@
       <c r="K29" s="42">
         <v>129354</v>
       </c>
-      <c r="M29" s="101" t="s">
-        <v>1168</v>
-      </c>
-      <c r="N29" s="102">
+      <c r="M29" s="80" t="s">
+        <v>1165</v>
+      </c>
+      <c r="N29" s="81">
         <v>1297267192.8821502</v>
       </c>
-      <c r="O29" s="102">
+      <c r="O29" s="81">
         <v>133723</v>
       </c>
-      <c r="P29" s="102">
+      <c r="P29" s="81">
         <v>11158155930.177727</v>
       </c>
-      <c r="Q29" s="102">
+      <c r="Q29" s="81">
         <v>15478071.442284144</v>
       </c>
-      <c r="R29" s="102">
+      <c r="R29" s="81">
         <v>3400589.4355021538</v>
       </c>
-      <c r="S29" s="102">
+      <c r="S29" s="81">
         <v>7218782754.3940811</v>
       </c>
-      <c r="T29" s="102">
+      <c r="T29" s="81">
         <v>0</v>
       </c>
-      <c r="U29" s="102">
+      <c r="U29" s="81">
         <v>3349165753.2852859</v>
       </c>
-      <c r="V29" s="102">
+      <c r="V29" s="81">
         <v>23042384014.617031</v>
       </c>
-      <c r="Y29" s="107" t="s">
-        <v>1169</v>
-      </c>
-      <c r="Z29" s="108">
+      <c r="Y29" s="86" t="s">
+        <v>1166</v>
+      </c>
+      <c r="Z29" s="87">
         <v>26221.561705366206</v>
       </c>
     </row>
@@ -23967,7 +23957,7 @@
         <v>119390</v>
       </c>
       <c r="M30" s="56" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="N30">
         <v>1297267192.8821502</v>
@@ -23996,10 +23986,10 @@
       <c r="V30">
         <v>23042384014.617031</v>
       </c>
-      <c r="Y30" s="109" t="s">
-        <v>1171</v>
-      </c>
-      <c r="Z30" s="110">
+      <c r="Y30" s="88" t="s">
+        <v>1168</v>
+      </c>
+      <c r="Z30" s="89">
         <v>23404.888504693812</v>
       </c>
     </row>
@@ -24034,40 +24024,40 @@
       <c r="K31" s="42">
         <v>9964</v>
       </c>
-      <c r="M31" s="101" t="s">
-        <v>1172</v>
-      </c>
-      <c r="N31" s="102">
+      <c r="M31" s="80" t="s">
+        <v>1169</v>
+      </c>
+      <c r="N31" s="81">
         <v>9545802.0354693029</v>
       </c>
-      <c r="O31" s="102">
+      <c r="O31" s="81">
         <v>14340</v>
       </c>
-      <c r="P31" s="102">
+      <c r="P31" s="81">
         <v>361254908.36018932</v>
       </c>
-      <c r="Q31" s="102">
+      <c r="Q31" s="81">
         <v>7239743.0939716157</v>
       </c>
-      <c r="R31" s="102">
+      <c r="R31" s="81">
         <v>427340739.06143731</v>
       </c>
-      <c r="S31" s="102">
+      <c r="S31" s="81">
         <v>382819215.01538932</v>
       </c>
-      <c r="T31" s="102">
+      <c r="T31" s="81">
         <v>0</v>
       </c>
-      <c r="U31" s="102">
+      <c r="U31" s="81">
         <v>141982453.01575536</v>
       </c>
-      <c r="V31" s="102">
+      <c r="V31" s="81">
         <v>1330197200.5822122</v>
       </c>
-      <c r="Y31" s="111" t="s">
-        <v>1173</v>
-      </c>
-      <c r="Z31" s="112">
+      <c r="Y31" s="90" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Z31" s="91">
         <v>14989.535053012718</v>
       </c>
     </row>
@@ -24103,7 +24093,7 @@
         <v>129835</v>
       </c>
       <c r="M32" s="56" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="N32">
         <v>9545802.0354693029</v>
@@ -24164,34 +24154,34 @@
       <c r="K33" s="42">
         <v>86727</v>
       </c>
-      <c r="M33" s="101" t="s">
+      <c r="M33" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="N33" s="102">
+      <c r="N33" s="81">
         <v>8266490842.2795811</v>
       </c>
-      <c r="O33" s="102">
+      <c r="O33" s="81">
         <v>53591</v>
       </c>
-      <c r="P33" s="102">
+      <c r="P33" s="81">
         <v>60687659392.693939</v>
       </c>
-      <c r="Q33" s="102">
+      <c r="Q33" s="81">
         <v>4712323815.234766</v>
       </c>
-      <c r="R33" s="102">
+      <c r="R33" s="81">
         <v>72867445.497491658</v>
       </c>
-      <c r="S33" s="102">
+      <c r="S33" s="81">
         <v>14437910094.097101</v>
       </c>
-      <c r="T33" s="102">
+      <c r="T33" s="81">
         <v>0</v>
       </c>
-      <c r="U33" s="102">
+      <c r="U33" s="81">
         <v>2019879400.793005</v>
       </c>
-      <c r="V33" s="102">
+      <c r="V33" s="81">
         <v>90197184581.595901</v>
       </c>
     </row>
@@ -24227,7 +24217,7 @@
         <v>26971</v>
       </c>
       <c r="M34" s="56" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="N34">
         <v>8266490842.2795811</v>
@@ -24256,10 +24246,10 @@
       <c r="V34">
         <v>90197184581.595901</v>
       </c>
-      <c r="Y34" s="105" t="s">
-        <v>1167</v>
-      </c>
-      <c r="Z34" s="100">
+      <c r="Y34" s="84" t="s">
+        <v>1164</v>
+      </c>
+      <c r="Z34" s="79">
         <v>2015</v>
       </c>
     </row>
@@ -24294,38 +24284,38 @@
       <c r="K35" s="42">
         <v>16137</v>
       </c>
-      <c r="M35" s="101" t="s">
-        <v>1176</v>
-      </c>
-      <c r="N35" s="102">
+      <c r="M35" s="80" t="s">
+        <v>1173</v>
+      </c>
+      <c r="N35" s="81">
         <v>7130567441.7257786</v>
       </c>
-      <c r="O35" s="102">
+      <c r="O35" s="81">
         <v>19838</v>
       </c>
-      <c r="P35" s="102">
+      <c r="P35" s="81">
         <v>21590616914.442547</v>
       </c>
-      <c r="Q35" s="102">
+      <c r="Q35" s="81">
         <v>3627610582.7069497</v>
       </c>
-      <c r="R35" s="102">
+      <c r="R35" s="81">
         <v>72867445.497491658</v>
       </c>
-      <c r="S35" s="102">
+      <c r="S35" s="81">
         <v>11830994109.66503</v>
       </c>
-      <c r="T35" s="102">
+      <c r="T35" s="81">
         <v>0</v>
       </c>
-      <c r="U35" s="102">
+      <c r="U35" s="81">
         <v>666753944.41147113</v>
       </c>
-      <c r="V35" s="102">
+      <c r="V35" s="81">
         <v>44919430276.449265</v>
       </c>
-      <c r="Y35" s="113"/>
-      <c r="Z35" s="114"/>
+      <c r="Y35" s="92"/>
+      <c r="Z35" s="93"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -24359,7 +24349,7 @@
         <v>162593</v>
       </c>
       <c r="M36" s="56" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="N36">
         <v>7130567441.7257786</v>
@@ -24388,10 +24378,10 @@
       <c r="V36">
         <v>44919430276.449265</v>
       </c>
-      <c r="Y36" s="99" t="s">
-        <v>1178</v>
-      </c>
-      <c r="Z36" s="106">
+      <c r="Y36" s="78" t="s">
+        <v>1175</v>
+      </c>
+      <c r="Z36" s="85">
         <v>42130.370628106539</v>
       </c>
     </row>
@@ -24426,40 +24416,40 @@
       <c r="K37" s="42">
         <v>227490</v>
       </c>
-      <c r="M37" s="101" t="s">
-        <v>1179</v>
-      </c>
-      <c r="N37" s="102">
+      <c r="M37" s="80" t="s">
+        <v>1176</v>
+      </c>
+      <c r="N37" s="81">
         <v>1261631266.7170815</v>
       </c>
-      <c r="O37" s="102">
+      <c r="O37" s="81">
         <v>33753</v>
       </c>
-      <c r="P37" s="102">
+      <c r="P37" s="81">
         <v>39097039905.733597</v>
       </c>
-      <c r="Q37" s="102">
+      <c r="Q37" s="81">
         <v>1084713232.5278163</v>
       </c>
-      <c r="R37" s="102">
+      <c r="R37" s="81">
         <v>0</v>
       </c>
-      <c r="S37" s="102">
+      <c r="S37" s="81">
         <v>2606915848.9715786</v>
       </c>
-      <c r="T37" s="102">
+      <c r="T37" s="81">
         <v>0</v>
       </c>
-      <c r="U37" s="102">
+      <c r="U37" s="81">
         <v>1353236460.6230078</v>
       </c>
-      <c r="V37" s="102">
+      <c r="V37" s="81">
         <v>45403570467.573082</v>
       </c>
-      <c r="Y37" s="99" t="s">
-        <v>1180</v>
-      </c>
-      <c r="Z37" s="106">
+      <c r="Y37" s="78" t="s">
+        <v>1177</v>
+      </c>
+      <c r="Z37" s="85">
         <v>24286.8397775126</v>
       </c>
     </row>
@@ -24495,7 +24485,7 @@
         <v>1037641</v>
       </c>
       <c r="M38" s="56" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="N38">
         <v>1261631266.7170815</v>
@@ -24556,41 +24546,41 @@
       <c r="K39" s="42">
         <v>490800</v>
       </c>
-      <c r="M39" s="101" t="s">
-        <v>1182</v>
-      </c>
-      <c r="N39" s="102">
+      <c r="M39" s="80" t="s">
+        <v>1179</v>
+      </c>
+      <c r="N39" s="81">
         <v>469546162.21027291</v>
       </c>
-      <c r="O39" s="102">
+      <c r="O39" s="81">
         <v>14003</v>
       </c>
-      <c r="P39" s="102">
+      <c r="P39" s="81">
         <v>1521476863.0696039</v>
       </c>
-      <c r="Q39" s="102">
+      <c r="Q39" s="81">
         <v>89872672.890682131</v>
       </c>
-      <c r="R39" s="102">
+      <c r="R39" s="81">
         <v>701088188.61936069</v>
       </c>
-      <c r="S39" s="102">
+      <c r="S39" s="81">
         <v>765961358.06948328</v>
       </c>
-      <c r="T39" s="102">
+      <c r="T39" s="81">
         <v>0</v>
       </c>
-      <c r="U39" s="102">
+      <c r="U39" s="81">
         <v>290797503.93466085</v>
       </c>
-      <c r="V39" s="102">
+      <c r="V39" s="81">
         <v>3838756751.794064</v>
       </c>
       <c r="Y39" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="Z39" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
@@ -24625,7 +24615,7 @@
         <v>11353</v>
       </c>
       <c r="M40" s="56" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="N40">
         <v>469546162.21027291</v>
@@ -24686,34 +24676,34 @@
       <c r="K41" s="42">
         <v>26135</v>
       </c>
-      <c r="M41" s="101" t="s">
-        <v>1186</v>
-      </c>
-      <c r="N41" s="102">
+      <c r="M41" s="80" t="s">
+        <v>1183</v>
+      </c>
+      <c r="N41" s="81">
         <v>952797572.37284994</v>
       </c>
-      <c r="O41" s="102">
+      <c r="O41" s="81">
         <v>5507</v>
       </c>
-      <c r="P41" s="102">
+      <c r="P41" s="81">
         <v>2429423437.3547029</v>
       </c>
-      <c r="Q41" s="102">
+      <c r="Q41" s="81">
         <v>998585.25434091256</v>
       </c>
-      <c r="R41" s="102">
+      <c r="R41" s="81">
         <v>0</v>
       </c>
-      <c r="S41" s="102">
+      <c r="S41" s="81">
         <v>949563448.90718198</v>
       </c>
-      <c r="T41" s="102">
+      <c r="T41" s="81">
         <v>0</v>
       </c>
-      <c r="U41" s="102">
+      <c r="U41" s="81">
         <v>316095095.78219879</v>
       </c>
-      <c r="V41" s="102">
+      <c r="V41" s="81">
         <v>4648883646.6712751</v>
       </c>
     </row>
@@ -24749,7 +24739,7 @@
         <v>25947</v>
       </c>
       <c r="M42" s="56" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="N42">
         <v>952797572.37284994</v>
@@ -24810,34 +24800,34 @@
       <c r="K43" s="42">
         <v>46896</v>
       </c>
-      <c r="M43" s="101" t="s">
-        <v>1188</v>
-      </c>
-      <c r="N43" s="102">
+      <c r="M43" s="80" t="s">
+        <v>1185</v>
+      </c>
+      <c r="N43" s="81">
         <v>228005085.27106535</v>
       </c>
-      <c r="O43" s="102">
+      <c r="O43" s="81">
         <v>12194</v>
       </c>
-      <c r="P43" s="102">
+      <c r="P43" s="81">
         <v>873853938.769485</v>
       </c>
-      <c r="Q43" s="102">
+      <c r="Q43" s="81">
         <v>89123733.949926436</v>
       </c>
-      <c r="R43" s="102">
+      <c r="R43" s="81">
         <v>701088188.61936069</v>
       </c>
-      <c r="S43" s="102">
+      <c r="S43" s="81">
         <v>558149484.19674885</v>
       </c>
-      <c r="T43" s="102">
+      <c r="T43" s="81">
         <v>0</v>
       </c>
-      <c r="U43" s="102">
+      <c r="U43" s="81">
         <v>189166072.8742767</v>
       </c>
-      <c r="V43" s="102">
+      <c r="V43" s="81">
         <v>2639398697.6808629</v>
       </c>
     </row>
@@ -24873,7 +24863,7 @@
         <v>54260</v>
       </c>
       <c r="M44" s="56" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="N44">
         <v>228005085.27106535</v>
@@ -24934,34 +24924,34 @@
       <c r="K45" s="42">
         <v>121224</v>
       </c>
-      <c r="M45" s="101" t="s">
-        <v>1190</v>
-      </c>
-      <c r="N45" s="102">
+      <c r="M45" s="80" t="s">
+        <v>1187</v>
+      </c>
+      <c r="N45" s="81">
         <v>2222486657.5109367</v>
       </c>
-      <c r="O45" s="102">
+      <c r="O45" s="81">
         <v>151154</v>
       </c>
-      <c r="P45" s="102">
+      <c r="P45" s="81">
         <v>27400666701.752556</v>
       </c>
-      <c r="Q45" s="102">
+      <c r="Q45" s="81">
         <v>622617906.08155894</v>
       </c>
-      <c r="R45" s="102">
+      <c r="R45" s="81">
         <v>838710893.05547976</v>
       </c>
-      <c r="S45" s="102">
+      <c r="S45" s="81">
         <v>10031770194.062885</v>
       </c>
-      <c r="T45" s="102">
+      <c r="T45" s="81">
         <v>0</v>
       </c>
-      <c r="U45" s="102">
+      <c r="U45" s="81">
         <v>4236554756.1895924</v>
       </c>
-      <c r="V45" s="102">
+      <c r="V45" s="81">
         <v>45352958262.653008</v>
       </c>
     </row>
@@ -24997,7 +24987,7 @@
         <v>28080</v>
       </c>
       <c r="M46" s="56" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="N46">
         <v>2222486657.5109367</v>
@@ -25058,34 +25048,34 @@
       <c r="K47" s="42">
         <v>72921</v>
       </c>
-      <c r="M47" s="101" t="s">
-        <v>1192</v>
-      </c>
-      <c r="N47" s="102">
+      <c r="M47" s="80" t="s">
+        <v>1189</v>
+      </c>
+      <c r="N47" s="81">
         <v>1899948233.971308</v>
       </c>
-      <c r="O47" s="102">
+      <c r="O47" s="81">
         <v>131410</v>
       </c>
-      <c r="P47" s="102">
+      <c r="P47" s="81">
         <v>23497086460.520012</v>
       </c>
-      <c r="Q47" s="102">
+      <c r="Q47" s="81">
         <v>521760795.39312679</v>
       </c>
-      <c r="R47" s="102">
+      <c r="R47" s="81">
         <v>483888988.16405404</v>
       </c>
-      <c r="S47" s="102">
+      <c r="S47" s="81">
         <v>8520722346.2728558</v>
       </c>
-      <c r="T47" s="102">
+      <c r="T47" s="81">
         <v>0</v>
       </c>
-      <c r="U47" s="102">
+      <c r="U47" s="81">
         <v>3650632204.7298689</v>
       </c>
-      <c r="V47" s="102">
+      <c r="V47" s="81">
         <v>38574170439.051224</v>
       </c>
     </row>
@@ -25121,7 +25111,7 @@
         <v>68800</v>
       </c>
       <c r="M48" s="56" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="N48">
         <v>1899948233.971308</v>
@@ -25182,34 +25172,34 @@
       <c r="K49" s="42">
         <v>8477</v>
       </c>
-      <c r="M49" s="101" t="s">
-        <v>1194</v>
-      </c>
-      <c r="N49" s="102">
+      <c r="M49" s="80" t="s">
+        <v>1191</v>
+      </c>
+      <c r="N49" s="81">
         <v>473257466.17673761</v>
       </c>
-      <c r="O49" s="102">
+      <c r="O49" s="81">
         <v>26802</v>
       </c>
-      <c r="P49" s="102">
+      <c r="P49" s="81">
         <v>5663489273.1745396</v>
       </c>
-      <c r="Q49" s="102">
+      <c r="Q49" s="81">
         <v>100857110.68843216</v>
       </c>
-      <c r="R49" s="102">
+      <c r="R49" s="81">
         <v>354821904.89142573</v>
       </c>
-      <c r="S49" s="102">
+      <c r="S49" s="81">
         <v>1991280609.2443142</v>
       </c>
-      <c r="T49" s="102">
+      <c r="T49" s="81">
         <v>0</v>
       </c>
-      <c r="U49" s="102">
+      <c r="U49" s="81">
         <v>824041350.96202862</v>
       </c>
-      <c r="V49" s="102">
+      <c r="V49" s="81">
         <v>9407774517.1374779</v>
       </c>
     </row>
@@ -25245,7 +25235,7 @@
         <v>26708</v>
       </c>
       <c r="M50" s="56" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="N50">
         <v>473257466.17673761</v>
@@ -25303,34 +25293,34 @@
       <c r="K51" s="42">
         <v>546841</v>
       </c>
-      <c r="M51" s="101" t="s">
-        <v>1196</v>
-      </c>
-      <c r="N51" s="102">
+      <c r="M51" s="80" t="s">
+        <v>1193</v>
+      </c>
+      <c r="N51" s="81">
         <v>1678287009.8913183</v>
       </c>
-      <c r="O51" s="102">
+      <c r="O51" s="81">
         <v>44734</v>
       </c>
-      <c r="P51" s="102">
+      <c r="P51" s="81">
         <v>11502895221.353985</v>
       </c>
-      <c r="Q51" s="102">
+      <c r="Q51" s="81">
         <v>717733151.55753088</v>
       </c>
-      <c r="R51" s="102">
+      <c r="R51" s="81">
         <v>15302652.459759692</v>
       </c>
-      <c r="S51" s="102">
+      <c r="S51" s="81">
         <v>4083801384.9274535</v>
       </c>
-      <c r="T51" s="102">
+      <c r="T51" s="81">
         <v>0</v>
       </c>
-      <c r="U51" s="102">
+      <c r="U51" s="81">
         <v>1670738148.1770575</v>
       </c>
-      <c r="V51" s="102">
+      <c r="V51" s="81">
         <v>19668802302.367107</v>
       </c>
     </row>
@@ -25363,7 +25353,7 @@
         <v>128122</v>
       </c>
       <c r="M52" s="56" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="N52">
         <v>1678287009.8913183</v>
@@ -25421,34 +25411,34 @@
       <c r="K53" s="42">
         <v>5348</v>
       </c>
-      <c r="M53" s="101" t="s">
-        <v>1198</v>
-      </c>
-      <c r="N53" s="102">
+      <c r="M53" s="80" t="s">
+        <v>1195</v>
+      </c>
+      <c r="N53" s="81">
         <v>2106970962.552319</v>
       </c>
-      <c r="O53" s="102">
+      <c r="O53" s="81">
         <v>30047</v>
       </c>
-      <c r="P53" s="102">
+      <c r="P53" s="81">
         <v>5682036551.2180834</v>
       </c>
-      <c r="Q53" s="102">
+      <c r="Q53" s="81">
         <v>707497652.70053649</v>
       </c>
-      <c r="R53" s="102">
+      <c r="R53" s="81">
         <v>566764.90591702564</v>
       </c>
-      <c r="S53" s="102">
+      <c r="S53" s="81">
         <v>1755302406.6754115</v>
       </c>
-      <c r="T53" s="102">
+      <c r="T53" s="81">
         <v>0</v>
       </c>
-      <c r="U53" s="102">
+      <c r="U53" s="81">
         <v>935825806.01349056</v>
       </c>
-      <c r="V53" s="102">
+      <c r="V53" s="81">
         <v>11188230191.06576</v>
       </c>
     </row>
@@ -25481,7 +25471,7 @@
         <v>1230</v>
       </c>
       <c r="M54" s="56" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="N54">
         <v>2106970962.552319</v>
@@ -25539,34 +25529,34 @@
       <c r="K55" s="42">
         <v>27760</v>
       </c>
-      <c r="M55" s="101" t="s">
-        <v>1200</v>
-      </c>
-      <c r="N55" s="102">
+      <c r="M55" s="80" t="s">
+        <v>1197</v>
+      </c>
+      <c r="N55" s="81">
         <v>56705031.782545343</v>
       </c>
-      <c r="O55" s="102">
+      <c r="O55" s="81">
         <v>15048</v>
       </c>
-      <c r="P55" s="102">
+      <c r="P55" s="81">
         <v>642601985.01381433</v>
       </c>
-      <c r="Q55" s="102">
+      <c r="Q55" s="81">
         <v>10485145.170579581</v>
       </c>
-      <c r="R55" s="102">
+      <c r="R55" s="81">
         <v>14735887.553842666</v>
       </c>
-      <c r="S55" s="102">
+      <c r="S55" s="81">
         <v>466369137.95732343</v>
       </c>
-      <c r="T55" s="102">
+      <c r="T55" s="81">
         <v>0</v>
       </c>
-      <c r="U55" s="102">
+      <c r="U55" s="81">
         <v>228778011.09896329</v>
       </c>
-      <c r="V55" s="102">
+      <c r="V55" s="81">
         <v>1419690246.5770686</v>
       </c>
     </row>
@@ -25599,7 +25589,7 @@
         <v>13421</v>
       </c>
       <c r="M56" s="56" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="N56">
         <v>56705031.782545343</v>
@@ -25657,34 +25647,34 @@
       <c r="K57" s="42">
         <v>121879</v>
       </c>
-      <c r="M57" s="101" t="s">
-        <v>1202</v>
-      </c>
-      <c r="N57" s="102">
+      <c r="M57" s="80" t="s">
+        <v>1199</v>
+      </c>
+      <c r="N57" s="81">
         <v>17429692130.770443</v>
       </c>
-      <c r="O57" s="102">
+      <c r="O57" s="81">
         <v>466386</v>
       </c>
-      <c r="P57" s="102">
+      <c r="P57" s="81">
         <v>128368469303.36765</v>
       </c>
-      <c r="Q57" s="102">
+      <c r="Q57" s="81">
         <v>6190456868.1116009</v>
       </c>
-      <c r="R57" s="102">
+      <c r="R57" s="81">
         <v>2461590164.6931825</v>
       </c>
-      <c r="S57" s="102">
+      <c r="S57" s="81">
         <v>46857003390.229973</v>
       </c>
-      <c r="T57" s="102">
+      <c r="T57" s="81">
         <v>32114865.704496637</v>
       </c>
-      <c r="U57" s="102">
+      <c r="U57" s="81">
         <v>14460515178.179235</v>
       </c>
-      <c r="V57" s="102">
+      <c r="V57" s="81">
         <v>215800308287.05658</v>
       </c>
     </row>
@@ -25717,7 +25707,7 @@
         <v>216206</v>
       </c>
       <c r="M58" s="56" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="N58">
         <v>17429692130.770443</v>
@@ -25775,34 +25765,34 @@
       <c r="K59" s="42">
         <v>32875</v>
       </c>
-      <c r="M59" s="101" t="s">
+      <c r="M59" s="80" t="s">
         <v>273</v>
       </c>
-      <c r="N59" s="102">
+      <c r="N59" s="81">
         <v>78504091490.033295</v>
       </c>
-      <c r="O59" s="102">
+      <c r="O59" s="81">
         <v>1046982</v>
       </c>
-      <c r="P59" s="102">
+      <c r="P59" s="81">
         <v>575389288859.79785</v>
       </c>
-      <c r="Q59" s="102">
+      <c r="Q59" s="81">
         <v>14621035647.746056</v>
       </c>
-      <c r="R59" s="102">
+      <c r="R59" s="81">
         <v>9593563517.3573933</v>
       </c>
-      <c r="S59" s="102">
+      <c r="S59" s="81">
         <v>207189119008.2312</v>
       </c>
-      <c r="T59" s="102">
+      <c r="T59" s="81">
         <v>0</v>
       </c>
-      <c r="U59" s="102">
+      <c r="U59" s="81">
         <v>47523291302.504768</v>
       </c>
-      <c r="V59" s="102">
+      <c r="V59" s="81">
         <v>932821436807.67065</v>
       </c>
     </row>
@@ -25835,7 +25825,7 @@
         <v>422674</v>
       </c>
       <c r="M60" s="56" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="N60">
         <v>78504091490.033295</v>
@@ -25893,34 +25883,34 @@
       <c r="K61" s="42">
         <v>229589</v>
       </c>
-      <c r="M61" s="101" t="s">
+      <c r="M61" s="80" t="s">
         <v>966</v>
       </c>
-      <c r="N61" s="102">
+      <c r="N61" s="81">
         <v>67476297698.493103</v>
       </c>
-      <c r="O61" s="102">
+      <c r="O61" s="81">
         <v>798544</v>
       </c>
-      <c r="P61" s="102">
+      <c r="P61" s="81">
         <v>441742765741.36365</v>
       </c>
-      <c r="Q61" s="102">
+      <c r="Q61" s="81">
         <v>10383039828.323223</v>
       </c>
-      <c r="R61" s="102">
+      <c r="R61" s="81">
         <v>7651054396.3270893</v>
       </c>
-      <c r="S61" s="102">
+      <c r="S61" s="81">
         <v>171867442674.04648</v>
       </c>
-      <c r="T61" s="102">
+      <c r="T61" s="81">
         <v>0</v>
       </c>
-      <c r="U61" s="102">
+      <c r="U61" s="81">
         <v>38643049029.573586</v>
       </c>
-      <c r="V61" s="102">
+      <c r="V61" s="81">
         <v>737764447912.1272</v>
       </c>
     </row>
@@ -25953,7 +25943,7 @@
         <v>210828</v>
       </c>
       <c r="M62" s="56" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="N62">
         <v>67476297698.493103</v>
@@ -26011,34 +26001,34 @@
       <c r="K63" s="42">
         <v>47193</v>
       </c>
-      <c r="M63" s="101" t="s">
+      <c r="M63" s="80" t="s">
         <v>968</v>
       </c>
-      <c r="N63" s="102">
+      <c r="N63" s="81">
         <v>5059416710.4255381</v>
       </c>
-      <c r="O63" s="102">
+      <c r="O63" s="81">
         <v>84930</v>
       </c>
-      <c r="P63" s="102">
+      <c r="P63" s="81">
         <v>97953802980.534073</v>
       </c>
-      <c r="Q63" s="102">
+      <c r="Q63" s="81">
         <v>3660813542.4137855</v>
       </c>
-      <c r="R63" s="102">
+      <c r="R63" s="81">
         <v>255915836.97198397</v>
       </c>
-      <c r="S63" s="102">
+      <c r="S63" s="81">
         <v>20101780091.966759</v>
       </c>
-      <c r="T63" s="102">
+      <c r="T63" s="81">
         <v>0</v>
       </c>
-      <c r="U63" s="102">
+      <c r="U63" s="81">
         <v>4245598894.5075283</v>
       </c>
-      <c r="V63" s="102">
+      <c r="V63" s="81">
         <v>131277412986.81966</v>
       </c>
     </row>
@@ -26071,7 +26061,7 @@
         <v>19867</v>
       </c>
       <c r="M64" s="56" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="N64">
         <v>5059416710.4255381</v>
@@ -26129,34 +26119,34 @@
       <c r="K65" s="42">
         <v>7603</v>
       </c>
-      <c r="M65" s="101" t="s">
+      <c r="M65" s="80" t="s">
         <v>970</v>
       </c>
-      <c r="N65" s="102">
+      <c r="N65" s="81">
         <v>5648457179.3464718</v>
       </c>
-      <c r="O65" s="102">
+      <c r="O65" s="81">
         <v>128749</v>
       </c>
-      <c r="P65" s="102">
+      <c r="P65" s="81">
         <v>27999579018.642555</v>
       </c>
-      <c r="Q65" s="102">
+      <c r="Q65" s="81">
         <v>577182277.00904739</v>
       </c>
-      <c r="R65" s="102">
+      <c r="R65" s="81">
         <v>1267410240.9736962</v>
       </c>
-      <c r="S65" s="102">
+      <c r="S65" s="81">
         <v>11337027772.73737</v>
       </c>
-      <c r="T65" s="102">
+      <c r="T65" s="81">
         <v>0</v>
       </c>
-      <c r="U65" s="102">
+      <c r="U65" s="81">
         <v>3836592098.3406067</v>
       </c>
-      <c r="V65" s="102">
+      <c r="V65" s="81">
         <v>50666377336.049744</v>
       </c>
     </row>
@@ -26189,7 +26179,7 @@
         <v>52871</v>
       </c>
       <c r="M66" s="56" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="N66">
         <v>5648457179.3464718</v>
@@ -26247,34 +26237,34 @@
       <c r="K67" s="42">
         <v>20673</v>
       </c>
-      <c r="M67" s="101" t="s">
-        <v>1208</v>
-      </c>
-      <c r="N67" s="102">
+      <c r="M67" s="80" t="s">
+        <v>1205</v>
+      </c>
+      <c r="N67" s="81">
         <v>78504091490.033295</v>
       </c>
-      <c r="O67" s="102">
+      <c r="O67" s="81">
         <v>1046982</v>
       </c>
-      <c r="P67" s="102">
+      <c r="P67" s="81">
         <v>575389288859.79785</v>
       </c>
-      <c r="Q67" s="102">
+      <c r="Q67" s="81">
         <v>14621035647.746056</v>
       </c>
-      <c r="R67" s="102">
+      <c r="R67" s="81">
         <v>9593563517.3573933</v>
       </c>
-      <c r="S67" s="102">
+      <c r="S67" s="81">
         <v>207189119008.2312</v>
       </c>
-      <c r="T67" s="102">
+      <c r="T67" s="81">
         <v>0</v>
       </c>
-      <c r="U67" s="102">
+      <c r="U67" s="81">
         <v>47523291302.504768</v>
       </c>
-      <c r="V67" s="102">
+      <c r="V67" s="81">
         <v>932821436807.67065</v>
       </c>
     </row>
@@ -26307,7 +26297,7 @@
         <v>26712</v>
       </c>
       <c r="M68" s="56" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="N68">
         <v>78504091490.033295</v>
@@ -26365,34 +26355,34 @@
       <c r="K69" s="42">
         <v>28010</v>
       </c>
-      <c r="M69" s="101" t="s">
+      <c r="M69" s="80" t="s">
         <v>276</v>
       </c>
-      <c r="N69" s="102">
+      <c r="N69" s="81">
         <v>10890398890.142317</v>
       </c>
-      <c r="O69" s="102">
+      <c r="O69" s="81">
         <v>308551</v>
       </c>
-      <c r="P69" s="102">
+      <c r="P69" s="81">
         <v>46830687188.228706</v>
       </c>
-      <c r="Q69" s="102">
+      <c r="Q69" s="81">
         <v>937172261.19894636</v>
       </c>
-      <c r="R69" s="102">
+      <c r="R69" s="81">
         <v>735583151.50594342</v>
       </c>
-      <c r="S69" s="102">
+      <c r="S69" s="81">
         <v>26612571643.637161</v>
       </c>
-      <c r="T69" s="102">
+      <c r="T69" s="81">
         <v>0</v>
       </c>
-      <c r="U69" s="102">
+      <c r="U69" s="81">
         <v>9113191707.005558</v>
       </c>
-      <c r="V69" s="102">
+      <c r="V69" s="81">
         <v>95119913392.718628</v>
       </c>
     </row>
@@ -26416,7 +26406,7 @@
         <v>7898</v>
       </c>
       <c r="M70" s="56" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="N70">
         <v>10890398890.142317</v>
@@ -26465,34 +26455,34 @@
       <c r="K71" s="42">
         <v>532970</v>
       </c>
-      <c r="M71" s="101" t="s">
+      <c r="M71" s="80" t="s">
         <v>984</v>
       </c>
-      <c r="N71" s="102">
+      <c r="N71" s="81">
         <v>10890398890.142317</v>
       </c>
-      <c r="O71" s="102">
+      <c r="O71" s="81">
         <v>308551</v>
       </c>
-      <c r="P71" s="102">
+      <c r="P71" s="81">
         <v>46830687188.228706</v>
       </c>
-      <c r="Q71" s="102">
+      <c r="Q71" s="81">
         <v>937172261.19894636</v>
       </c>
-      <c r="R71" s="102">
+      <c r="R71" s="81">
         <v>735583151.50594342</v>
       </c>
-      <c r="S71" s="102">
+      <c r="S71" s="81">
         <v>26612571643.637161</v>
       </c>
-      <c r="T71" s="102">
+      <c r="T71" s="81">
         <v>0</v>
       </c>
-      <c r="U71" s="102">
+      <c r="U71" s="81">
         <v>9113191707.005558</v>
       </c>
-      <c r="V71" s="102">
+      <c r="V71" s="81">
         <v>95119913392.718628</v>
       </c>
     </row>
@@ -26516,7 +26506,7 @@
         <v>103343</v>
       </c>
       <c r="M72" s="56" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="N72">
         <v>10890398890.142317</v>
@@ -26565,34 +26555,34 @@
       <c r="K73" s="42">
         <v>46882</v>
       </c>
-      <c r="M73" s="101" t="s">
+      <c r="M73" s="80" t="s">
         <v>279</v>
       </c>
-      <c r="N73" s="102">
+      <c r="N73" s="81">
         <v>6782897653.2705154</v>
       </c>
-      <c r="O73" s="102">
+      <c r="O73" s="81">
         <v>89709</v>
       </c>
-      <c r="P73" s="102">
+      <c r="P73" s="81">
         <v>13683090124.997931</v>
       </c>
-      <c r="Q73" s="102">
+      <c r="Q73" s="81">
         <v>76035594.968170002</v>
       </c>
-      <c r="R73" s="102">
+      <c r="R73" s="81">
         <v>148771510.22782111</v>
       </c>
-      <c r="S73" s="102">
+      <c r="S73" s="81">
         <v>15070800686.395752</v>
       </c>
-      <c r="T73" s="102">
+      <c r="T73" s="81">
         <v>0</v>
       </c>
-      <c r="U73" s="102">
+      <c r="U73" s="81">
         <v>4328199385.6230402</v>
       </c>
-      <c r="V73" s="102">
+      <c r="V73" s="81">
         <v>40089884664.483231</v>
       </c>
     </row>
@@ -26616,7 +26606,7 @@
         <v>273993</v>
       </c>
       <c r="M74" s="56" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="N74">
         <v>6782897653.2705154</v>
@@ -26665,34 +26655,34 @@
       <c r="K75" s="42">
         <v>108752</v>
       </c>
-      <c r="M75" s="101" t="s">
+      <c r="M75" s="80" t="s">
         <v>1004</v>
       </c>
-      <c r="N75" s="102">
+      <c r="N75" s="81">
         <v>6782897653.2705154</v>
       </c>
-      <c r="O75" s="102">
+      <c r="O75" s="81">
         <v>89709</v>
       </c>
-      <c r="P75" s="102">
+      <c r="P75" s="81">
         <v>13683090124.997931</v>
       </c>
-      <c r="Q75" s="102">
+      <c r="Q75" s="81">
         <v>76035594.968170002</v>
       </c>
-      <c r="R75" s="102">
+      <c r="R75" s="81">
         <v>148771510.22782111</v>
       </c>
-      <c r="S75" s="102">
+      <c r="S75" s="81">
         <v>15070800686.395752</v>
       </c>
-      <c r="T75" s="102">
+      <c r="T75" s="81">
         <v>0</v>
       </c>
-      <c r="U75" s="102">
+      <c r="U75" s="81">
         <v>4328199385.6230402</v>
       </c>
-      <c r="V75" s="102">
+      <c r="V75" s="81">
         <v>40089884664.483231</v>
       </c>
     </row>
@@ -26716,7 +26706,7 @@
         <v>2577118</v>
       </c>
       <c r="M76" s="56" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="N76">
         <v>6782897653.2705154</v>
@@ -26765,34 +26755,34 @@
       <c r="K77" s="42">
         <v>583890</v>
       </c>
-      <c r="M77" s="101" t="s">
+      <c r="M77" s="80" t="s">
         <v>282</v>
       </c>
-      <c r="N77" s="102">
+      <c r="N77" s="81">
         <v>8687307834.3865585</v>
       </c>
-      <c r="O77" s="102">
+      <c r="O77" s="81">
         <v>797772</v>
       </c>
-      <c r="P77" s="102">
+      <c r="P77" s="81">
         <v>101211167771.59067</v>
       </c>
-      <c r="Q77" s="102">
+      <c r="Q77" s="81">
         <v>2115253215.007638</v>
       </c>
-      <c r="R77" s="102">
+      <c r="R77" s="81">
         <v>1068105430.5352523</v>
       </c>
-      <c r="S77" s="102">
+      <c r="S77" s="81">
         <v>47284001926.415855</v>
       </c>
-      <c r="T77" s="102">
+      <c r="T77" s="81">
         <v>0</v>
       </c>
-      <c r="U77" s="102">
+      <c r="U77" s="81">
         <v>22567169621.563957</v>
       </c>
-      <c r="V77" s="102">
+      <c r="V77" s="81">
         <v>182933803571.49994</v>
       </c>
     </row>
@@ -26816,7 +26806,7 @@
         <v>306900</v>
       </c>
       <c r="M78" s="56" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="N78">
         <v>8687307834.3865585</v>
@@ -26865,34 +26855,34 @@
       <c r="K79" s="42">
         <v>-1604</v>
       </c>
-      <c r="M79" s="101" t="s">
+      <c r="M79" s="80" t="s">
         <v>1026</v>
       </c>
-      <c r="N79" s="102">
+      <c r="N79" s="81">
         <v>3280319673.5430574</v>
       </c>
-      <c r="O79" s="102">
+      <c r="O79" s="81">
         <v>455862</v>
       </c>
-      <c r="P79" s="102">
+      <c r="P79" s="81">
         <v>37776744598.702255</v>
       </c>
-      <c r="Q79" s="102">
+      <c r="Q79" s="81">
         <v>699758616.97939444</v>
       </c>
-      <c r="R79" s="102">
+      <c r="R79" s="81">
         <v>457050052.41330284</v>
       </c>
-      <c r="S79" s="102">
+      <c r="S79" s="81">
         <v>22005087530.867695</v>
       </c>
-      <c r="T79" s="102">
+      <c r="T79" s="81">
         <v>0</v>
       </c>
-      <c r="U79" s="102">
+      <c r="U79" s="81">
         <v>11942037769.473236</v>
       </c>
-      <c r="V79" s="102">
+      <c r="V79" s="81">
         <v>76161454103.978943</v>
       </c>
     </row>
@@ -26916,7 +26906,7 @@
         <v>263076</v>
       </c>
       <c r="M80" s="56" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="N80">
         <v>3280319673.5430574</v>
@@ -26965,34 +26955,34 @@
       <c r="K81" s="42">
         <v>15519</v>
       </c>
-      <c r="M81" s="101" t="s">
+      <c r="M81" s="80" t="s">
         <v>1028</v>
       </c>
-      <c r="N81" s="102">
+      <c r="N81" s="81">
         <v>3590390056.4097924</v>
       </c>
-      <c r="O81" s="102">
+      <c r="O81" s="81">
         <v>188037</v>
       </c>
-      <c r="P81" s="102">
+      <c r="P81" s="81">
         <v>27947568861.148758</v>
       </c>
-      <c r="Q81" s="102">
+      <c r="Q81" s="81">
         <v>112590487.42693789</v>
       </c>
-      <c r="R81" s="102">
+      <c r="R81" s="81">
         <v>260863677.44606811</v>
       </c>
-      <c r="S81" s="102">
+      <c r="S81" s="81">
         <v>15847402446.86713</v>
       </c>
-      <c r="T81" s="102">
+      <c r="T81" s="81">
         <v>0</v>
       </c>
-      <c r="U81" s="102">
+      <c r="U81" s="81">
         <v>6303530054.0874472</v>
       </c>
-      <c r="V81" s="102">
+      <c r="V81" s="81">
         <v>54062533620.386139</v>
       </c>
     </row>
@@ -27016,7 +27006,7 @@
         <v>1993228</v>
       </c>
       <c r="M82" s="56" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="N82">
         <v>3590390056.4097924</v>
@@ -27065,34 +27055,34 @@
       <c r="K83" s="42">
         <v>1840595</v>
       </c>
-      <c r="M83" s="101" t="s">
+      <c r="M83" s="80" t="s">
         <v>1030</v>
       </c>
-      <c r="N83" s="102">
+      <c r="N83" s="81">
         <v>1805391977.5152531</v>
       </c>
-      <c r="O83" s="102">
+      <c r="O83" s="81">
         <v>153456</v>
       </c>
-      <c r="P83" s="102">
+      <c r="P83" s="81">
         <v>35382448787.675598</v>
       </c>
-      <c r="Q83" s="102">
+      <c r="Q83" s="81">
         <v>1302654464.2877204</v>
       </c>
-      <c r="R83" s="102">
+      <c r="R83" s="81">
         <v>350191700.67588127</v>
       </c>
-      <c r="S83" s="102">
+      <c r="S83" s="81">
         <v>9374676939.8772049</v>
       </c>
-      <c r="T83" s="102">
+      <c r="T83" s="81">
         <v>0</v>
       </c>
-      <c r="U83" s="102">
+      <c r="U83" s="81">
         <v>4300743926.0165453</v>
       </c>
-      <c r="V83" s="102">
+      <c r="V83" s="81">
         <v>52516261252.048203</v>
       </c>
     </row>
@@ -27116,7 +27106,7 @@
         <v>152633</v>
       </c>
       <c r="M84" s="56" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="N84">
         <v>1805391977.5152531</v>
@@ -27165,34 +27155,34 @@
       <c r="K85" s="42">
         <v>571091</v>
       </c>
-      <c r="M85" s="101" t="s">
+      <c r="M85" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="N85" s="102">
+      <c r="N85" s="81">
         <v>237223363.36203495</v>
       </c>
-      <c r="O85" s="102">
+      <c r="O85" s="81">
         <v>30809</v>
       </c>
-      <c r="P85" s="102">
+      <c r="P85" s="81">
         <v>4526548038.6598177</v>
       </c>
-      <c r="Q85" s="102">
+      <c r="Q85" s="81">
         <v>36947654.41061376</v>
       </c>
-      <c r="R85" s="102">
+      <c r="R85" s="81">
         <v>66878258.89820902</v>
       </c>
-      <c r="S85" s="102">
+      <c r="S85" s="81">
         <v>1772599418.1525803</v>
       </c>
-      <c r="T85" s="102">
+      <c r="T85" s="81">
         <v>0</v>
       </c>
-      <c r="U85" s="102">
+      <c r="U85" s="81">
         <v>1022368847.8663996</v>
       </c>
-      <c r="V85" s="102">
+      <c r="V85" s="81">
         <v>7662596390.3496552</v>
       </c>
     </row>
@@ -27216,7 +27206,7 @@
         <v>404035</v>
       </c>
       <c r="M86" s="56" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="N86">
         <v>237223363.36203495</v>
@@ -27265,34 +27255,34 @@
       <c r="K87" s="42">
         <v>99788</v>
       </c>
-      <c r="M87" s="101" t="s">
+      <c r="M87" s="80" t="s">
         <v>1044</v>
       </c>
-      <c r="N87" s="102">
+      <c r="N87" s="81">
         <v>237223363.36203495</v>
       </c>
-      <c r="O87" s="102">
+      <c r="O87" s="81">
         <v>30809</v>
       </c>
-      <c r="P87" s="102">
+      <c r="P87" s="81">
         <v>4526548038.6598177</v>
       </c>
-      <c r="Q87" s="102">
+      <c r="Q87" s="81">
         <v>36947654.41061376</v>
       </c>
-      <c r="R87" s="102">
+      <c r="R87" s="81">
         <v>66878258.89820902</v>
       </c>
-      <c r="S87" s="102">
+      <c r="S87" s="81">
         <v>1772599418.1525803</v>
       </c>
-      <c r="T87" s="102">
+      <c r="T87" s="81">
         <v>0</v>
       </c>
-      <c r="U87" s="102">
+      <c r="U87" s="81">
         <v>1022368847.8663996</v>
       </c>
-      <c r="V87" s="102">
+      <c r="V87" s="81">
         <v>7662596390.3496552</v>
       </c>
     </row>
@@ -27316,7 +27306,7 @@
         <v>44213</v>
       </c>
       <c r="M88" s="56" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="N88">
         <v>237223363.36203495</v>
@@ -27365,34 +27355,34 @@
       <c r="K89" s="42">
         <v>260034</v>
       </c>
-      <c r="M89" s="101" t="s">
-        <v>1216</v>
-      </c>
-      <c r="N89" s="102">
+      <c r="M89" s="80" t="s">
+        <v>1213</v>
+      </c>
+      <c r="N89" s="81">
         <v>26646384802.299095</v>
       </c>
-      <c r="O89" s="102">
+      <c r="O89" s="81">
         <v>1307162</v>
       </c>
-      <c r="P89" s="102">
+      <c r="P89" s="81">
         <v>166544071748.37201</v>
       </c>
-      <c r="Q89" s="102">
+      <c r="Q89" s="81">
         <v>3164766317.3199368</v>
       </c>
-      <c r="R89" s="102">
+      <c r="R89" s="81">
         <v>2081562082.3276882</v>
       </c>
-      <c r="S89" s="102">
+      <c r="S89" s="81">
         <v>90719512145.805908</v>
       </c>
-      <c r="T89" s="102">
+      <c r="T89" s="81">
         <v>0</v>
       </c>
-      <c r="U89" s="102">
+      <c r="U89" s="81">
         <v>37148673843.856224</v>
       </c>
-      <c r="V89" s="102">
+      <c r="V89" s="81">
         <v>326306278101.98083</v>
       </c>
     </row>
@@ -27416,7 +27406,7 @@
         <v>37122</v>
       </c>
       <c r="M90" s="56" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="N90">
         <v>26646384802.299095</v>
@@ -27465,34 +27455,34 @@
       <c r="K91" s="42">
         <v>129933</v>
       </c>
-      <c r="M91" s="115" t="s">
-        <v>1164</v>
-      </c>
-      <c r="N91" s="116">
+      <c r="M91" s="94" t="s">
+        <v>1161</v>
+      </c>
+      <c r="N91" s="95">
         <v>361813089644.73499</v>
       </c>
-      <c r="O91" s="116">
+      <c r="O91" s="95">
         <v>8167207</v>
       </c>
-      <c r="P91" s="116">
+      <c r="P91" s="95">
         <v>2569413515071.1187</v>
       </c>
-      <c r="Q91" s="116">
+      <c r="Q91" s="95">
         <v>71879927946.755615</v>
       </c>
-      <c r="R91" s="116">
+      <c r="R91" s="95">
         <v>41061324239.506859</v>
       </c>
-      <c r="S91" s="116">
+      <c r="S91" s="95">
         <v>1009886171812.8113</v>
       </c>
-      <c r="T91" s="116">
+      <c r="T91" s="95">
         <v>32114865.704496637</v>
       </c>
-      <c r="U91" s="116">
+      <c r="U91" s="95">
         <v>290786808092.05988</v>
       </c>
-      <c r="V91" s="116">
+      <c r="V91" s="95">
         <v>4344881118879.6924</v>
       </c>
     </row>
@@ -27984,9 +27974,9 @@
         <v>12630266</v>
       </c>
     </row>
-    <row r="121" spans="6:11" s="114" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="6:11" s="114" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="6:11" s="114" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="6:11" s="93" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="6:11" s="93" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="6:11" s="93" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{72166BDC-360E-4066-9610-E3722D5AD63A}"/>
@@ -28328,14 +28318,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28562,21 +28550,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A51831F5-BBC8-4C0F-87D0-DEE41C3CA568}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7E46C6E-E7F4-4336-B2D9-D075C882516C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28601,9 +28588,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7E46C6E-E7F4-4336-B2D9-D075C882516C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A51831F5-BBC8-4C0F-87D0-DEE41C3CA568}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\io-model\BECbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\EPS Models\EU EPS\InputData\io-model\BECbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9191AFAF-EF1E-4F19-A44D-C62CF07F070C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B74C56-03DC-439B-8657-37A98977B5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="2055" windowWidth="19305" windowHeight="14430" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="525" yWindow="465" windowWidth="26460" windowHeight="7800" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -22965,8 +22965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CDC51E-E505-4236-84C2-F185FBAFFCE4}">
   <dimension ref="A1:Z123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27995,8 +27995,8 @@
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28155,8 +28155,7 @@
         <v>11185172707.53479</v>
       </c>
       <c r="E2">
-        <f>'OECD VAL EU'!E35*10^6*About!$A$36</f>
-        <v>7828450490.4205198</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f>'OECD VAL EU'!F35*10^6*About!$A$36</f>
@@ -28191,8 +28190,7 @@
         <v>59544488888.638145</v>
       </c>
       <c r="N2">
-        <f>'OECD VAL EU'!M35*10^6*About!$A$36</f>
-        <v>56454646705.991539</v>
+        <v>0</v>
       </c>
       <c r="O2" s="52">
         <f>'OECD VAL US'!N9*10^6*About!$A$36*('EU Data for ISIC Splits'!J10/SUM('EU Data for ISIC Splits'!J10:K10))</f>
@@ -28211,32 +28209,28 @@
         <v>11165793403.897251</v>
       </c>
       <c r="S2">
-        <f>'OECD VAL EU'!P35*10^6*About!$A$36</f>
-        <v>115189611484.28172</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <f>'OECD VAL EU'!Q35*10^6*About!$A$36</f>
-        <v>54677388222.06002</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <f>'OECD VAL EU'!R35*10^6*About!$A$36</f>
-        <v>61353004962.310722</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <f>'OECD VAL EU'!S35*10^6*About!$A$36</f>
-        <v>143027380027.69415</v>
+        <f>'OECD VAL EU'!S35*10^6*About!$A$36+'OECD VAL EU'!R35*10^6*About!$A$36+'OECD VAL EU'!Q35*10^6*About!$A$36+'OECD VAL EU'!P35*10^6*About!$A$36</f>
+        <v>374247384696.34662</v>
       </c>
       <c r="W2">
-        <f>'OECD VAL EU'!T35*10^6*About!$A$36</f>
-        <v>121755853419.62813</v>
+        <f>'OECD VAL EU'!T35*10^6*About!$A$36+'OECD VAL EU'!U35*10^6*About!$A$36</f>
+        <v>154811957053.37592</v>
       </c>
       <c r="X2">
-        <f>'OECD VAL EU'!U35*10^6*About!$A$36</f>
-        <v>33056103633.747795</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <f>'OECD VAL EU'!V35*10^6*About!$A$36</f>
-        <v>115208284758.93289</v>
+        <f>'OECD VAL EU'!V35*10^6*About!$A$36+'OECD VAL EU'!M35*10^6*About!$A$36+'OECD VAL EU'!X35*10^6*About!$A$36+'OECD VAL EU'!E35*10^6*About!$A$36</f>
+        <v>512209373798.3266</v>
       </c>
       <c r="Z2" s="52">
         <f>'OECD VAL US'!W9*10^6*About!$A$36*('EU Data for ISIC Splits'!P10/SUM('EU Data for ISIC Splits'!P10:R10))</f>
@@ -28251,8 +28245,7 @@
         <v>54600680708.644234</v>
       </c>
       <c r="AC2">
-        <f>'OECD VAL EU'!X35*10^6*About!$A$36</f>
-        <v>332717991842.98163</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <f>'OECD VAL EU'!Y35*10^6*About!$A$36</f>
@@ -28318,12 +28311,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28550,20 +28545,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7E46C6E-E7F4-4336-B2D9-D075C882516C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A51831F5-BBC8-4C0F-87D0-DEE41C3CA568}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28588,12 +28584,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A51831F5-BBC8-4C0F-87D0-DEE41C3CA568}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7E46C6E-E7F4-4336-B2D9-D075C882516C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\EPS Models\EU EPS\InputData\io-model\BECbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\io-model\BECbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B74C56-03DC-439B-8657-37A98977B5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9191AFAF-EF1E-4F19-A44D-C62CF07F070C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="465" windowWidth="26460" windowHeight="7800" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="2055" windowWidth="19305" windowHeight="14430" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -22965,8 +22965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CDC51E-E505-4236-84C2-F185FBAFFCE4}">
   <dimension ref="A1:Z123"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27995,8 +27995,8 @@
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28155,7 +28155,8 @@
         <v>11185172707.53479</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <f>'OECD VAL EU'!E35*10^6*About!$A$36</f>
+        <v>7828450490.4205198</v>
       </c>
       <c r="F2">
         <f>'OECD VAL EU'!F35*10^6*About!$A$36</f>
@@ -28190,7 +28191,8 @@
         <v>59544488888.638145</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <f>'OECD VAL EU'!M35*10^6*About!$A$36</f>
+        <v>56454646705.991539</v>
       </c>
       <c r="O2" s="52">
         <f>'OECD VAL US'!N9*10^6*About!$A$36*('EU Data for ISIC Splits'!J10/SUM('EU Data for ISIC Splits'!J10:K10))</f>
@@ -28209,28 +28211,32 @@
         <v>11165793403.897251</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <f>'OECD VAL EU'!P35*10^6*About!$A$36</f>
+        <v>115189611484.28172</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <f>'OECD VAL EU'!Q35*10^6*About!$A$36</f>
+        <v>54677388222.06002</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <f>'OECD VAL EU'!R35*10^6*About!$A$36</f>
+        <v>61353004962.310722</v>
       </c>
       <c r="V2">
-        <f>'OECD VAL EU'!S35*10^6*About!$A$36+'OECD VAL EU'!R35*10^6*About!$A$36+'OECD VAL EU'!Q35*10^6*About!$A$36+'OECD VAL EU'!P35*10^6*About!$A$36</f>
-        <v>374247384696.34662</v>
+        <f>'OECD VAL EU'!S35*10^6*About!$A$36</f>
+        <v>143027380027.69415</v>
       </c>
       <c r="W2">
-        <f>'OECD VAL EU'!T35*10^6*About!$A$36+'OECD VAL EU'!U35*10^6*About!$A$36</f>
-        <v>154811957053.37592</v>
+        <f>'OECD VAL EU'!T35*10^6*About!$A$36</f>
+        <v>121755853419.62813</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <f>'OECD VAL EU'!U35*10^6*About!$A$36</f>
+        <v>33056103633.747795</v>
       </c>
       <c r="Y2">
-        <f>'OECD VAL EU'!V35*10^6*About!$A$36+'OECD VAL EU'!M35*10^6*About!$A$36+'OECD VAL EU'!X35*10^6*About!$A$36+'OECD VAL EU'!E35*10^6*About!$A$36</f>
-        <v>512209373798.3266</v>
+        <f>'OECD VAL EU'!V35*10^6*About!$A$36</f>
+        <v>115208284758.93289</v>
       </c>
       <c r="Z2" s="52">
         <f>'OECD VAL US'!W9*10^6*About!$A$36*('EU Data for ISIC Splits'!P10/SUM('EU Data for ISIC Splits'!P10:R10))</f>
@@ -28245,7 +28251,8 @@
         <v>54600680708.644234</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <f>'OECD VAL EU'!X35*10^6*About!$A$36</f>
+        <v>332717991842.98163</v>
       </c>
       <c r="AD2">
         <f>'OECD VAL EU'!Y35*10^6*About!$A$36</f>
@@ -28311,14 +28318,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28545,21 +28550,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A51831F5-BBC8-4C0F-87D0-DEE41C3CA568}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7E46C6E-E7F4-4336-B2D9-D075C882516C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28584,9 +28588,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7E46C6E-E7F4-4336-B2D9-D075C882516C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A51831F5-BBC8-4C0F-87D0-DEE41C3CA568}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\io-model\BECbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\io-model\BECbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9191AFAF-EF1E-4F19-A44D-C62CF07F070C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E042CE74-7CB6-4027-843E-8C318419BF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="2055" windowWidth="19305" windowHeight="14430" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="OECD VAL EU" sheetId="13" r:id="rId3"/>
     <sheet name="U.S. Data for ISIC Splits" sheetId="12" r:id="rId4"/>
     <sheet name="EU Data for ISIC Splits" sheetId="15" r:id="rId5"/>
-    <sheet name="BECbIC" sheetId="2" r:id="rId6"/>
+    <sheet name="Pre ISIC Consolidation" sheetId="16" r:id="rId6"/>
+    <sheet name="BECbIC" sheetId="2" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="1218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="1221">
   <si>
     <t>Source:</t>
   </si>
@@ -3695,6 +3696,15 @@
   </si>
   <si>
     <t xml:space="preserve">^ industries are similar - here we assume that the Value Added ratio is similar for Employment share </t>
+  </si>
+  <si>
+    <t>EU ISIC Consolidation</t>
+  </si>
+  <si>
+    <t>Default EPS ISIC Groupings</t>
+  </si>
+  <si>
+    <t>EU ISIC Groupings</t>
   </si>
 </sst>
 </file>
@@ -3866,7 +3876,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3984,6 +3994,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4231,7 +4271,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4533,6 +4573,25 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4861,17 +4920,17 @@
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="77.5703125" customWidth="1"/>
+    <col min="2" max="2" width="77.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4879,142 +4938,142 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" s="56" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" s="56" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" s="56" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="16">
         <v>0.9686815713640794</v>
       </c>
@@ -5041,21 +5100,21 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" style="6" customWidth="1"/>
-    <col min="3" max="24" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="27.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="2.453125" style="6" customWidth="1"/>
+    <col min="3" max="24" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -5064,12 +5123,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="101" t="s">
         <v>42</v>
       </c>
@@ -5113,7 +5172,7 @@
       <c r="AK3" s="109"/>
       <c r="AL3" s="110"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="101" t="s">
         <v>4</v>
       </c>
@@ -5157,7 +5216,7 @@
       <c r="AK4" s="104"/>
       <c r="AL4" s="105"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="101" t="s">
         <v>6</v>
       </c>
@@ -5201,7 +5260,7 @@
       <c r="AK5" s="104"/>
       <c r="AL5" s="105"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="101" t="s">
         <v>8</v>
       </c>
@@ -5245,7 +5304,7 @@
       <c r="AK6" s="104"/>
       <c r="AL6" s="105"/>
     </row>
-    <row r="7" spans="1:38" ht="126" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="100" x14ac:dyDescent="0.25">
       <c r="A7" s="106" t="s">
         <v>45</v>
       </c>
@@ -5359,7 +5418,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>82</v>
       </c>
@@ -5475,7 +5534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="20" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>83</v>
       </c>
@@ -5591,7 +5650,7 @@
         <v>21351.7</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="20" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>84</v>
       </c>
@@ -5707,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="20" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>85</v>
       </c>
@@ -5823,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>86</v>
       </c>
@@ -5858,12 +5917,12 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="27.42578125" customWidth="1"/>
+    <col min="1" max="2" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1" s="57" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -5872,12 +5931,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="58" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B3" s="74" t="s">
         <v>42</v>
       </c>
@@ -5920,7 +5979,7 @@
       <c r="AK3" s="117"/>
       <c r="AL3" s="118"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B4" s="74" t="s">
         <v>6</v>
       </c>
@@ -5963,7 +6022,7 @@
       <c r="AK4" s="120"/>
       <c r="AL4" s="121"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B5" s="74" t="s">
         <v>8</v>
       </c>
@@ -6006,7 +6065,7 @@
       <c r="AK5" s="120"/>
       <c r="AL5" s="121"/>
     </row>
-    <row r="6" spans="1:38" ht="126" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="110" x14ac:dyDescent="0.35">
       <c r="A6" s="72" t="s">
         <v>45</v>
       </c>
@@ -6120,7 +6179,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" s="60" t="s">
         <v>82</v>
       </c>
@@ -6236,7 +6295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" s="111" t="s">
         <v>83</v>
       </c>
@@ -6352,7 +6411,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" s="112"/>
       <c r="B9" s="62" t="s">
         <v>1113</v>
@@ -6466,7 +6525,7 @@
         <v>478.9</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" s="112"/>
       <c r="B10" s="62" t="s">
         <v>1114</v>
@@ -6580,7 +6639,7 @@
         <v>140.80000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A11" s="112"/>
       <c r="B11" s="62" t="s">
         <v>1115</v>
@@ -6694,7 +6753,7 @@
         <v>742.4</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A12" s="112"/>
       <c r="B12" s="62" t="s">
         <v>1116</v>
@@ -6808,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A13" s="112"/>
       <c r="B13" s="62" t="s">
         <v>1117</v>
@@ -6922,7 +6981,7 @@
         <v>271.8</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A14" s="112"/>
       <c r="B14" s="62" t="s">
         <v>1118</v>
@@ -7036,7 +7095,7 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A15" s="112"/>
       <c r="B15" s="62" t="s">
         <v>1119</v>
@@ -7150,7 +7209,7 @@
         <v>8453.2999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
       <c r="B16" s="62" t="s">
         <v>1120</v>
@@ -7264,7 +7323,7 @@
         <v>580.4</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
       <c r="B17" s="62" t="s">
         <v>1121</v>
@@ -7378,7 +7437,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
       <c r="B18" s="62" t="s">
         <v>1122</v>
@@ -7492,7 +7551,7 @@
         <v>191.3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A19" s="112"/>
       <c r="B19" s="62" t="s">
         <v>1123</v>
@@ -7606,7 +7665,7 @@
         <v>20916.8</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20" s="112"/>
       <c r="B20" s="62" t="s">
         <v>1124</v>
@@ -7720,7 +7779,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A21" s="112"/>
       <c r="B21" s="62" t="s">
         <v>1125</v>
@@ -7834,7 +7893,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A22" s="112"/>
       <c r="B22" s="62" t="s">
         <v>1126</v>
@@ -7948,7 +8007,7 @@
         <v>142.6</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23" s="112"/>
       <c r="B23" s="62" t="s">
         <v>1127</v>
@@ -8062,7 +8121,7 @@
         <v>592.29999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" s="112"/>
       <c r="B24" s="62" t="s">
         <v>1128</v>
@@ -8176,7 +8235,7 @@
         <v>586.79999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25" s="112"/>
       <c r="B25" s="62" t="s">
         <v>1129</v>
@@ -8290,7 +8349,7 @@
         <v>1258.7</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26" s="112"/>
       <c r="B26" s="62" t="s">
         <v>1130</v>
@@ -8404,7 +8463,7 @@
         <v>149.4</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27" s="112"/>
       <c r="B27" s="62" t="s">
         <v>1131</v>
@@ -8518,7 +8577,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A28" s="112"/>
       <c r="B28" s="62" t="s">
         <v>1132</v>
@@ -8632,7 +8691,7 @@
         <v>10288.799999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29" s="112"/>
       <c r="B29" s="62" t="s">
         <v>1133</v>
@@ -8746,7 +8805,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30" s="112"/>
       <c r="B30" s="62" t="s">
         <v>1134</v>
@@ -8860,7 +8919,7 @@
         <v>68.099999999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" s="112"/>
       <c r="B31" s="65" t="s">
         <v>1135</v>
@@ -8974,7 +9033,7 @@
         <v>183.2</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32" s="112"/>
       <c r="B32" s="62" t="s">
         <v>1136</v>
@@ -9088,7 +9147,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A33" s="112"/>
       <c r="B33" s="62" t="s">
         <v>1137</v>
@@ -9202,7 +9261,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A34" s="113"/>
       <c r="B34" s="62" t="s">
         <v>1138</v>
@@ -9316,7 +9375,7 @@
         <v>535.20000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:38" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.35">
       <c r="A35" s="67" t="s">
         <v>1140</v>
       </c>
@@ -9466,7 +9525,7 @@
         <v>49877.099999999991</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A36" s="111" t="s">
         <v>84</v>
       </c>
@@ -9582,7 +9641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A37" s="112"/>
       <c r="B37" s="62" t="s">
         <v>1113</v>
@@ -9696,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A38" s="112"/>
       <c r="B38" s="62" t="s">
         <v>1114</v>
@@ -9810,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A39" s="112"/>
       <c r="B39" s="62" t="s">
         <v>1115</v>
@@ -9924,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A40" s="112"/>
       <c r="B40" s="62" t="s">
         <v>1116</v>
@@ -10038,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A41" s="112"/>
       <c r="B41" s="62" t="s">
         <v>1117</v>
@@ -10152,7 +10211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
       <c r="B42" s="62" t="s">
         <v>1118</v>
@@ -10266,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
       <c r="B43" s="62" t="s">
         <v>1119</v>
@@ -10380,7 +10439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
       <c r="B44" s="62" t="s">
         <v>1120</v>
@@ -10494,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A45" s="112"/>
       <c r="B45" s="62" t="s">
         <v>1121</v>
@@ -10608,7 +10667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A46" s="112"/>
       <c r="B46" s="62" t="s">
         <v>1122</v>
@@ -10722,7 +10781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A47" s="112"/>
       <c r="B47" s="62" t="s">
         <v>1123</v>
@@ -10836,7 +10895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A48" s="112"/>
       <c r="B48" s="62" t="s">
         <v>1124</v>
@@ -10950,7 +11009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A49" s="112"/>
       <c r="B49" s="62" t="s">
         <v>1125</v>
@@ -11064,7 +11123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A50" s="112"/>
       <c r="B50" s="62" t="s">
         <v>1126</v>
@@ -11178,7 +11237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A51" s="112"/>
       <c r="B51" s="62" t="s">
         <v>1127</v>
@@ -11292,7 +11351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A52" s="112"/>
       <c r="B52" s="62" t="s">
         <v>1128</v>
@@ -11406,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A53" s="112"/>
       <c r="B53" s="62" t="s">
         <v>1129</v>
@@ -11520,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A54" s="112"/>
       <c r="B54" s="62" t="s">
         <v>1130</v>
@@ -11634,7 +11693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A55" s="112"/>
       <c r="B55" s="62" t="s">
         <v>1131</v>
@@ -11748,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A56" s="112"/>
       <c r="B56" s="62" t="s">
         <v>1132</v>
@@ -11862,7 +11921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A57" s="112"/>
       <c r="B57" s="62" t="s">
         <v>1133</v>
@@ -11976,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A58" s="112"/>
       <c r="B58" s="62" t="s">
         <v>1134</v>
@@ -12090,7 +12149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A59" s="112"/>
       <c r="B59" s="65" t="s">
         <v>1135</v>
@@ -12204,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A60" s="112"/>
       <c r="B60" s="62" t="s">
         <v>1136</v>
@@ -12318,7 +12377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A61" s="112"/>
       <c r="B61" s="62" t="s">
         <v>1137</v>
@@ -12432,7 +12491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A62" s="113"/>
       <c r="B62" s="62" t="s">
         <v>1138</v>
@@ -12546,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:38" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.35">
       <c r="A63" s="67" t="s">
         <v>1141</v>
       </c>
@@ -12696,7 +12755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="114" t="s">
         <v>85</v>
       </c>
@@ -12812,7 +12871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A65" s="115"/>
       <c r="B65" s="62" t="s">
         <v>1113</v>
@@ -12926,7 +12985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A66" s="115"/>
       <c r="B66" s="62" t="s">
         <v>1114</v>
@@ -13040,7 +13099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A67" s="115"/>
       <c r="B67" s="62" t="s">
         <v>1115</v>
@@ -13154,7 +13213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A68" s="115"/>
       <c r="B68" s="62" t="s">
         <v>1116</v>
@@ -13268,7 +13327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A69" s="115"/>
       <c r="B69" s="62" t="s">
         <v>1117</v>
@@ -13382,7 +13441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A70" s="115"/>
       <c r="B70" s="62" t="s">
         <v>1118</v>
@@ -13496,7 +13555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A71" s="115"/>
       <c r="B71" s="62" t="s">
         <v>1119</v>
@@ -13610,7 +13669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A72" s="115"/>
       <c r="B72" s="62" t="s">
         <v>1120</v>
@@ -13724,7 +13783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A73" s="115"/>
       <c r="B73" s="62" t="s">
         <v>1121</v>
@@ -13838,7 +13897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A74" s="115"/>
       <c r="B74" s="62" t="s">
         <v>1122</v>
@@ -13952,7 +14011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A75" s="115"/>
       <c r="B75" s="62" t="s">
         <v>1123</v>
@@ -14066,7 +14125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A76" s="115"/>
       <c r="B76" s="62" t="s">
         <v>1124</v>
@@ -14180,7 +14239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A77" s="115"/>
       <c r="B77" s="62" t="s">
         <v>1125</v>
@@ -14294,7 +14353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A78" s="115"/>
       <c r="B78" s="62" t="s">
         <v>1126</v>
@@ -14408,7 +14467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A79" s="115"/>
       <c r="B79" s="62" t="s">
         <v>1127</v>
@@ -14522,7 +14581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A80" s="115"/>
       <c r="B80" s="62" t="s">
         <v>1128</v>
@@ -14636,7 +14695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A81" s="115"/>
       <c r="B81" s="62" t="s">
         <v>1129</v>
@@ -14750,7 +14809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A82" s="115"/>
       <c r="B82" s="62" t="s">
         <v>1130</v>
@@ -14864,7 +14923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A83" s="115"/>
       <c r="B83" s="62" t="s">
         <v>1131</v>
@@ -14978,7 +15037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A84" s="115"/>
       <c r="B84" s="62" t="s">
         <v>1132</v>
@@ -15092,7 +15151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A85" s="115"/>
       <c r="B85" s="62" t="s">
         <v>1133</v>
@@ -15206,7 +15265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A86" s="115"/>
       <c r="B86" s="62" t="s">
         <v>1134</v>
@@ -15320,7 +15379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A87" s="115"/>
       <c r="B87" s="65" t="s">
         <v>1135</v>
@@ -15434,7 +15493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A88" s="115"/>
       <c r="B88" s="62" t="s">
         <v>1136</v>
@@ -15548,7 +15607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A89" s="115"/>
       <c r="B89" s="62" t="s">
         <v>1137</v>
@@ -15662,7 +15721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A90" s="115"/>
       <c r="B90" s="62" t="s">
         <v>1138</v>
@@ -15776,7 +15835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" ht="20" x14ac:dyDescent="0.35">
       <c r="A91" s="71" t="s">
         <v>1142</v>
       </c>
@@ -15926,7 +15985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A92" s="66" t="s">
         <v>1139</v>
       </c>
@@ -15963,37 +16022,37 @@
       <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="9" width="20.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" customWidth="1"/>
-    <col min="14" max="15" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="48.26953125" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="40.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="9" width="20.81640625" customWidth="1"/>
+    <col min="10" max="10" width="19.81640625" customWidth="1"/>
+    <col min="11" max="11" width="23.453125" customWidth="1"/>
+    <col min="12" max="12" width="22.453125" customWidth="1"/>
+    <col min="13" max="13" width="20.26953125" customWidth="1"/>
+    <col min="14" max="15" width="18.453125" customWidth="1"/>
     <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="20.81640625" customWidth="1"/>
+    <col min="18" max="18" width="19.1796875" customWidth="1"/>
+    <col min="19" max="19" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="28" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="28" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="24" t="s">
         <v>130</v>
       </c>
@@ -16052,7 +16111,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>106</v>
       </c>
@@ -16085,7 +16144,7 @@
       <c r="O4" s="29"/>
       <c r="S4" s="29"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>108</v>
       </c>
@@ -16139,7 +16198,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>111</v>
       </c>
@@ -16192,7 +16251,7 @@
       </c>
       <c r="S6" s="29"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>155</v>
       </c>
@@ -16252,7 +16311,7 @@
       </c>
       <c r="S7" s="29"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>114</v>
       </c>
@@ -16284,7 +16343,7 @@
         <v>513760000000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>116</v>
       </c>
@@ -16360,7 +16419,7 @@
         <v>299232000000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
         <v>118</v>
       </c>
@@ -16433,7 +16492,7 @@
         <v>77628000000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
         <v>157</v>
       </c>
@@ -16506,7 +16565,7 @@
         <v>59011000000</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
         <v>119</v>
       </c>
@@ -16579,37 +16638,37 @@
         <v>162593000000</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="G25" s="1" t="s">
         <v>163</v>
       </c>
@@ -16617,7 +16676,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" s="18" t="s">
         <v>164</v>
       </c>
@@ -16645,7 +16704,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>167</v>
       </c>
@@ -16674,7 +16733,7 @@
         <v>7310806</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>170</v>
       </c>
@@ -16704,7 +16763,7 @@
       </c>
       <c r="N28" s="19"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>173</v>
       </c>
@@ -16734,7 +16793,7 @@
       </c>
       <c r="N29" s="19"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>176</v>
       </c>
@@ -16764,7 +16823,7 @@
       </c>
       <c r="N30" s="19"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>179</v>
       </c>
@@ -16793,7 +16852,7 @@
         <v>9964</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>182</v>
       </c>
@@ -16822,7 +16881,7 @@
         <v>129835</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>185</v>
       </c>
@@ -16851,7 +16910,7 @@
         <v>86727</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>188</v>
       </c>
@@ -16880,7 +16939,7 @@
         <v>26971</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>191</v>
       </c>
@@ -16909,7 +16968,7 @@
         <v>16137</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>194</v>
       </c>
@@ -16938,7 +16997,7 @@
         <v>162593</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>197</v>
       </c>
@@ -16967,7 +17026,7 @@
         <v>227490</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>200</v>
       </c>
@@ -16996,7 +17055,7 @@
         <v>1037641</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>203</v>
       </c>
@@ -17025,7 +17084,7 @@
         <v>490800</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>206</v>
       </c>
@@ -17057,7 +17116,7 @@
         <v>11353</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>209</v>
       </c>
@@ -17089,7 +17148,7 @@
         <v>26135</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>213</v>
       </c>
@@ -17118,7 +17177,7 @@
         <v>25947</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>216</v>
       </c>
@@ -17147,7 +17206,7 @@
         <v>46896</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>219</v>
       </c>
@@ -17176,7 +17235,7 @@
         <v>54260</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>222</v>
       </c>
@@ -17205,7 +17264,7 @@
         <v>121224</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>225</v>
       </c>
@@ -17234,7 +17293,7 @@
         <v>28080</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>228</v>
       </c>
@@ -17263,7 +17322,7 @@
         <v>72921</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>231</v>
       </c>
@@ -17295,7 +17354,7 @@
         <v>68800</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>235</v>
       </c>
@@ -17327,7 +17386,7 @@
         <v>8477</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>238</v>
       </c>
@@ -17359,7 +17418,7 @@
         <v>26708</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>241</v>
       </c>
@@ -17391,7 +17450,7 @@
         <v>546841</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>244</v>
       </c>
@@ -17423,7 +17482,7 @@
         <v>128122</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>247</v>
       </c>
@@ -17455,7 +17514,7 @@
         <v>5348</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>250</v>
       </c>
@@ -17487,7 +17546,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>253</v>
       </c>
@@ -17519,7 +17578,7 @@
         <v>27760</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>256</v>
       </c>
@@ -17551,7 +17610,7 @@
         <v>13421</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>259</v>
       </c>
@@ -17583,7 +17642,7 @@
         <v>121879</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>262</v>
       </c>
@@ -17615,7 +17674,7 @@
         <v>216206</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>266</v>
       </c>
@@ -17647,7 +17706,7 @@
         <v>32875</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>270</v>
       </c>
@@ -17676,7 +17735,7 @@
         <v>422674</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>273</v>
       </c>
@@ -17705,7 +17764,7 @@
         <v>229589</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>276</v>
       </c>
@@ -17734,7 +17793,7 @@
         <v>210828</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>279</v>
       </c>
@@ -17763,7 +17822,7 @@
         <v>47193</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>282</v>
       </c>
@@ -17792,7 +17851,7 @@
         <v>19867</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>285</v>
       </c>
@@ -17821,7 +17880,7 @@
         <v>7603</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>288</v>
       </c>
@@ -17850,7 +17909,7 @@
         <v>52871</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>291</v>
       </c>
@@ -17879,7 +17938,7 @@
         <v>20673</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>294</v>
       </c>
@@ -17908,7 +17967,7 @@
         <v>26712</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>297</v>
       </c>
@@ -17937,7 +17996,7 @@
         <v>28010</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>300</v>
       </c>
@@ -17966,7 +18025,7 @@
         <v>7898</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>303</v>
       </c>
@@ -17995,7 +18054,7 @@
         <v>532970</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>306</v>
       </c>
@@ -18024,7 +18083,7 @@
         <v>103343</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>309</v>
       </c>
@@ -18053,7 +18112,7 @@
         <v>46882</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>312</v>
       </c>
@@ -18082,7 +18141,7 @@
         <v>273993</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>315</v>
       </c>
@@ -18111,7 +18170,7 @@
         <v>108752</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>318</v>
       </c>
@@ -18143,7 +18202,7 @@
         <v>2577118</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>322</v>
       </c>
@@ -18175,7 +18234,7 @@
         <v>583890</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>326</v>
       </c>
@@ -18207,7 +18266,7 @@
         <v>306900</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>329</v>
       </c>
@@ -18239,7 +18298,7 @@
         <v>-1604</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>332</v>
       </c>
@@ -18271,7 +18330,7 @@
         <v>263076</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>335</v>
       </c>
@@ -18303,7 +18362,7 @@
         <v>15519</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>338</v>
       </c>
@@ -18335,7 +18394,7 @@
         <v>1993228</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>341</v>
       </c>
@@ -18367,7 +18426,7 @@
         <v>1840595</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>344</v>
       </c>
@@ -18399,7 +18458,7 @@
         <v>152633</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>347</v>
       </c>
@@ -18431,7 +18490,7 @@
         <v>571091</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>350</v>
       </c>
@@ -18463,7 +18522,7 @@
         <v>404035</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>353</v>
       </c>
@@ -18495,7 +18554,7 @@
         <v>99788</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>356</v>
       </c>
@@ -18527,7 +18586,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>360</v>
       </c>
@@ -18559,7 +18618,7 @@
         <v>260034</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>363</v>
       </c>
@@ -18591,7 +18650,7 @@
         <v>37122</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>367</v>
       </c>
@@ -18623,7 +18682,7 @@
         <v>129933</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>370</v>
       </c>
@@ -18655,7 +18714,7 @@
         <v>111954</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>373</v>
       </c>
@@ -18687,7 +18746,7 @@
         <v>17979</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>376</v>
       </c>
@@ -18719,7 +18778,7 @@
         <v>269876</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>379</v>
       </c>
@@ -18751,7 +18810,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>382</v>
       </c>
@@ -18783,7 +18842,7 @@
         <v>225272</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>385</v>
       </c>
@@ -18815,7 +18874,7 @@
         <v>140714</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>388</v>
       </c>
@@ -18844,7 +18903,7 @@
         <v>74709</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>391</v>
       </c>
@@ -18873,7 +18932,7 @@
         <v>9849</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>394</v>
       </c>
@@ -18902,7 +18961,7 @@
         <v>208314</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>397</v>
       </c>
@@ -18931,7 +18990,7 @@
         <v>73075</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>400</v>
       </c>
@@ -18960,7 +19019,7 @@
         <v>52602</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>403</v>
       </c>
@@ -18989,7 +19048,7 @@
         <v>20473</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>406</v>
       </c>
@@ -19018,7 +19077,7 @@
         <v>135239</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>409</v>
       </c>
@@ -19047,7 +19106,7 @@
         <v>53331</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>412</v>
       </c>
@@ -19076,7 +19135,7 @@
         <v>81908</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>415</v>
       </c>
@@ -19105,7 +19164,7 @@
         <v>83782</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>418</v>
       </c>
@@ -19134,7 +19193,7 @@
         <v>517651</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>421</v>
       </c>
@@ -19163,7 +19222,7 @@
         <v>268250</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>424</v>
       </c>
@@ -19192,7 +19251,7 @@
         <v>263735</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>428</v>
       </c>
@@ -19221,7 +19280,7 @@
         <v>4515</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>431</v>
       </c>
@@ -19250,7 +19309,7 @@
         <v>249400</v>
       </c>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>434</v>
       </c>
@@ -19279,7 +19338,7 @@
         <v>192044</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>437</v>
       </c>
@@ -19308,7 +19367,7 @@
         <v>57356</v>
       </c>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>440</v>
       </c>
@@ -19323,7 +19382,7 @@
       </c>
       <c r="I115" s="42"/>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>443</v>
       </c>
@@ -19343,7 +19402,7 @@
         <v>3268592</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>446</v>
       </c>
@@ -19363,7 +19422,7 @@
         <v>12630266</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>449</v>
       </c>
@@ -19374,7 +19433,7 @@
         <v>30700</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>451</v>
       </c>
@@ -19385,7 +19444,7 @@
         <v>9198</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>453</v>
       </c>
@@ -19396,7 +19455,7 @@
         <v>28981</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>455</v>
       </c>
@@ -19407,7 +19466,7 @@
         <v>21607</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>457</v>
       </c>
@@ -19418,7 +19477,7 @@
         <v>6176</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>459</v>
       </c>
@@ -19429,7 +19488,7 @@
         <v>26748</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>461</v>
       </c>
@@ -19440,7 +19499,7 @@
         <v>4893</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>463</v>
       </c>
@@ -19451,7 +19510,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>465</v>
       </c>
@@ -19462,7 +19521,7 @@
         <v>21334</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>467</v>
       </c>
@@ -19473,7 +19532,7 @@
         <v>4558</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>469</v>
       </c>
@@ -19484,7 +19543,7 @@
         <v>32747</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>471</v>
       </c>
@@ -19495,7 +19554,7 @@
         <v>6678</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>473</v>
       </c>
@@ -19506,7 +19565,7 @@
         <v>6497</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>475</v>
       </c>
@@ -19517,7 +19576,7 @@
         <v>8423</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>477</v>
       </c>
@@ -19528,7 +19587,7 @@
         <v>8202</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>479</v>
       </c>
@@ -19539,7 +19598,7 @@
         <v>9125</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>481</v>
       </c>
@@ -19550,7 +19609,7 @@
         <v>15140</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>483</v>
       </c>
@@ -19561,7 +19620,7 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>485</v>
       </c>
@@ -19572,7 +19631,7 @@
         <v>4321</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>487</v>
       </c>
@@ -19583,7 +19642,7 @@
         <v>27555</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>489</v>
       </c>
@@ -19594,7 +19653,7 @@
         <v>10106</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>491</v>
       </c>
@@ -19605,7 +19664,7 @@
         <v>16822</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>493</v>
       </c>
@@ -19616,7 +19675,7 @@
         <v>27754</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>495</v>
       </c>
@@ -19627,7 +19686,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>497</v>
       </c>
@@ -19638,7 +19697,7 @@
         <v>5866</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>499</v>
       </c>
@@ -19649,7 +19708,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>501</v>
       </c>
@@ -19660,7 +19719,7 @@
         <v>22220</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>503</v>
       </c>
@@ -19671,7 +19730,7 @@
         <v>11611</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>505</v>
       </c>
@@ -19682,7 +19741,7 @@
         <v>12846</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>507</v>
       </c>
@@ -19693,7 +19752,7 @@
         <v>8291</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>509</v>
       </c>
@@ -19704,7 +19763,7 @@
         <v>10778</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>511</v>
       </c>
@@ -19715,7 +19774,7 @@
         <v>11850</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>513</v>
       </c>
@@ -19726,7 +19785,7 @@
         <v>33887</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>515</v>
       </c>
@@ -19737,7 +19796,7 @@
         <v>6694</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>517</v>
       </c>
@@ -19748,7 +19807,7 @@
         <v>57088</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>519</v>
       </c>
@@ -19759,7 +19818,7 @@
         <v>20663</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>521</v>
       </c>
@@ -19770,7 +19829,7 @@
         <v>32586</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>523</v>
       </c>
@@ -19781,7 +19840,7 @@
         <v>28912</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>525</v>
       </c>
@@ -19792,7 +19851,7 @@
         <v>47917</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>527</v>
       </c>
@@ -19803,7 +19862,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>529</v>
       </c>
@@ -19814,7 +19873,7 @@
         <v>11888</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>531</v>
       </c>
@@ -19825,7 +19884,7 @@
         <v>5417</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>533</v>
       </c>
@@ -19836,7 +19895,7 @@
         <v>11523</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>535</v>
       </c>
@@ -19847,7 +19906,7 @@
         <v>17491</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>537</v>
       </c>
@@ -19858,7 +19917,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>539</v>
       </c>
@@ -19869,7 +19928,7 @@
         <v>12072</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>541</v>
       </c>
@@ -19880,7 +19939,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>543</v>
       </c>
@@ -19891,7 +19950,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>545</v>
       </c>
@@ -19902,7 +19961,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>547</v>
       </c>
@@ -19913,7 +19972,7 @@
         <v>11324</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>549</v>
       </c>
@@ -19924,7 +19983,7 @@
         <v>3539</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>551</v>
       </c>
@@ -19935,7 +19994,7 @@
         <v>4775</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>553</v>
       </c>
@@ -19946,7 +20005,7 @@
         <v>3881</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>555</v>
       </c>
@@ -19957,7 +20016,7 @@
         <v>3862</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>557</v>
       </c>
@@ -19968,7 +20027,7 @@
         <v>5125</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>559</v>
       </c>
@@ -19979,7 +20038,7 @@
         <v>5491</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>561</v>
       </c>
@@ -19990,7 +20049,7 @@
         <v>10506</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>563</v>
       </c>
@@ -20001,7 +20060,7 @@
         <v>11675</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>565</v>
       </c>
@@ -20012,7 +20071,7 @@
         <v>10352</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>567</v>
       </c>
@@ -20023,7 +20082,7 @@
         <v>8071</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>569</v>
       </c>
@@ -20034,7 +20093,7 @@
         <v>3739</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>571</v>
       </c>
@@ -20045,7 +20104,7 @@
         <v>14491</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>573</v>
       </c>
@@ -20056,7 +20115,7 @@
         <v>13999</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>575</v>
       </c>
@@ -20067,7 +20126,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>577</v>
       </c>
@@ -20078,7 +20137,7 @@
         <v>10808</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>579</v>
       </c>
@@ -20089,7 +20148,7 @@
         <v>67427</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>581</v>
       </c>
@@ -20100,7 +20159,7 @@
         <v>267597</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>583</v>
       </c>
@@ -20111,7 +20170,7 @@
         <v>35528</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>585</v>
       </c>
@@ -20122,7 +20181,7 @@
         <v>14072</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>587</v>
       </c>
@@ -20133,7 +20192,7 @@
         <v>10276</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>589</v>
       </c>
@@ -20144,7 +20203,7 @@
         <v>4256</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>591</v>
       </c>
@@ -20155,7 +20214,7 @@
         <v>14299</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>593</v>
       </c>
@@ -20166,7 +20225,7 @@
         <v>34899</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>595</v>
       </c>
@@ -20177,7 +20236,7 @@
         <v>25253</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>597</v>
       </c>
@@ -20188,7 +20247,7 @@
         <v>38361</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>599</v>
       </c>
@@ -20199,7 +20258,7 @@
         <v>32361</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>601</v>
       </c>
@@ -20210,7 +20269,7 @@
         <v>37764</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>603</v>
       </c>
@@ -20221,7 +20280,7 @@
         <v>68959</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>605</v>
       </c>
@@ -20232,7 +20291,7 @@
         <v>26026</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>607</v>
       </c>
@@ -20243,7 +20302,7 @@
         <v>137534</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>609</v>
       </c>
@@ -20254,7 +20313,7 @@
         <v>50032</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>611</v>
       </c>
@@ -20265,7 +20324,7 @@
         <v>40127</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>613</v>
       </c>
@@ -20276,7 +20335,7 @@
         <v>21738</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>615</v>
       </c>
@@ -20287,7 +20346,7 @@
         <v>5902</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>617</v>
       </c>
@@ -20298,7 +20357,7 @@
         <v>21968</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>619</v>
       </c>
@@ -20309,7 +20368,7 @@
         <v>26079</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>621</v>
       </c>
@@ -20320,7 +20379,7 @@
         <v>9645</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
         <v>623</v>
       </c>
@@ -20331,7 +20390,7 @@
         <v>6712</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B206" t="s">
         <v>625</v>
       </c>
@@ -20342,7 +20401,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>627</v>
       </c>
@@ -20353,7 +20412,7 @@
         <v>9213</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>629</v>
       </c>
@@ -20364,7 +20423,7 @@
         <v>15041</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>631</v>
       </c>
@@ -20375,7 +20434,7 @@
         <v>11419</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B210" t="s">
         <v>633</v>
       </c>
@@ -20386,7 +20445,7 @@
         <v>4252</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>635</v>
       </c>
@@ -20397,7 +20456,7 @@
         <v>4806</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>637</v>
       </c>
@@ -20408,7 +20467,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B213" t="s">
         <v>639</v>
       </c>
@@ -20419,7 +20478,7 @@
         <v>7431</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B214" t="s">
         <v>641</v>
       </c>
@@ -20430,7 +20489,7 @@
         <v>17274</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B215" t="s">
         <v>643</v>
       </c>
@@ -20441,7 +20500,7 @@
         <v>10328</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B216" t="s">
         <v>645</v>
       </c>
@@ -20452,7 +20511,7 @@
         <v>43172</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B217" t="s">
         <v>647</v>
       </c>
@@ -20463,7 +20522,7 @@
         <v>36144</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B218" t="s">
         <v>649</v>
       </c>
@@ -20474,7 +20533,7 @@
         <v>4994</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B219" t="s">
         <v>651</v>
       </c>
@@ -20485,7 +20544,7 @@
         <v>8110</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B220" t="s">
         <v>653</v>
       </c>
@@ -20496,7 +20555,7 @@
         <v>5774</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B221" t="s">
         <v>655</v>
       </c>
@@ -20507,7 +20566,7 @@
         <v>8080</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B222" t="s">
         <v>657</v>
       </c>
@@ -20518,7 +20577,7 @@
         <v>10355</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B223" t="s">
         <v>659</v>
       </c>
@@ -20529,7 +20588,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B224" t="s">
         <v>661</v>
       </c>
@@ -20540,7 +20599,7 @@
         <v>3179</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B225" t="s">
         <v>663</v>
       </c>
@@ -20551,7 +20610,7 @@
         <v>13946</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B226" t="s">
         <v>665</v>
       </c>
@@ -20562,7 +20621,7 @@
         <v>30899</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B227" t="s">
         <v>667</v>
       </c>
@@ -20573,7 +20632,7 @@
         <v>22672</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B228" t="s">
         <v>669</v>
       </c>
@@ -20584,7 +20643,7 @@
         <v>34308</v>
       </c>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B229" t="s">
         <v>671</v>
       </c>
@@ -20595,7 +20654,7 @@
         <v>19639</v>
       </c>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B230" t="s">
         <v>673</v>
       </c>
@@ -20606,7 +20665,7 @@
         <v>10510</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B231" t="s">
         <v>675</v>
       </c>
@@ -20617,7 +20676,7 @@
         <v>12012</v>
       </c>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B232" t="s">
         <v>677</v>
       </c>
@@ -20628,7 +20687,7 @@
         <v>35390</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B233" t="s">
         <v>679</v>
       </c>
@@ -20639,7 +20698,7 @@
         <v>9839</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B234" t="s">
         <v>681</v>
       </c>
@@ -20650,7 +20709,7 @@
         <v>34461</v>
       </c>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B235" t="s">
         <v>683</v>
       </c>
@@ -20661,7 +20720,7 @@
         <v>32490</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B236" t="s">
         <v>685</v>
       </c>
@@ -20672,7 +20731,7 @@
         <v>35271</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B237" t="s">
         <v>101</v>
       </c>
@@ -20683,7 +20742,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B238" t="s">
         <v>688</v>
       </c>
@@ -20694,7 +20753,7 @@
         <v>24834</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B239" t="s">
         <v>690</v>
       </c>
@@ -20705,7 +20764,7 @@
         <v>42935</v>
       </c>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B240" t="s">
         <v>692</v>
       </c>
@@ -20716,7 +20775,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B241" t="s">
         <v>694</v>
       </c>
@@ -20727,7 +20786,7 @@
         <v>63516</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B242" t="s">
         <v>696</v>
       </c>
@@ -20738,7 +20797,7 @@
         <v>151763</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B243" t="s">
         <v>698</v>
       </c>
@@ -20749,7 +20808,7 @@
         <v>13437</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B244" t="s">
         <v>700</v>
       </c>
@@ -20760,7 +20819,7 @@
         <v>41588</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B245" t="s">
         <v>702</v>
       </c>
@@ -20771,7 +20830,7 @@
         <v>28299</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B246" t="s">
         <v>704</v>
       </c>
@@ -20782,7 +20841,7 @@
         <v>35923</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B247" t="s">
         <v>706</v>
       </c>
@@ -20793,7 +20852,7 @@
         <v>13989</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B248" t="s">
         <v>708</v>
       </c>
@@ -20804,7 +20863,7 @@
         <v>10059</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B249" t="s">
         <v>710</v>
       </c>
@@ -20815,7 +20874,7 @@
         <v>18967</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B250" t="s">
         <v>712</v>
       </c>
@@ -20826,7 +20885,7 @@
         <v>26996</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B251" t="s">
         <v>714</v>
       </c>
@@ -20837,7 +20896,7 @@
         <v>47738</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B252" t="s">
         <v>716</v>
       </c>
@@ -20848,7 +20907,7 @@
         <v>33801</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B253" t="s">
         <v>718</v>
       </c>
@@ -20859,7 +20918,7 @@
         <v>20987</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B254" t="s">
         <v>720</v>
       </c>
@@ -20870,7 +20929,7 @@
         <v>17027</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B255" t="s">
         <v>722</v>
       </c>
@@ -20881,7 +20940,7 @@
         <v>55533</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B256" t="s">
         <v>724</v>
       </c>
@@ -20892,7 +20951,7 @@
         <v>7797</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B257" t="s">
         <v>726</v>
       </c>
@@ -20903,7 +20962,7 @@
         <v>13469</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B258" t="s">
         <v>728</v>
       </c>
@@ -20914,7 +20973,7 @@
         <v>7913</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B259" t="s">
         <v>730</v>
       </c>
@@ -20925,7 +20984,7 @@
         <v>9793</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B260" t="s">
         <v>732</v>
       </c>
@@ -20936,7 +20995,7 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B261" t="s">
         <v>734</v>
       </c>
@@ -20947,7 +21006,7 @@
         <v>10139</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B262" t="s">
         <v>736</v>
       </c>
@@ -20958,7 +21017,7 @@
         <v>11575</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B263" t="s">
         <v>738</v>
       </c>
@@ -20969,7 +21028,7 @@
         <v>7059</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B264" t="s">
         <v>740</v>
       </c>
@@ -20980,7 +21039,7 @@
         <v>6202</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B265" t="s">
         <v>742</v>
       </c>
@@ -20991,7 +21050,7 @@
         <v>44437</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B266" t="s">
         <v>744</v>
       </c>
@@ -21002,7 +21061,7 @@
         <v>29952</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B267" t="s">
         <v>746</v>
       </c>
@@ -21013,7 +21072,7 @@
         <v>59159</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B268" t="s">
         <v>748</v>
       </c>
@@ -21024,7 +21083,7 @@
         <v>20873</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B269" t="s">
         <v>750</v>
       </c>
@@ -21035,7 +21094,7 @@
         <v>6152</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B270" t="s">
         <v>752</v>
       </c>
@@ -21046,7 +21105,7 @@
         <v>11383</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B271" t="s">
         <v>754</v>
       </c>
@@ -21057,7 +21116,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B272" t="s">
         <v>756</v>
       </c>
@@ -21068,7 +21127,7 @@
         <v>78433</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B273" t="s">
         <v>758</v>
       </c>
@@ -21079,7 +21138,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B274" t="s">
         <v>760</v>
       </c>
@@ -21090,7 +21149,7 @@
         <v>457760</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B275" t="s">
         <v>762</v>
       </c>
@@ -21101,7 +21160,7 @@
         <v>13419</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B276" t="s">
         <v>764</v>
       </c>
@@ -21112,7 +21171,7 @@
         <v>9115</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B277" t="s">
         <v>766</v>
       </c>
@@ -21123,7 +21182,7 @@
         <v>20551</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B278" t="s">
         <v>768</v>
       </c>
@@ -21134,7 +21193,7 @@
         <v>49895</v>
       </c>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B279" t="s">
         <v>770</v>
       </c>
@@ -21145,7 +21204,7 @@
         <v>7020</v>
       </c>
     </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B280" t="s">
         <v>772</v>
       </c>
@@ -21156,7 +21215,7 @@
         <v>6964</v>
       </c>
     </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B281" t="s">
         <v>774</v>
       </c>
@@ -21167,7 +21226,7 @@
         <v>31879</v>
       </c>
     </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B282" t="s">
         <v>776</v>
       </c>
@@ -21178,7 +21237,7 @@
         <v>117887</v>
       </c>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B283" t="s">
         <v>778</v>
       </c>
@@ -21189,7 +21248,7 @@
         <v>85442</v>
       </c>
     </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B284" t="s">
         <v>780</v>
       </c>
@@ -21200,7 +21259,7 @@
         <v>14641</v>
       </c>
     </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B285" t="s">
         <v>782</v>
       </c>
@@ -21211,7 +21270,7 @@
         <v>14749</v>
       </c>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B286" t="s">
         <v>784</v>
       </c>
@@ -21222,7 +21281,7 @@
         <v>208145</v>
       </c>
     </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B287" t="s">
         <v>786</v>
       </c>
@@ -21233,7 +21292,7 @@
         <v>15995</v>
       </c>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B288" t="s">
         <v>788</v>
       </c>
@@ -21244,7 +21303,7 @@
         <v>30712</v>
       </c>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B289" t="s">
         <v>790</v>
       </c>
@@ -21255,7 +21314,7 @@
         <v>19911</v>
       </c>
     </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B290" t="s">
         <v>792</v>
       </c>
@@ -21266,7 +21325,7 @@
         <v>15067</v>
       </c>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B291" t="s">
         <v>794</v>
       </c>
@@ -21277,7 +21336,7 @@
         <v>27773</v>
       </c>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B292" t="s">
         <v>796</v>
       </c>
@@ -21288,7 +21347,7 @@
         <v>12847</v>
       </c>
     </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B293" t="s">
         <v>798</v>
       </c>
@@ -21299,7 +21358,7 @@
         <v>38140</v>
       </c>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B294" t="s">
         <v>800</v>
       </c>
@@ -21310,7 +21369,7 @@
         <v>42475</v>
       </c>
     </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B295" t="s">
         <v>802</v>
       </c>
@@ -21321,7 +21380,7 @@
         <v>5006</v>
       </c>
     </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B296" t="s">
         <v>804</v>
       </c>
@@ -21332,7 +21391,7 @@
         <v>40978</v>
       </c>
     </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B297" t="s">
         <v>806</v>
       </c>
@@ -21343,7 +21402,7 @@
         <v>40444</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B298" t="s">
         <v>808</v>
       </c>
@@ -21354,7 +21413,7 @@
         <v>17753</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B299" t="s">
         <v>810</v>
       </c>
@@ -21365,7 +21424,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B300" t="s">
         <v>812</v>
       </c>
@@ -21376,7 +21435,7 @@
         <v>8354</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B301" t="s">
         <v>814</v>
       </c>
@@ -21387,7 +21446,7 @@
         <v>10613</v>
       </c>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B302" t="s">
         <v>816</v>
       </c>
@@ -21398,7 +21457,7 @@
         <v>11961</v>
       </c>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B303" t="s">
         <v>818</v>
       </c>
@@ -21409,7 +21468,7 @@
         <v>96787</v>
       </c>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B304" t="s">
         <v>820</v>
       </c>
@@ -21420,7 +21479,7 @@
         <v>20488</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B305" t="s">
         <v>822</v>
       </c>
@@ -21431,7 +21490,7 @@
         <v>5369</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B306" t="s">
         <v>824</v>
       </c>
@@ -21442,7 +21501,7 @@
         <v>17928</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B307" t="s">
         <v>826</v>
       </c>
@@ -21453,7 +21512,7 @@
         <v>124484</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B308" t="s">
         <v>828</v>
       </c>
@@ -21464,7 +21523,7 @@
         <v>219053</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B309" t="s">
         <v>830</v>
       </c>
@@ -21475,7 +21534,7 @@
         <v>171121</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B310" t="s">
         <v>832</v>
       </c>
@@ -21486,7 +21545,7 @@
         <v>179070</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B311" t="s">
         <v>834</v>
       </c>
@@ -21497,7 +21556,7 @@
         <v>242634</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B312" t="s">
         <v>836</v>
       </c>
@@ -21508,7 +21567,7 @@
         <v>176440</v>
       </c>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B313" t="s">
         <v>838</v>
       </c>
@@ -21519,7 +21578,7 @@
         <v>148392</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B314" t="s">
         <v>840</v>
       </c>
@@ -21530,7 +21589,7 @@
         <v>146367</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B315" t="s">
         <v>842</v>
       </c>
@@ -21541,7 +21600,7 @@
         <v>322061</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B316" t="s">
         <v>844</v>
       </c>
@@ -21552,7 +21611,7 @@
         <v>83011</v>
       </c>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B317" t="s">
         <v>846</v>
       </c>
@@ -21563,7 +21622,7 @@
         <v>38123</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B318" t="s">
         <v>848</v>
       </c>
@@ -21574,7 +21633,7 @@
         <v>279078</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B319" t="s">
         <v>850</v>
       </c>
@@ -21585,7 +21644,7 @@
         <v>227964</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B320" t="s">
         <v>852</v>
       </c>
@@ -21596,7 +21655,7 @@
         <v>230215</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B321" t="s">
         <v>854</v>
       </c>
@@ -21607,7 +21666,7 @@
         <v>140227</v>
       </c>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B322" t="s">
         <v>856</v>
       </c>
@@ -21618,7 +21677,7 @@
         <v>101522</v>
       </c>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B323" t="s">
         <v>858</v>
       </c>
@@ -21629,7 +21688,7 @@
         <v>92474</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B324" t="s">
         <v>860</v>
       </c>
@@ -21640,7 +21699,7 @@
         <v>137915</v>
       </c>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B325" t="s">
         <v>862</v>
       </c>
@@ -21651,7 +21710,7 @@
         <v>229646</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B326" t="s">
         <v>864</v>
       </c>
@@ -21662,7 +21721,7 @@
         <v>57722</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B327" t="s">
         <v>866</v>
       </c>
@@ -21673,7 +21732,7 @@
         <v>35581</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B328" t="s">
         <v>868</v>
       </c>
@@ -21684,7 +21743,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B329" t="s">
         <v>870</v>
       </c>
@@ -21695,7 +21754,7 @@
         <v>68922</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B330" t="s">
         <v>872</v>
       </c>
@@ -21706,7 +21765,7 @@
         <v>211318</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B331" t="s">
         <v>874</v>
       </c>
@@ -21717,7 +21776,7 @@
         <v>82025</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B332" t="s">
         <v>876</v>
       </c>
@@ -21728,7 +21787,7 @@
         <v>47194</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B333" t="s">
         <v>878</v>
       </c>
@@ -21739,7 +21798,7 @@
         <v>332550</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B334" t="s">
         <v>880</v>
       </c>
@@ -21750,7 +21809,7 @@
         <v>65769</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B335" t="s">
         <v>882</v>
       </c>
@@ -21761,7 +21820,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B336" t="s">
         <v>884</v>
       </c>
@@ -21772,7 +21831,7 @@
         <v>137453</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B337" t="s">
         <v>886</v>
       </c>
@@ -21783,7 +21842,7 @@
         <v>80430</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B338" t="s">
         <v>888</v>
       </c>
@@ -21794,7 +21853,7 @@
         <v>120074</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B339" t="s">
         <v>890</v>
       </c>
@@ -21805,7 +21864,7 @@
         <v>27110</v>
       </c>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B340" t="s">
         <v>892</v>
       </c>
@@ -21816,7 +21875,7 @@
         <v>29340</v>
       </c>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B341" t="s">
         <v>894</v>
       </c>
@@ -21827,7 +21886,7 @@
         <v>38375</v>
       </c>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B342" t="s">
         <v>896</v>
       </c>
@@ -21838,7 +21897,7 @@
         <v>14438</v>
       </c>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B343" t="s">
         <v>898</v>
       </c>
@@ -21849,7 +21908,7 @@
         <v>212383</v>
       </c>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B344" t="s">
         <v>900</v>
       </c>
@@ -21860,7 +21919,7 @@
         <v>126697</v>
       </c>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B345" t="s">
         <v>902</v>
       </c>
@@ -21871,7 +21930,7 @@
         <v>16643</v>
       </c>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B346" t="s">
         <v>904</v>
       </c>
@@ -21882,7 +21941,7 @@
         <v>83920</v>
       </c>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B347" t="s">
         <v>906</v>
       </c>
@@ -21893,7 +21952,7 @@
         <v>97373</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B348" t="s">
         <v>908</v>
       </c>
@@ -21904,7 +21963,7 @@
         <v>334092</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B349" t="s">
         <v>910</v>
       </c>
@@ -21915,7 +21974,7 @@
         <v>261627</v>
       </c>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B350" t="s">
         <v>912</v>
       </c>
@@ -21926,7 +21985,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B351" t="s">
         <v>914</v>
       </c>
@@ -21937,7 +21996,7 @@
         <v>148620</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B352" t="s">
         <v>916</v>
       </c>
@@ -21948,7 +22007,7 @@
         <v>132937</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B353" t="s">
         <v>918</v>
       </c>
@@ -21959,7 +22018,7 @@
         <v>9245</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B354" t="s">
         <v>920</v>
       </c>
@@ -21970,7 +22029,7 @@
         <v>296293</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B355" t="s">
         <v>922</v>
       </c>
@@ -21981,7 +22040,7 @@
         <v>520425</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B356" t="s">
         <v>924</v>
       </c>
@@ -21992,7 +22051,7 @@
         <v>349439</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B357" t="s">
         <v>926</v>
       </c>
@@ -22003,7 +22062,7 @@
         <v>218793</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B358" t="s">
         <v>928</v>
       </c>
@@ -22014,7 +22073,7 @@
         <v>88034</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B359" t="s">
         <v>930</v>
       </c>
@@ -22025,7 +22084,7 @@
         <v>586732</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B360" t="s">
         <v>932</v>
       </c>
@@ -22036,7 +22095,7 @@
         <v>344723</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B361" t="s">
         <v>934</v>
       </c>
@@ -22047,7 +22106,7 @@
         <v>163544</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B362" t="s">
         <v>936</v>
       </c>
@@ -22058,7 +22117,7 @@
         <v>1416584</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B363" t="s">
         <v>938</v>
       </c>
@@ -22069,7 +22128,7 @@
         <v>530391</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B364" t="s">
         <v>940</v>
       </c>
@@ -22080,7 +22139,7 @@
         <v>1123901</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B365" t="s">
         <v>942</v>
       </c>
@@ -22091,7 +22150,7 @@
         <v>61256</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B366" t="s">
         <v>944</v>
       </c>
@@ -22102,7 +22161,7 @@
         <v>77621</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B367" t="s">
         <v>946</v>
       </c>
@@ -22113,7 +22172,7 @@
         <v>29242</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B368" t="s">
         <v>948</v>
       </c>
@@ -22124,7 +22183,7 @@
         <v>161188</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B369" t="s">
         <v>950</v>
       </c>
@@ -22135,7 +22194,7 @@
         <v>331383</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B370" t="s">
         <v>952</v>
       </c>
@@ -22146,7 +22205,7 @@
         <v>155017</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B371" t="s">
         <v>954</v>
       </c>
@@ -22157,7 +22216,7 @@
         <v>163308</v>
       </c>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B372" t="s">
         <v>956</v>
       </c>
@@ -22168,7 +22227,7 @@
         <v>63364</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B373" t="s">
         <v>958</v>
       </c>
@@ -22179,7 +22238,7 @@
         <v>193482</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B374" t="s">
         <v>960</v>
       </c>
@@ -22190,7 +22249,7 @@
         <v>311584</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B375" t="s">
         <v>962</v>
       </c>
@@ -22201,7 +22260,7 @@
         <v>232966</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B376" t="s">
         <v>964</v>
       </c>
@@ -22212,7 +22271,7 @@
         <v>49844</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B377" t="s">
         <v>966</v>
       </c>
@@ -22223,7 +22282,7 @@
         <v>202086</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B378" t="s">
         <v>968</v>
       </c>
@@ -22234,7 +22293,7 @@
         <v>125875</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B379" t="s">
         <v>970</v>
       </c>
@@ -22245,7 +22304,7 @@
         <v>33044</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B380" t="s">
         <v>972</v>
       </c>
@@ -22256,7 +22315,7 @@
         <v>11848</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B381" t="s">
         <v>974</v>
       </c>
@@ -22267,7 +22326,7 @@
         <v>36577</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B382" t="s">
         <v>976</v>
       </c>
@@ -22278,7 +22337,7 @@
         <v>88795</v>
       </c>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B383" t="s">
         <v>978</v>
       </c>
@@ -22289,7 +22348,7 @@
         <v>561730</v>
       </c>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B384" t="s">
         <v>980</v>
       </c>
@@ -22300,7 +22359,7 @@
         <v>330772</v>
       </c>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B385" t="s">
         <v>982</v>
       </c>
@@ -22311,7 +22370,7 @@
         <v>171767</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B386" t="s">
         <v>984</v>
       </c>
@@ -22322,7 +22381,7 @@
         <v>56592</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B387" t="s">
         <v>986</v>
       </c>
@@ -22333,7 +22392,7 @@
         <v>28243</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B388" t="s">
         <v>988</v>
       </c>
@@ -22344,7 +22403,7 @@
         <v>71905</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B389" t="s">
         <v>990</v>
       </c>
@@ -22355,7 +22414,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B390" t="s">
         <v>992</v>
       </c>
@@ -22366,7 +22425,7 @@
         <v>56610</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B391" t="s">
         <v>994</v>
       </c>
@@ -22377,7 +22436,7 @@
         <v>47162</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B392" t="s">
         <v>996</v>
       </c>
@@ -22388,7 +22447,7 @@
         <v>89811</v>
       </c>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B393" t="s">
         <v>998</v>
       </c>
@@ -22399,7 +22458,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B394" t="s">
         <v>1000</v>
       </c>
@@ -22410,7 +22469,7 @@
         <v>225344</v>
       </c>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B395" t="s">
         <v>1002</v>
       </c>
@@ -22421,7 +22480,7 @@
         <v>72133</v>
       </c>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B396" t="s">
         <v>1004</v>
       </c>
@@ -22432,7 +22491,7 @@
         <v>465471</v>
       </c>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B397" t="s">
         <v>1006</v>
       </c>
@@ -22443,7 +22502,7 @@
         <v>116720</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B398" t="s">
         <v>1008</v>
       </c>
@@ -22454,7 +22513,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B399" t="s">
         <v>1010</v>
       </c>
@@ -22465,7 +22524,7 @@
         <v>110970</v>
       </c>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B400" t="s">
         <v>1012</v>
       </c>
@@ -22476,7 +22535,7 @@
         <v>53964</v>
       </c>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B401" t="s">
         <v>1014</v>
       </c>
@@ -22487,7 +22546,7 @@
         <v>75155</v>
       </c>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B402" t="s">
         <v>1016</v>
       </c>
@@ -22498,7 +22557,7 @@
         <v>35396</v>
       </c>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B403" t="s">
         <v>1018</v>
       </c>
@@ -22509,7 +22568,7 @@
         <v>813054</v>
       </c>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B404" t="s">
         <v>1020</v>
       </c>
@@ -22520,7 +22579,7 @@
         <v>184319</v>
       </c>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B405" t="s">
         <v>1022</v>
       </c>
@@ -22531,7 +22590,7 @@
         <v>46401</v>
       </c>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B406" t="s">
         <v>1024</v>
       </c>
@@ -22542,7 +22601,7 @@
         <v>93433</v>
       </c>
     </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B407" t="s">
         <v>1026</v>
       </c>
@@ -22553,7 +22612,7 @@
         <v>48681</v>
       </c>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B408" t="s">
         <v>1028</v>
       </c>
@@ -22564,7 +22623,7 @@
         <v>45458</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B409" t="s">
         <v>1030</v>
       </c>
@@ -22575,7 +22634,7 @@
         <v>22884</v>
       </c>
     </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B410" t="s">
         <v>1032</v>
       </c>
@@ -22586,7 +22645,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B411" t="s">
         <v>1034</v>
       </c>
@@ -22597,7 +22656,7 @@
         <v>41997</v>
       </c>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B412" t="s">
         <v>1036</v>
       </c>
@@ -22608,7 +22667,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B413" t="s">
         <v>1038</v>
       </c>
@@ -22619,7 +22678,7 @@
         <v>14730</v>
       </c>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B414" t="s">
         <v>1040</v>
       </c>
@@ -22630,7 +22689,7 @@
         <v>18301</v>
       </c>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B415" t="s">
         <v>1042</v>
       </c>
@@ -22641,7 +22700,7 @@
         <v>35926</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B416" t="s">
         <v>1044</v>
       </c>
@@ -22652,7 +22711,7 @@
         <v>81758</v>
       </c>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B417" t="s">
         <v>1046</v>
       </c>
@@ -22663,7 +22722,7 @@
         <v>258628</v>
       </c>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B418" t="s">
         <v>1048</v>
       </c>
@@ -22674,7 +22733,7 @@
         <v>336211</v>
       </c>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B419" t="s">
         <v>1050</v>
       </c>
@@ -22685,7 +22744,7 @@
         <v>303694</v>
       </c>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B420" t="s">
         <v>1052</v>
       </c>
@@ -22696,7 +22755,7 @@
         <v>98573</v>
       </c>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B421" t="s">
         <v>1054</v>
       </c>
@@ -22707,7 +22766,7 @@
         <v>120747</v>
       </c>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B422" t="s">
         <v>1056</v>
       </c>
@@ -22718,7 +22777,7 @@
         <v>22166</v>
       </c>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B423" t="s">
         <v>1058</v>
       </c>
@@ -22729,7 +22788,7 @@
         <v>37604</v>
       </c>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B424" t="s">
         <v>1060</v>
       </c>
@@ -22740,7 +22799,7 @@
         <v>22329</v>
       </c>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B425" t="s">
         <v>1062</v>
       </c>
@@ -22751,7 +22810,7 @@
         <v>80111</v>
       </c>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B426" t="s">
         <v>1064</v>
       </c>
@@ -22762,7 +22821,7 @@
         <v>20088</v>
       </c>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B427" t="s">
         <v>1066</v>
       </c>
@@ -22773,7 +22832,7 @@
         <v>28962</v>
       </c>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B428" t="s">
         <v>1068</v>
       </c>
@@ -22784,7 +22843,7 @@
         <v>62899</v>
       </c>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B429" t="s">
         <v>1070</v>
       </c>
@@ -22795,7 +22854,7 @@
         <v>93020</v>
       </c>
     </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B430" t="s">
         <v>1072</v>
       </c>
@@ -22806,7 +22865,7 @@
         <v>57520</v>
       </c>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B431" t="s">
         <v>1074</v>
       </c>
@@ -22817,7 +22876,7 @@
         <v>75682</v>
       </c>
     </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B432" t="s">
         <v>1076</v>
       </c>
@@ -22828,7 +22887,7 @@
         <v>21314</v>
       </c>
     </row>
-    <row r="433" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B433" t="s">
         <v>1078</v>
       </c>
@@ -22839,7 +22898,7 @@
         <v>613306</v>
       </c>
     </row>
-    <row r="434" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B434" t="s">
         <v>1080</v>
       </c>
@@ -22850,7 +22909,7 @@
         <v>390322</v>
       </c>
     </row>
-    <row r="435" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B435" t="s">
         <v>1082</v>
       </c>
@@ -22861,7 +22920,7 @@
         <v>62768</v>
       </c>
     </row>
-    <row r="436" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B436" t="s">
         <v>1084</v>
       </c>
@@ -22872,7 +22931,7 @@
         <v>13843</v>
       </c>
     </row>
-    <row r="437" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B437" t="s">
         <v>1086</v>
       </c>
@@ -22883,7 +22942,7 @@
         <v>17451</v>
       </c>
     </row>
-    <row r="438" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B438" t="s">
         <v>1088</v>
       </c>
@@ -22894,7 +22953,7 @@
         <v>974593</v>
       </c>
     </row>
-    <row r="439" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B439" t="s">
         <v>1090</v>
       </c>
@@ -22905,7 +22964,7 @@
         <v>286138</v>
       </c>
     </row>
-    <row r="440" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B440" t="s">
         <v>1092</v>
       </c>
@@ -22916,7 +22975,7 @@
         <v>879668</v>
       </c>
     </row>
-    <row r="441" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B441" t="s">
         <v>1094</v>
       </c>
@@ -22927,7 +22986,7 @@
         <v>16399</v>
       </c>
     </row>
-    <row r="442" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B442" t="s">
         <v>1096</v>
       </c>
@@ -22938,7 +22997,7 @@
         <v>62898</v>
       </c>
     </row>
-    <row r="443" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B443" t="s">
         <v>1098</v>
       </c>
@@ -22965,43 +23024,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CDC51E-E505-4236-84C2-F185FBAFFCE4}">
   <dimension ref="A1:Z123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I23" sqref="A19:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="9" width="20.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" customWidth="1"/>
-    <col min="14" max="15" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="48.26953125" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="40.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="9" width="20.81640625" customWidth="1"/>
+    <col min="10" max="10" width="19.81640625" customWidth="1"/>
+    <col min="11" max="11" width="23.453125" customWidth="1"/>
+    <col min="12" max="12" width="22.453125" customWidth="1"/>
+    <col min="13" max="13" width="20.26953125" customWidth="1"/>
+    <col min="14" max="15" width="18.453125" customWidth="1"/>
     <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" customWidth="1"/>
-    <col min="25" max="25" width="30.140625" customWidth="1"/>
-    <col min="26" max="26" width="24.5703125" customWidth="1"/>
+    <col min="17" max="17" width="20.81640625" customWidth="1"/>
+    <col min="18" max="18" width="19.1796875" customWidth="1"/>
+    <col min="19" max="19" width="16.54296875" customWidth="1"/>
+    <col min="25" max="25" width="30.1796875" customWidth="1"/>
+    <col min="26" max="26" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="28" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="28" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="24" t="s">
         <v>130</v>
       </c>
@@ -23060,7 +23119,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>106</v>
       </c>
@@ -23093,7 +23152,7 @@
       <c r="O4" s="29"/>
       <c r="S4" s="29"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>108</v>
       </c>
@@ -23147,7 +23206,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>1144</v>
       </c>
@@ -23207,7 +23266,7 @@
       </c>
       <c r="S6" s="29"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>155</v>
       </c>
@@ -23267,7 +23326,7 @@
       </c>
       <c r="S7" s="29"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>114</v>
       </c>
@@ -23299,7 +23358,7 @@
         <v>513760000000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>116</v>
       </c>
@@ -23375,7 +23434,7 @@
         <v>299232000000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
         <v>118</v>
       </c>
@@ -23448,7 +23507,7 @@
         <v>77628000000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
         <v>157</v>
       </c>
@@ -23521,7 +23580,7 @@
         <v>59011000000</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
         <v>119</v>
       </c>
@@ -23594,7 +23653,7 @@
         <v>162593000000</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>1145</v>
       </c>
@@ -23617,27 +23676,27 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -23645,7 +23704,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -23653,7 +23712,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F25" s="1" t="s">
         <v>163</v>
       </c>
@@ -23661,7 +23720,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>164</v>
       </c>
@@ -23725,7 +23784,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>206</v>
       </c>
@@ -23789,7 +23848,7 @@
       <c r="Y27" s="82"/>
       <c r="Z27" s="83"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>209</v>
       </c>
@@ -23857,7 +23916,7 @@
         <v>64615.98526307274</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>231</v>
       </c>
@@ -23925,7 +23984,7 @@
         <v>26221.561705366206</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>235</v>
       </c>
@@ -23993,7 +24052,7 @@
         <v>23404.888504693812</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>238</v>
       </c>
@@ -24061,7 +24120,7 @@
         <v>14989.535053012718</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>241</v>
       </c>
@@ -24123,7 +24182,7 @@
         <v>1330197200.5822122</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>244</v>
       </c>
@@ -24185,7 +24244,7 @@
         <v>90197184581.595901</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -24253,7 +24312,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>250</v>
       </c>
@@ -24317,7 +24376,7 @@
       <c r="Y35" s="92"/>
       <c r="Z35" s="93"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>253</v>
       </c>
@@ -24385,7 +24444,7 @@
         <v>42130.370628106539</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>256</v>
       </c>
@@ -24453,7 +24512,7 @@
         <v>24286.8397775126</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>259</v>
       </c>
@@ -24515,7 +24574,7 @@
         <v>45403570467.573082</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>262</v>
       </c>
@@ -24583,7 +24642,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>266</v>
       </c>
@@ -24645,7 +24704,7 @@
         <v>3838756751.794064</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>318</v>
       </c>
@@ -24707,7 +24766,7 @@
         <v>4648883646.6712751</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>322</v>
       </c>
@@ -24769,7 +24828,7 @@
         <v>4648883646.6712751</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>326</v>
       </c>
@@ -24831,7 +24890,7 @@
         <v>2639398697.6808629</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>353</v>
       </c>
@@ -24893,7 +24952,7 @@
         <v>2639398697.6808629</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>356</v>
       </c>
@@ -24955,7 +25014,7 @@
         <v>45352958262.653008</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>360</v>
       </c>
@@ -25017,7 +25076,7 @@
         <v>45352958262.653008</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>363</v>
       </c>
@@ -25079,7 +25138,7 @@
         <v>38574170439.051224</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>379</v>
       </c>
@@ -25141,7 +25200,7 @@
         <v>38574170439.051224</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>382</v>
       </c>
@@ -25203,7 +25262,7 @@
         <v>9407774517.1374779</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>385</v>
       </c>
@@ -25265,7 +25324,7 @@
         <v>9407774517.1374779</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>768</v>
       </c>
@@ -25324,7 +25383,7 @@
         <v>19668802302.367107</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>770</v>
       </c>
@@ -25383,7 +25442,7 @@
         <v>19668802302.367107</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>772</v>
       </c>
@@ -25442,7 +25501,7 @@
         <v>11188230191.06576</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>774</v>
       </c>
@@ -25501,7 +25560,7 @@
         <v>11188230191.06576</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>776</v>
       </c>
@@ -25560,7 +25619,7 @@
         <v>1419690246.5770686</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>778</v>
       </c>
@@ -25619,7 +25678,7 @@
         <v>1419690246.5770686</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>780</v>
       </c>
@@ -25678,7 +25737,7 @@
         <v>215800308287.05658</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>782</v>
       </c>
@@ -25737,7 +25796,7 @@
         <v>215800308287.05658</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>784</v>
       </c>
@@ -25796,7 +25855,7 @@
         <v>932821436807.67065</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>786</v>
       </c>
@@ -25855,7 +25914,7 @@
         <v>932821436807.67065</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>788</v>
       </c>
@@ -25914,7 +25973,7 @@
         <v>737764447912.1272</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>790</v>
       </c>
@@ -25973,7 +26032,7 @@
         <v>737764447912.1272</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>792</v>
       </c>
@@ -26032,7 +26091,7 @@
         <v>131277412986.81966</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>794</v>
       </c>
@@ -26091,7 +26150,7 @@
         <v>131277412986.81966</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>796</v>
       </c>
@@ -26150,7 +26209,7 @@
         <v>50666377336.049744</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>798</v>
       </c>
@@ -26209,7 +26268,7 @@
         <v>50666377336.049744</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>800</v>
       </c>
@@ -26268,7 +26327,7 @@
         <v>932821436807.67065</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>802</v>
       </c>
@@ -26327,7 +26386,7 @@
         <v>932821436807.67065</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>804</v>
       </c>
@@ -26386,7 +26445,7 @@
         <v>95119913392.718628</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="F70" t="s">
         <v>300</v>
       </c>
@@ -26436,7 +26495,7 @@
         <v>95119913392.718628</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="F71" t="s">
         <v>303</v>
       </c>
@@ -26486,7 +26545,7 @@
         <v>95119913392.718628</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="F72" t="s">
         <v>306</v>
       </c>
@@ -26536,7 +26595,7 @@
         <v>95119913392.718628</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="F73" t="s">
         <v>309</v>
       </c>
@@ -26586,7 +26645,7 @@
         <v>40089884664.483231</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="F74" t="s">
         <v>312</v>
       </c>
@@ -26636,7 +26695,7 @@
         <v>40089884664.483231</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="F75" t="s">
         <v>315</v>
       </c>
@@ -26686,7 +26745,7 @@
         <v>40089884664.483231</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="F76" t="s">
         <v>318</v>
       </c>
@@ -26736,7 +26795,7 @@
         <v>40089884664.483231</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="F77" t="s">
         <v>322</v>
       </c>
@@ -26786,7 +26845,7 @@
         <v>182933803571.49994</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="F78" t="s">
         <v>326</v>
       </c>
@@ -26836,7 +26895,7 @@
         <v>182933803571.49994</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
       <c r="F79" t="s">
         <v>329</v>
       </c>
@@ -26886,7 +26945,7 @@
         <v>76161454103.978943</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="F80" t="s">
         <v>332</v>
       </c>
@@ -26936,7 +26995,7 @@
         <v>76161454103.978943</v>
       </c>
     </row>
-    <row r="81" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:22" x14ac:dyDescent="0.35">
       <c r="F81" t="s">
         <v>335</v>
       </c>
@@ -26986,7 +27045,7 @@
         <v>54062533620.386139</v>
       </c>
     </row>
-    <row r="82" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:22" x14ac:dyDescent="0.35">
       <c r="F82" t="s">
         <v>338</v>
       </c>
@@ -27036,7 +27095,7 @@
         <v>54062533620.386139</v>
       </c>
     </row>
-    <row r="83" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:22" x14ac:dyDescent="0.35">
       <c r="F83" t="s">
         <v>341</v>
       </c>
@@ -27086,7 +27145,7 @@
         <v>52516261252.048203</v>
       </c>
     </row>
-    <row r="84" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:22" x14ac:dyDescent="0.35">
       <c r="F84" t="s">
         <v>344</v>
       </c>
@@ -27136,7 +27195,7 @@
         <v>52516261252.048203</v>
       </c>
     </row>
-    <row r="85" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:22" x14ac:dyDescent="0.35">
       <c r="F85" t="s">
         <v>347</v>
       </c>
@@ -27186,7 +27245,7 @@
         <v>7662596390.3496552</v>
       </c>
     </row>
-    <row r="86" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:22" x14ac:dyDescent="0.35">
       <c r="F86" t="s">
         <v>350</v>
       </c>
@@ -27236,7 +27295,7 @@
         <v>7662596390.3496552</v>
       </c>
     </row>
-    <row r="87" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:22" x14ac:dyDescent="0.35">
       <c r="F87" t="s">
         <v>353</v>
       </c>
@@ -27286,7 +27345,7 @@
         <v>7662596390.3496552</v>
       </c>
     </row>
-    <row r="88" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:22" x14ac:dyDescent="0.35">
       <c r="F88" t="s">
         <v>356</v>
       </c>
@@ -27336,7 +27395,7 @@
         <v>7662596390.3496552</v>
       </c>
     </row>
-    <row r="89" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:22" x14ac:dyDescent="0.35">
       <c r="F89" t="s">
         <v>360</v>
       </c>
@@ -27386,7 +27445,7 @@
         <v>326306278101.98083</v>
       </c>
     </row>
-    <row r="90" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:22" x14ac:dyDescent="0.35">
       <c r="F90" t="s">
         <v>363</v>
       </c>
@@ -27436,7 +27495,7 @@
         <v>326306278101.98083</v>
       </c>
     </row>
-    <row r="91" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:22" x14ac:dyDescent="0.35">
       <c r="F91" t="s">
         <v>367</v>
       </c>
@@ -27486,7 +27545,7 @@
         <v>4344881118879.6924</v>
       </c>
     </row>
-    <row r="92" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:22" x14ac:dyDescent="0.35">
       <c r="F92" t="s">
         <v>370</v>
       </c>
@@ -27506,7 +27565,7 @@
         <v>111954</v>
       </c>
     </row>
-    <row r="93" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:22" x14ac:dyDescent="0.35">
       <c r="F93" t="s">
         <v>373</v>
       </c>
@@ -27526,7 +27585,7 @@
         <v>17979</v>
       </c>
     </row>
-    <row r="94" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:22" x14ac:dyDescent="0.35">
       <c r="F94" t="s">
         <v>376</v>
       </c>
@@ -27546,7 +27605,7 @@
         <v>269876</v>
       </c>
     </row>
-    <row r="95" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:22" x14ac:dyDescent="0.35">
       <c r="F95" t="s">
         <v>379</v>
       </c>
@@ -27566,7 +27625,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="96" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:22" x14ac:dyDescent="0.35">
       <c r="F96" t="s">
         <v>382</v>
       </c>
@@ -27586,7 +27645,7 @@
         <v>225272</v>
       </c>
     </row>
-    <row r="97" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F97" t="s">
         <v>385</v>
       </c>
@@ -27606,7 +27665,7 @@
         <v>140714</v>
       </c>
     </row>
-    <row r="98" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F98" t="s">
         <v>388</v>
       </c>
@@ -27626,7 +27685,7 @@
         <v>74709</v>
       </c>
     </row>
-    <row r="99" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F99" t="s">
         <v>391</v>
       </c>
@@ -27646,7 +27705,7 @@
         <v>9849</v>
       </c>
     </row>
-    <row r="100" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F100" t="s">
         <v>394</v>
       </c>
@@ -27666,7 +27725,7 @@
         <v>208314</v>
       </c>
     </row>
-    <row r="101" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F101" t="s">
         <v>397</v>
       </c>
@@ -27686,7 +27745,7 @@
         <v>73075</v>
       </c>
     </row>
-    <row r="102" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F102" t="s">
         <v>400</v>
       </c>
@@ -27706,7 +27765,7 @@
         <v>52602</v>
       </c>
     </row>
-    <row r="103" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F103" t="s">
         <v>403</v>
       </c>
@@ -27726,7 +27785,7 @@
         <v>20473</v>
       </c>
     </row>
-    <row r="104" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F104" t="s">
         <v>406</v>
       </c>
@@ -27746,7 +27805,7 @@
         <v>135239</v>
       </c>
     </row>
-    <row r="105" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F105" t="s">
         <v>409</v>
       </c>
@@ -27766,7 +27825,7 @@
         <v>53331</v>
       </c>
     </row>
-    <row r="106" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F106" t="s">
         <v>412</v>
       </c>
@@ -27786,7 +27845,7 @@
         <v>81908</v>
       </c>
     </row>
-    <row r="107" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F107" t="s">
         <v>415</v>
       </c>
@@ -27806,7 +27865,7 @@
         <v>83782</v>
       </c>
     </row>
-    <row r="108" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F108" t="s">
         <v>418</v>
       </c>
@@ -27826,7 +27885,7 @@
         <v>517651</v>
       </c>
     </row>
-    <row r="109" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F109" t="s">
         <v>421</v>
       </c>
@@ -27846,7 +27905,7 @@
         <v>268250</v>
       </c>
     </row>
-    <row r="110" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F110" t="s">
         <v>424</v>
       </c>
@@ -27866,7 +27925,7 @@
         <v>263735</v>
       </c>
     </row>
-    <row r="111" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F111" t="s">
         <v>428</v>
       </c>
@@ -27886,7 +27945,7 @@
         <v>4515</v>
       </c>
     </row>
-    <row r="112" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F112" t="s">
         <v>431</v>
       </c>
@@ -27906,7 +27965,7 @@
         <v>249400</v>
       </c>
     </row>
-    <row r="113" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F113" t="s">
         <v>434</v>
       </c>
@@ -27926,7 +27985,7 @@
         <v>192044</v>
       </c>
     </row>
-    <row r="114" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F114" t="s">
         <v>437</v>
       </c>
@@ -27946,13 +28005,13 @@
         <v>57356</v>
       </c>
     </row>
-    <row r="115" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:11" x14ac:dyDescent="0.35">
       <c r="G115" t="s">
         <v>442</v>
       </c>
       <c r="H115" s="42"/>
     </row>
-    <row r="116" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F116" t="s">
         <v>440</v>
       </c>
@@ -27963,7 +28022,7 @@
         <v>3268592</v>
       </c>
     </row>
-    <row r="117" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F117" t="s">
         <v>443</v>
       </c>
@@ -27974,9 +28033,9 @@
         <v>12630266</v>
       </c>
     </row>
-    <row r="121" spans="6:11" s="93" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="6:11" s="93" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="6:11" s="93" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="6:11" s="93" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="6:11" s="93" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" spans="6:11" s="93" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{72166BDC-360E-4066-9610-E3722D5AD63A}"/>
@@ -27989,25 +28048,663 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982E398E-C574-44DE-B098-AE0A92B22E2E}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:AQ6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.453125" customWidth="1"/>
+    <col min="2" max="26" width="10.1796875" customWidth="1"/>
+    <col min="27" max="27" width="13.54296875" customWidth="1"/>
+    <col min="28" max="43" width="10.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="50" t="s">
+        <v>1100</v>
+      </c>
+      <c r="P1" s="51" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Q1" s="50" t="s">
+        <v>1102</v>
+      </c>
+      <c r="R1" s="51" t="s">
+        <v>1103</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="50" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AA1" s="54" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AB1" s="51" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B2">
+        <f>'OECD VAL EU'!C35*10^6*About!$A$36</f>
+        <v>53164715422.530861</v>
+      </c>
+      <c r="C2" s="52">
+        <f>'OECD VAL US'!D9*10^6*About!$A$36*('EU Data for ISIC Splits'!D10/SUM('EU Data for ISIC Splits'!D10:E10))</f>
+        <v>30902767751.968121</v>
+      </c>
+      <c r="D2" s="53">
+        <f>'OECD VAL US'!D9*10^6*About!$A$36*('EU Data for ISIC Splits'!E10/SUM('EU Data for ISIC Splits'!D10:E10))</f>
+        <v>11185172707.53479</v>
+      </c>
+      <c r="E2">
+        <f>'OECD VAL EU'!E35*10^6*About!$A$36</f>
+        <v>7828450490.4205198</v>
+      </c>
+      <c r="F2">
+        <f>'OECD VAL EU'!F35*10^6*About!$A$36</f>
+        <v>1049775717.7923944</v>
+      </c>
+      <c r="G2">
+        <f>'OECD VAL EU'!G35*10^6*About!$A$36</f>
+        <v>133320299495.58052</v>
+      </c>
+      <c r="H2">
+        <f>'OECD VAL EU'!H35*10^6*About!$A$36</f>
+        <v>39548386731.12056</v>
+      </c>
+      <c r="I2">
+        <f>'OECD VAL EU'!I35*10^6*About!$A$36</f>
+        <v>22297621936.164917</v>
+      </c>
+      <c r="J2">
+        <f>'OECD VAL EU'!J35*10^6*About!$A$36</f>
+        <v>44476711151.849869</v>
+      </c>
+      <c r="K2">
+        <f>'OECD VAL EU'!K35*10^6*About!$A$36</f>
+        <v>18953717652.910976</v>
+      </c>
+      <c r="L2" s="52">
+        <f>'OECD VAL US'!L9*10^6*About!$A$36*('EU Data for ISIC Splits'!G10/SUM('EU Data for ISIC Splits'!G10:H10))</f>
+        <v>38348469417.289291</v>
+      </c>
+      <c r="M2" s="53">
+        <f>'OECD VAL US'!L9*10^6*About!$A$36*('EU Data for ISIC Splits'!H10/SUM('EU Data for ISIC Splits'!G10:H10))</f>
+        <v>59544488888.638145</v>
+      </c>
+      <c r="N2">
+        <f>'OECD VAL EU'!M35*10^6*About!$A$36</f>
+        <v>56454646705.991539</v>
+      </c>
+      <c r="O2" s="52">
+        <f>'OECD VAL US'!N9*10^6*About!$A$36*('EU Data for ISIC Splits'!J10/SUM('EU Data for ISIC Splits'!J10:K10))</f>
+        <v>6486983095.2897129</v>
+      </c>
+      <c r="P2" s="53">
+        <f>'OECD VAL US'!N9*10^6*About!$A$36*('EU Data for ISIC Splits'!K10/SUM('EU Data for ISIC Splits'!J10:K10))</f>
+        <v>21476713083.718544</v>
+      </c>
+      <c r="Q2" s="52">
+        <f>'OECD VAL US'!O9*10^6*About!$A$36*('EU Data for ISIC Splits'!M10/SUM('EU Data for ISIC Splits'!M10:N10))</f>
+        <v>19369297066.744091</v>
+      </c>
+      <c r="R2" s="53">
+        <f>'OECD VAL US'!O9*10^6*About!$A$36*('EU Data for ISIC Splits'!N10/SUM('EU Data for ISIC Splits'!M10:N10))</f>
+        <v>11165793403.897251</v>
+      </c>
+      <c r="S2">
+        <f>'OECD VAL EU'!P35*10^6*About!$A$36</f>
+        <v>115189611484.28172</v>
+      </c>
+      <c r="T2">
+        <f>'OECD VAL EU'!Q35*10^6*About!$A$36</f>
+        <v>54677388222.06002</v>
+      </c>
+      <c r="U2">
+        <f>'OECD VAL EU'!R35*10^6*About!$A$36</f>
+        <v>61353004962.310722</v>
+      </c>
+      <c r="V2">
+        <f>'OECD VAL EU'!S35*10^6*About!$A$36</f>
+        <v>143027380027.69415</v>
+      </c>
+      <c r="W2">
+        <f>'OECD VAL EU'!T35*10^6*About!$A$36</f>
+        <v>121755853419.62813</v>
+      </c>
+      <c r="X2">
+        <f>'OECD VAL EU'!U35*10^6*About!$A$36</f>
+        <v>33056103633.747795</v>
+      </c>
+      <c r="Y2">
+        <f>'OECD VAL EU'!V35*10^6*About!$A$36</f>
+        <v>115208284758.93289</v>
+      </c>
+      <c r="Z2" s="52">
+        <f>'OECD VAL US'!W9*10^6*About!$A$36*('EU Data for ISIC Splits'!P10/SUM('EU Data for ISIC Splits'!P10:R10))</f>
+        <v>35539280131.495125</v>
+      </c>
+      <c r="AA2" s="55">
+        <f>'OECD VAL US'!W9*10^6*About!$A$36*('EU Data for ISIC Splits'!Q10/SUM('EU Data for ISIC Splits'!P10:R10))</f>
+        <v>9509805144.3849621</v>
+      </c>
+      <c r="AB2" s="53">
+        <f>'OECD VAL US'!W9*10^6*About!$A$36*('EU Data for ISIC Splits'!R10/SUM('EU Data for ISIC Splits'!P10:R10))</f>
+        <v>54600680708.644234</v>
+      </c>
+      <c r="AC2">
+        <f>'OECD VAL EU'!X35*10^6*About!$A$36</f>
+        <v>332717991842.98163</v>
+      </c>
+      <c r="AD2">
+        <f>'OECD VAL EU'!Y35*10^6*About!$A$36</f>
+        <v>758221757299.78027</v>
+      </c>
+      <c r="AE2">
+        <f>'OECD VAL EU'!Z35*10^6*About!$A$36</f>
+        <v>321887469296.93646</v>
+      </c>
+      <c r="AF2">
+        <f>'OECD VAL EU'!AA35*10^6*About!$A$36</f>
+        <v>179312829724.70331</v>
+      </c>
+      <c r="AG2">
+        <f>'OECD VAL EU'!AB35*10^6*About!$A$36</f>
+        <v>67810848523.776764</v>
+      </c>
+      <c r="AH2">
+        <f>'OECD VAL EU'!AC35*10^6*About!$A$36</f>
+        <v>44422096884.856354</v>
+      </c>
+      <c r="AI2">
+        <f>'OECD VAL EU'!AD35*10^6*About!$A$36</f>
+        <v>172380263416.87729</v>
+      </c>
+      <c r="AJ2">
+        <f>'OECD VAL EU'!AE35*10^6*About!$A$36</f>
+        <v>294275354156.89172</v>
+      </c>
+      <c r="AK2">
+        <f>'OECD VAL EU'!AF35*10^6*About!$A$36</f>
+        <v>57329299325.904884</v>
+      </c>
+      <c r="AL2">
+        <f>'OECD VAL EU'!AG35*10^6*About!$A$36</f>
+        <v>722806792954.5647</v>
+      </c>
+      <c r="AM2">
+        <f>'OECD VAL EU'!AH35*10^6*About!$A$36</f>
+        <v>577804365164.97131</v>
+      </c>
+      <c r="AN2">
+        <f>'OECD VAL EU'!AI35*10^6*About!$A$36</f>
+        <v>484941089275.99286</v>
+      </c>
+      <c r="AO2">
+        <f>'OECD VAL EU'!AJ35*10^6*About!$A$36</f>
+        <v>637286807265.71521</v>
+      </c>
+      <c r="AP2">
+        <f>'OECD VAL EU'!AK35*10^6*About!$A$36</f>
+        <v>193382266001.89017</v>
+      </c>
+      <c r="AQ2">
+        <f>'OECD VAL EU'!AL35*10^6*About!$A$36</f>
+        <v>48315027603.083321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A4" s="122" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="122"/>
+      <c r="W4" s="122"/>
+      <c r="X4" s="122"/>
+      <c r="Y4" s="122"/>
+      <c r="Z4" s="122"/>
+      <c r="AA4" s="122"/>
+      <c r="AB4" s="122"/>
+      <c r="AC4" s="122"/>
+      <c r="AD4" s="122"/>
+      <c r="AE4" s="122"/>
+      <c r="AF4" s="122"/>
+      <c r="AG4" s="122"/>
+      <c r="AH4" s="122"/>
+      <c r="AI4" s="122"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
+      <c r="AL4" s="122"/>
+      <c r="AM4" s="122"/>
+      <c r="AN4" s="122"/>
+      <c r="AO4" s="122"/>
+      <c r="AP4" s="122"/>
+      <c r="AQ4" s="122"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="123" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N6" s="123" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="S6" s="124" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" s="124" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="124" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" s="125" t="s">
+        <v>22</v>
+      </c>
+      <c r="W6" s="126" t="s">
+        <v>23</v>
+      </c>
+      <c r="X6" s="127" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y6" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AC6" s="123" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="26" width="10.140625" customWidth="1"/>
-    <col min="27" max="27" width="13.5703125" customWidth="1"/>
-    <col min="28" max="43" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" customWidth="1"/>
+    <col min="2" max="26" width="10.1796875" customWidth="1"/>
+    <col min="27" max="27" width="13.54296875" customWidth="1"/>
+    <col min="28" max="43" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>87</v>
       </c>
@@ -28138,176 +28835,176 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1143</v>
       </c>
       <c r="B2">
-        <f>'OECD VAL EU'!C35*10^6*About!$A$36</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,B1)</f>
         <v>53164715422.530861</v>
       </c>
       <c r="C2" s="52">
-        <f>'OECD VAL US'!D9*10^6*About!$A$36*('EU Data for ISIC Splits'!D10/SUM('EU Data for ISIC Splits'!D10:E10))</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,C1)</f>
         <v>30902767751.968121</v>
       </c>
       <c r="D2" s="53">
-        <f>'OECD VAL US'!D9*10^6*About!$A$36*('EU Data for ISIC Splits'!E10/SUM('EU Data for ISIC Splits'!D10:E10))</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,D1)</f>
         <v>11185172707.53479</v>
       </c>
       <c r="E2">
-        <f>'OECD VAL EU'!E35*10^6*About!$A$36</f>
-        <v>7828450490.4205198</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,E1)</f>
+        <v>0</v>
       </c>
       <c r="F2">
-        <f>'OECD VAL EU'!F35*10^6*About!$A$36</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,F1)</f>
         <v>1049775717.7923944</v>
       </c>
       <c r="G2">
-        <f>'OECD VAL EU'!G35*10^6*About!$A$36</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,G1)</f>
         <v>133320299495.58052</v>
       </c>
       <c r="H2">
-        <f>'OECD VAL EU'!H35*10^6*About!$A$36</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,H1)</f>
         <v>39548386731.12056</v>
       </c>
       <c r="I2">
-        <f>'OECD VAL EU'!I35*10^6*About!$A$36</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,I1)</f>
         <v>22297621936.164917</v>
       </c>
       <c r="J2">
-        <f>'OECD VAL EU'!J35*10^6*About!$A$36</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,J1)</f>
         <v>44476711151.849869</v>
       </c>
       <c r="K2">
-        <f>'OECD VAL EU'!K35*10^6*About!$A$36</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,K1)</f>
         <v>18953717652.910976</v>
       </c>
       <c r="L2" s="52">
-        <f>'OECD VAL US'!L9*10^6*About!$A$36*('EU Data for ISIC Splits'!G10/SUM('EU Data for ISIC Splits'!G10:H10))</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,L1)</f>
         <v>38348469417.289291</v>
       </c>
       <c r="M2" s="53">
-        <f>'OECD VAL US'!L9*10^6*About!$A$36*('EU Data for ISIC Splits'!H10/SUM('EU Data for ISIC Splits'!G10:H10))</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,M1)</f>
         <v>59544488888.638145</v>
       </c>
       <c r="N2">
-        <f>'OECD VAL EU'!M35*10^6*About!$A$36</f>
-        <v>56454646705.991539</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,N1)</f>
+        <v>0</v>
       </c>
       <c r="O2" s="52">
-        <f>'OECD VAL US'!N9*10^6*About!$A$36*('EU Data for ISIC Splits'!J10/SUM('EU Data for ISIC Splits'!J10:K10))</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,O1)</f>
         <v>6486983095.2897129</v>
       </c>
       <c r="P2" s="53">
-        <f>'OECD VAL US'!N9*10^6*About!$A$36*('EU Data for ISIC Splits'!K10/SUM('EU Data for ISIC Splits'!J10:K10))</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,P1)</f>
         <v>21476713083.718544</v>
       </c>
       <c r="Q2" s="52">
-        <f>'OECD VAL US'!O9*10^6*About!$A$36*('EU Data for ISIC Splits'!M10/SUM('EU Data for ISIC Splits'!M10:N10))</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,Q1)</f>
         <v>19369297066.744091</v>
       </c>
       <c r="R2" s="53">
-        <f>'OECD VAL US'!O9*10^6*About!$A$36*('EU Data for ISIC Splits'!N10/SUM('EU Data for ISIC Splits'!M10:N10))</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,R1)</f>
         <v>11165793403.897251</v>
       </c>
       <c r="S2">
-        <f>'OECD VAL EU'!P35*10^6*About!$A$36</f>
-        <v>115189611484.28172</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,S1)</f>
+        <v>0</v>
       </c>
       <c r="T2">
-        <f>'OECD VAL EU'!Q35*10^6*About!$A$36</f>
-        <v>54677388222.06002</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,T1)</f>
+        <v>0</v>
       </c>
       <c r="U2">
-        <f>'OECD VAL EU'!R35*10^6*About!$A$36</f>
-        <v>61353004962.310722</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,U1)</f>
+        <v>0</v>
       </c>
       <c r="V2">
-        <f>'OECD VAL EU'!S35*10^6*About!$A$36</f>
-        <v>143027380027.69415</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,V1)</f>
+        <v>374247384696.34662</v>
       </c>
       <c r="W2">
-        <f>'OECD VAL EU'!T35*10^6*About!$A$36</f>
-        <v>121755853419.62813</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,W1)</f>
+        <v>154811957053.37592</v>
       </c>
       <c r="X2">
-        <f>'OECD VAL EU'!U35*10^6*About!$A$36</f>
-        <v>33056103633.747795</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,X1)</f>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <f>'OECD VAL EU'!V35*10^6*About!$A$36</f>
-        <v>115208284758.93289</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,Y1)</f>
+        <v>512209373798.32654</v>
       </c>
       <c r="Z2" s="52">
-        <f>'OECD VAL US'!W9*10^6*About!$A$36*('EU Data for ISIC Splits'!P10/SUM('EU Data for ISIC Splits'!P10:R10))</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,Z1)</f>
         <v>35539280131.495125</v>
       </c>
       <c r="AA2" s="55">
-        <f>'OECD VAL US'!W9*10^6*About!$A$36*('EU Data for ISIC Splits'!Q10/SUM('EU Data for ISIC Splits'!P10:R10))</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,AA1)</f>
         <v>9509805144.3849621</v>
       </c>
       <c r="AB2" s="53">
-        <f>'OECD VAL US'!W9*10^6*About!$A$36*('EU Data for ISIC Splits'!R10/SUM('EU Data for ISIC Splits'!P10:R10))</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,AB1)</f>
         <v>54600680708.644234</v>
       </c>
       <c r="AC2">
-        <f>'OECD VAL EU'!X35*10^6*About!$A$36</f>
-        <v>332717991842.98163</v>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,AC1)</f>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <f>'OECD VAL EU'!Y35*10^6*About!$A$36</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,AD1)</f>
         <v>758221757299.78027</v>
       </c>
       <c r="AE2">
-        <f>'OECD VAL EU'!Z35*10^6*About!$A$36</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,AE1)</f>
         <v>321887469296.93646</v>
       </c>
       <c r="AF2">
-        <f>'OECD VAL EU'!AA35*10^6*About!$A$36</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,AF1)</f>
         <v>179312829724.70331</v>
       </c>
       <c r="AG2">
-        <f>'OECD VAL EU'!AB35*10^6*About!$A$36</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,AG1)</f>
         <v>67810848523.776764</v>
       </c>
       <c r="AH2">
-        <f>'OECD VAL EU'!AC35*10^6*About!$A$36</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,AH1)</f>
         <v>44422096884.856354</v>
       </c>
       <c r="AI2">
-        <f>'OECD VAL EU'!AD35*10^6*About!$A$36</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,AI1)</f>
         <v>172380263416.87729</v>
       </c>
       <c r="AJ2">
-        <f>'OECD VAL EU'!AE35*10^6*About!$A$36</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,AJ1)</f>
         <v>294275354156.89172</v>
       </c>
       <c r="AK2">
-        <f>'OECD VAL EU'!AF35*10^6*About!$A$36</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,AK1)</f>
         <v>57329299325.904884</v>
       </c>
       <c r="AL2">
-        <f>'OECD VAL EU'!AG35*10^6*About!$A$36</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,AL1)</f>
         <v>722806792954.5647</v>
       </c>
       <c r="AM2">
-        <f>'OECD VAL EU'!AH35*10^6*About!$A$36</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,AM1)</f>
         <v>577804365164.97131</v>
       </c>
       <c r="AN2">
-        <f>'OECD VAL EU'!AI35*10^6*About!$A$36</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,AN1)</f>
         <v>484941089275.99286</v>
       </c>
       <c r="AO2">
-        <f>'OECD VAL EU'!AJ35*10^6*About!$A$36</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,AO1)</f>
         <v>637286807265.71521</v>
       </c>
       <c r="AP2">
-        <f>'OECD VAL EU'!AK35*10^6*About!$A$36</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,AP1)</f>
         <v>193382266001.89017</v>
       </c>
       <c r="AQ2">
-        <f>'OECD VAL EU'!AL35*10^6*About!$A$36</f>
+        <f>SUMIFS('Pre ISIC Consolidation'!$B$2:$AQ$2,'Pre ISIC Consolidation'!$B$6:$AQ$6,AQ1)</f>
         <v>48315027603.083321</v>
       </c>
     </row>
@@ -28318,12 +29015,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28550,20 +29249,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7E46C6E-E7F4-4336-B2D9-D075C882516C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A51831F5-BBC8-4C0F-87D0-DEE41C3CA568}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28588,12 +29288,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A51831F5-BBC8-4C0F-87D0-DEE41C3CA568}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7E46C6E-E7F4-4336-B2D9-D075C882516C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>